--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -30,11 +30,11 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId13"/>
-    <pivotCache cacheId="6" r:id="rId14"/>
-    <pivotCache cacheId="7" r:id="rId15"/>
-    <pivotCache cacheId="8" r:id="rId16"/>
-    <pivotCache cacheId="9" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
+    <pivotCache cacheId="2" r:id="rId15"/>
+    <pivotCache cacheId="3" r:id="rId16"/>
+    <pivotCache cacheId="4" r:id="rId17"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -37801,7 +37801,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B196" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
@@ -38633,7 +38633,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:GF3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisCol" numFmtId="14" showAll="0" sortType="ascending">
@@ -39442,7 +39442,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B196" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
@@ -40283,7 +40283,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B192" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
@@ -41100,7 +41100,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B192" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
@@ -41917,7 +41917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B218" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
@@ -42838,7 +42838,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B196" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
@@ -43679,7 +43679,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C183" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
@@ -50716,7 +50716,7 @@
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -50727,7 +50727,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="35">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50738,7 +50738,7 @@
       <c r="L5" s="20"/>
       <c r="N5" s="37">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -50751,7 +50751,7 @@
       </c>
       <c r="T5">
         <f ca="1">N6-N5</f>
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50806,7 +50806,7 @@
       </c>
       <c r="T6">
         <f ca="1">T5/30</f>
-        <v>1.6</v>
+        <v>1.5666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50843,7 +50843,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G9-G5</f>
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P7" s="29">
         <f>SUM(P6:P6)</f>
@@ -50893,14 +50893,14 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>9.5666666666666664</v>
+        <v>9.5333333333333332</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
       <c r="R8" s="66">
         <f ca="1">XIRR(R5:R6,N5:N6)</f>
-        <v>0.58358772397041325</v>
+        <v>0.59915230870246894</v>
       </c>
       <c r="S8" s="22"/>
     </row>
@@ -50923,7 +50923,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G9" s="44">
         <v>44712</v>
@@ -50968,7 +50968,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>13.766666666666667</v>
+        <v>13.733333333333333</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="29">
@@ -51017,7 +51017,7 @@
       </c>
       <c r="J11" s="55">
         <f ca="1">XIRR(J5:J9,G5:G9)</f>
-        <v>0.49258169531822205</v>
+        <v>0.49504957795143134</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -51026,7 +51026,7 @@
       </c>
       <c r="R11" s="70">
         <f ca="1">R10/T6</f>
-        <v>3.8948393378773072</v>
+        <v>3.9777082599598033</v>
       </c>
       <c r="S11" s="22"/>
     </row>
@@ -51065,7 +51065,7 @@
       </c>
       <c r="D13" s="55">
         <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>1.0022038102149962</v>
+        <v>1.0121581196784974</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="22"/>
@@ -51096,7 +51096,7 @@
       </c>
       <c r="J14" s="70">
         <f ca="1">J13/L8</f>
-        <v>3.2597866928285697</v>
+        <v>3.2711845483979003</v>
       </c>
       <c r="Q14" s="22"/>
     </row>
@@ -51123,7 +51123,7 @@
       </c>
       <c r="D16" s="29">
         <f ca="1">D15/F10</f>
-        <v>2.6963680387409199</v>
+        <v>2.7029126213592232</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="1"/>
@@ -51179,7 +51179,7 @@
       <c r="E18" s="20"/>
       <c r="G18" s="54">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="H18" s="63"/>
       <c r="I18" s="61"/>
@@ -51188,7 +51188,7 @@
       </c>
       <c r="N18" s="54">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="O18" s="79"/>
       <c r="P18" s="79"/>
@@ -51199,7 +51199,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="52"/>
@@ -51379,7 +51379,7 @@
       </c>
       <c r="L23">
         <f ca="1">G23-G18</f>
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N23" s="39">
         <v>44838</v>
@@ -51398,7 +51398,7 @@
       </c>
       <c r="S23">
         <f ca="1">N23-N18</f>
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51432,7 +51432,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>26.366666666666667</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O19:O23)</f>
@@ -51451,7 +51451,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>13.766666666666667</v>
+        <v>13.733333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51493,14 +51493,14 @@
       </c>
       <c r="J26" s="66">
         <f ca="1">XIRR(J18:J23,G18:G23)</f>
-        <v>0.49972438216209414</v>
+        <v>0.50070213675498965</v>
       </c>
       <c r="P26" s="70" t="s">
         <v>62</v>
       </c>
       <c r="Q26" s="66">
         <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.49140458703041068</v>
+        <v>0.49412025809288029</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51586,14 +51586,14 @@
       </c>
       <c r="J29" s="70">
         <f ca="1">J28/L24</f>
-        <v>4.0736058435173481</v>
+        <v>4.0787623066104084</v>
       </c>
       <c r="P29" s="70" t="s">
         <v>40</v>
       </c>
       <c r="Q29">
         <f ca="1">Q28/S24</f>
-        <v>2.0892076689966044</v>
+        <v>2.0942785613970818</v>
       </c>
       <c r="S29" s="22"/>
     </row>
@@ -51693,7 +51693,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51714,7 +51714,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>44.466666666666669</v>
+        <v>44.43333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51737,7 +51737,7 @@
       </c>
       <c r="D38" s="66">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.70197018384933485</v>
+        <v>0.70357826948165902</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51764,7 +51764,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.4117620601463967</v>
+        <v>4.4150717091037466</v>
       </c>
       <c r="F41" s="43"/>
       <c r="T41" s="22"/>
@@ -51834,7 +51834,7 @@
       </c>
       <c r="D51" s="55">
         <f ca="1">XIRR(J18:J23,G18:G23)</f>
-        <v>0.49972438216209414</v>
+        <v>0.50070213675498965</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="29"/>
@@ -51855,7 +51855,7 @@
   <dimension ref="A1:AD233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51951,11 +51951,21 @@
       <c r="A4" s="7">
         <v>44426</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="8">
+        <v>6224.5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5981</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6875</v>
+      </c>
+      <c r="E4" s="8">
+        <v>6385</v>
+      </c>
+      <c r="F4" s="8">
+        <v>6270</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -44774,7 +44774,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -50725,7 +50725,7 @@
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -50736,7 +50736,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="35">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50747,7 +50747,7 @@
       <c r="L5" s="20"/>
       <c r="N5" s="37">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -50760,7 +50760,7 @@
       </c>
       <c r="T5">
         <f ca="1">N6-N5</f>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50815,7 +50815,7 @@
       </c>
       <c r="T6">
         <f ca="1">T5/30</f>
-        <v>1.1000000000000001</v>
+        <v>1.0333333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50852,7 +50852,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G8-G5</f>
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P7" s="29">
         <f>SUM(P6:P6)</f>
@@ -50902,14 +50902,14 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>9.0666666666666664</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
       <c r="R8" s="66">
         <f ca="1">XIRR(R5:R6,N5:N6)</f>
-        <v>0.95158983469009395</v>
+        <v>1.0376204609870909</v>
       </c>
       <c r="S8" s="22"/>
     </row>
@@ -50932,7 +50932,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="29">
@@ -50977,7 +50977,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>13.266666666666667</v>
+        <v>13.2</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
@@ -50986,7 +50986,7 @@
       </c>
       <c r="J10" s="55">
         <f ca="1">XIRR(J5:J8,G5:G8)</f>
-        <v>0.34212304949760441</v>
+        <v>0.34530259966850285</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -51030,7 +51030,7 @@
       </c>
       <c r="R11" s="70">
         <f ca="1">R10/T6</f>
-        <v>5.6652208550942644</v>
+        <v>6.0307189747777654</v>
       </c>
       <c r="S11" s="22"/>
     </row>
@@ -51069,7 +51069,7 @@
       </c>
       <c r="D13" s="55">
         <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>1.178731119632721</v>
+        <v>1.207703006267548</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="22"/>
@@ -51079,7 +51079,7 @@
       </c>
       <c r="J13" s="70">
         <f ca="1">J12/L8</f>
-        <v>2.4824874071544434</v>
+        <v>2.5008762027629947</v>
       </c>
       <c r="Q13" s="22"/>
     </row>
@@ -51123,7 +51123,7 @@
       </c>
       <c r="D16" s="29">
         <f ca="1">D15/F10</f>
-        <v>2.7979899497487435</v>
+        <v>2.812121212121212</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="48" t="s">
@@ -51148,7 +51148,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="54">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="H17" s="63"/>
       <c r="I17" s="61"/>
@@ -51196,7 +51196,7 @@
       </c>
       <c r="N18" s="54">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="O18" s="79"/>
       <c r="P18" s="79"/>
@@ -51207,7 +51207,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="52"/>
@@ -51388,7 +51388,7 @@
       </c>
       <c r="L23">
         <f ca="1">G22-G17</f>
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="N23" s="39">
         <v>44838</v>
@@ -51407,7 +51407,7 @@
       </c>
       <c r="S23">
         <f ca="1">N23-N18</f>
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51432,7 +51432,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>25.866666666666667</v>
+        <v>25.8</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O19:O23)</f>
@@ -51451,7 +51451,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>13.266666666666667</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51474,7 +51474,7 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.51482110619544985</v>
+        <v>0.51690613627433768</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51505,7 +51505,7 @@
       </c>
       <c r="Q26" s="66">
         <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.53566184639930736</v>
+        <v>0.54219163060188302</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51560,7 +51560,7 @@
       </c>
       <c r="J28" s="70">
         <f ca="1">J27/L24</f>
-        <v>4.1523482245131724</v>
+        <v>4.1630778064886593</v>
       </c>
       <c r="P28" s="70" t="s">
         <v>39</v>
@@ -51593,7 +51593,7 @@
       </c>
       <c r="Q29">
         <f ca="1">Q28/S24</f>
-        <v>2.167946651496476</v>
+        <v>2.1788958770090847</v>
       </c>
       <c r="S29" s="22"/>
     </row>
@@ -51689,7 +51689,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51710,7 +51710,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>43.966666666666669</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51733,7 +51733,7 @@
       </c>
       <c r="D38" s="66">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.72708114385604872</v>
+        <v>0.73059822320938106</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51760,7 +51760,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.4619337287606466</v>
+        <v>4.4687096341953634</v>
       </c>
       <c r="F41" s="43"/>
       <c r="T41" s="22"/>
@@ -51830,7 +51830,7 @@
       </c>
       <c r="D51" s="55">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.51482110619544985</v>
+        <v>0.51690613627433768</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="29"/>
@@ -51850,8 +51850,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AD243"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51913,11 +51913,21 @@
       <c r="A2" s="7">
         <v>44442</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="8">
+        <v>6605</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6400</v>
+      </c>
+      <c r="D2" s="8">
+        <v>7400</v>
+      </c>
+      <c r="E2" s="8">
+        <v>6770</v>
+      </c>
+      <c r="F2" s="8">
+        <v>6770</v>
+      </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -51930,11 +51940,21 @@
       <c r="A3" s="7">
         <v>44441</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="8">
+        <v>6600</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6390</v>
+      </c>
+      <c r="D3" s="8">
+        <v>7500</v>
+      </c>
+      <c r="E3" s="8">
+        <v>6755</v>
+      </c>
+      <c r="F3" s="8">
+        <v>6710</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -50725,7 +50725,7 @@
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -50736,7 +50736,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="35">
         <f ca="1">TODAY()</f>
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50747,7 +50747,7 @@
       <c r="L5" s="20"/>
       <c r="N5" s="37">
         <f ca="1">TODAY()</f>
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -50760,7 +50760,7 @@
       </c>
       <c r="T5">
         <f ca="1">N6-N5</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50815,7 +50815,7 @@
       </c>
       <c r="T6">
         <f ca="1">T5/30</f>
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50852,7 +50852,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G8-G5</f>
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P7" s="29">
         <f>SUM(P6:P6)</f>
@@ -50902,14 +50902,14 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>8.6666666666666661</v>
+        <v>8.6333333333333329</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
       <c r="R8" s="66">
         <f ca="1">XIRR(R5:R6,N5:N6)</f>
-        <v>1.8597288727760317</v>
+        <v>2.0139851331710821</v>
       </c>
       <c r="S8" s="22"/>
     </row>
@@ -50932,7 +50932,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="29">
@@ -50977,7 +50977,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>12.866666666666667</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
@@ -50986,7 +50986,7 @@
       </c>
       <c r="J10" s="55">
         <f ca="1">XIRR(J5:J8,G5:G8)</f>
-        <v>0.36212769150733948</v>
+        <v>0.36390059590339663</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -51030,7 +51030,7 @@
       </c>
       <c r="R11" s="70">
         <f ca="1">R10/T6</f>
-        <v>8.9024899151481307</v>
+        <v>9.3476144109055372</v>
       </c>
       <c r="S11" s="22"/>
     </row>
@@ -51069,7 +51069,7 @@
       </c>
       <c r="D13" s="55">
         <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>1.3808288455009461</v>
+        <v>1.4013498902320864</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="22"/>
@@ -51079,7 +51079,7 @@
       </c>
       <c r="J13" s="70">
         <f ca="1">J12/L8</f>
-        <v>2.5970637490231101</v>
+        <v>2.6070910221853616</v>
       </c>
       <c r="Q13" s="22"/>
     </row>
@@ -51123,7 +51123,7 @@
       </c>
       <c r="D16" s="29">
         <f ca="1">D15/F10</f>
-        <v>2.8849740932642485</v>
+        <v>2.8924675324675322</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="48" t="s">
@@ -51148,7 +51148,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="54">
         <f ca="1">TODAY()</f>
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="H17" s="63"/>
       <c r="I17" s="61"/>
@@ -51196,7 +51196,7 @@
       </c>
       <c r="N18" s="54">
         <f ca="1">TODAY()</f>
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="O18" s="79"/>
       <c r="P18" s="79"/>
@@ -51207,7 +51207,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="52"/>
@@ -51388,7 +51388,7 @@
       </c>
       <c r="L23">
         <f ca="1">G22-G17</f>
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="N23" s="39">
         <v>44838</v>
@@ -51407,7 +51407,7 @@
       </c>
       <c r="S23">
         <f ca="1">N23-N18</f>
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51432,7 +51432,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>25.466666666666665</v>
+        <v>25.433333333333334</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O19:O23)</f>
@@ -51451,7 +51451,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>12.866666666666667</v>
+        <v>12.833333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51474,7 +51474,7 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.52760130763053892</v>
+        <v>0.52869629263877871</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51505,7 +51505,7 @@
       </c>
       <c r="Q26" s="66">
         <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.57747223973274242</v>
+        <v>0.58126334547996528</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51560,7 +51560,7 @@
       </c>
       <c r="J28" s="70">
         <f ca="1">J27/L24</f>
-        <v>4.2175683536940083</v>
+        <v>4.2230959662152321</v>
       </c>
       <c r="P28" s="70" t="s">
         <v>39</v>
@@ -51593,7 +51593,7 @@
       </c>
       <c r="Q29">
         <f ca="1">Q28/S24</f>
-        <v>2.2353439567243458</v>
+        <v>2.2411500449236299</v>
       </c>
       <c r="S29" s="22"/>
     </row>
@@ -51689,7 +51689,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51710,7 +51710,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>43.56666666666667</v>
+        <v>43.533333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51733,7 +51733,7 @@
       </c>
       <c r="D38" s="66">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.74883700609207149</v>
+        <v>0.75072356462478629</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51760,7 +51760,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.5029002205319761</v>
+        <v>4.5063480767498421</v>
       </c>
       <c r="F41" s="43"/>
       <c r="T41" s="22"/>
@@ -51830,7 +51830,7 @@
       </c>
       <c r="D51" s="55">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.52760130763053892</v>
+        <v>0.52869629263877871</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="29"/>
@@ -51851,7 +51851,7 @@
   <dimension ref="A1:AD253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51964,11 +51964,21 @@
       <c r="A5" s="7">
         <v>44453</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="8">
+        <v>6761</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6561</v>
+      </c>
+      <c r="D5" s="8">
+        <v>7455</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6840</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6850</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -44774,7 +44774,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -50643,7 +50643,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
+    <sheetView topLeftCell="G10" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:J6"/>
     </sheetView>
   </sheetViews>
@@ -50725,7 +50725,7 @@
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -50736,7 +50736,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="35">
         <f ca="1">TODAY()</f>
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50747,7 +50747,7 @@
       <c r="L5" s="20"/>
       <c r="N5" s="37">
         <f ca="1">TODAY()</f>
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -50760,7 +50760,7 @@
       </c>
       <c r="T5">
         <f ca="1">N6-N5</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50815,7 +50815,7 @@
       </c>
       <c r="T6">
         <f ca="1">T5/30</f>
-        <v>0.66666666666666663</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50852,7 +50852,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G8-G5</f>
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P7" s="29">
         <f>SUM(P6:P6)</f>
@@ -50902,14 +50902,14 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>8.6333333333333329</v>
+        <v>8.6</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
       <c r="R8" s="66">
         <f ca="1">XIRR(R5:R6,N5:N6)</f>
-        <v>2.0139851331710821</v>
+        <v>2.1941775560379031</v>
       </c>
       <c r="S8" s="22"/>
     </row>
@@ -50932,7 +50932,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="29">
@@ -50977,7 +50977,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>12.833333333333334</v>
+        <v>12.8</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
@@ -50986,7 +50986,7 @@
       </c>
       <c r="J10" s="55">
         <f ca="1">XIRR(J5:J8,G5:G8)</f>
-        <v>0.36390059590339663</v>
+        <v>0.36569089293479928</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -51030,7 +51030,7 @@
       </c>
       <c r="R11" s="70">
         <f ca="1">R10/T6</f>
-        <v>9.3476144109055372</v>
+        <v>9.8395941167426706</v>
       </c>
       <c r="S11" s="22"/>
     </row>
@@ -51069,7 +51069,7 @@
       </c>
       <c r="D13" s="55">
         <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>1.4013498902320864</v>
+        <v>1.4225870013237003</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="22"/>
@@ -51079,7 +51079,7 @@
       </c>
       <c r="J13" s="70">
         <f ca="1">J12/L8</f>
-        <v>2.6070910221853616</v>
+        <v>2.6171960261473202</v>
       </c>
       <c r="Q13" s="22"/>
     </row>
@@ -51123,7 +51123,7 @@
       </c>
       <c r="D16" s="29">
         <f ca="1">D15/F10</f>
-        <v>2.8924675324675322</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="48" t="s">
@@ -51148,7 +51148,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="54">
         <f ca="1">TODAY()</f>
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="H17" s="63"/>
       <c r="I17" s="61"/>
@@ -51196,7 +51196,7 @@
       </c>
       <c r="N18" s="54">
         <f ca="1">TODAY()</f>
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="O18" s="79"/>
       <c r="P18" s="79"/>
@@ -51207,7 +51207,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="52"/>
@@ -51388,7 +51388,7 @@
       </c>
       <c r="L23">
         <f ca="1">G22-G17</f>
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="N23" s="39">
         <v>44838</v>
@@ -51407,7 +51407,7 @@
       </c>
       <c r="S23">
         <f ca="1">N23-N18</f>
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51432,7 +51432,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>25.433333333333334</v>
+        <v>25.4</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O19:O23)</f>
@@ -51451,7 +51451,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>12.833333333333334</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51474,7 +51474,7 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.52869629263877871</v>
+        <v>0.52979604601860064</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51505,7 +51505,7 @@
       </c>
       <c r="Q26" s="66">
         <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.58126334547996528</v>
+        <v>0.58510630726814283</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51560,7 +51560,7 @@
       </c>
       <c r="J28" s="70">
         <f ca="1">J27/L24</f>
-        <v>4.2230959662152321</v>
+        <v>4.2286380869058036</v>
       </c>
       <c r="P28" s="70" t="s">
         <v>39</v>
@@ -51593,7 +51593,7 @@
       </c>
       <c r="Q29">
         <f ca="1">Q28/S24</f>
-        <v>2.2411500449236299</v>
+        <v>2.2469863731656186</v>
       </c>
       <c r="S29" s="22"/>
     </row>
@@ -51689,7 +51689,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51710,7 +51710,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>43.533333333333331</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51733,7 +51733,7 @@
       </c>
       <c r="D38" s="66">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.75072356462478629</v>
+        <v>0.75262202024459857</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51760,7 +51760,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.5063480767498421</v>
+        <v>4.5098012170385386</v>
       </c>
       <c r="F41" s="43"/>
       <c r="T41" s="22"/>
@@ -51830,7 +51830,7 @@
       </c>
       <c r="D51" s="55">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.52869629263877871</v>
+        <v>0.52979604601860064</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="29"/>
@@ -51850,7 +51850,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AD253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -44780,6 +44780,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -50725,7 +50726,7 @@
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -50736,7 +50737,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="35">
         <f ca="1">TODAY()</f>
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50747,7 +50748,7 @@
       <c r="L5" s="20"/>
       <c r="N5" s="37">
         <f ca="1">TODAY()</f>
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -50760,7 +50761,7 @@
       </c>
       <c r="T5">
         <f ca="1">N6-N5</f>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50815,7 +50816,7 @@
       </c>
       <c r="T6">
         <f ca="1">T5/30</f>
-        <v>0.6333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50852,7 +50853,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G8-G5</f>
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="P7" s="29">
         <f>SUM(P6:P6)</f>
@@ -50902,14 +50903,14 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>8.6</v>
+        <v>8.3666666666666671</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
       <c r="R8" s="66">
         <f ca="1">XIRR(R5:R6,N5:N6)</f>
-        <v>2.1941775560379031</v>
+        <v>5.2888103961944575</v>
       </c>
       <c r="S8" s="22"/>
     </row>
@@ -50932,7 +50933,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="29">
@@ -50977,7 +50978,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>12.8</v>
+        <v>12.566666666666666</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
@@ -50986,7 +50987,7 @@
       </c>
       <c r="J10" s="55">
         <f ca="1">XIRR(J5:J8,G5:G8)</f>
-        <v>0.36569089293479928</v>
+        <v>0.37873240113258366</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -51030,7 +51031,7 @@
       </c>
       <c r="R11" s="70">
         <f ca="1">R10/T6</f>
-        <v>9.8395941167426706</v>
+        <v>15.579357351509229</v>
       </c>
       <c r="S11" s="22"/>
     </row>
@@ -51069,7 +51070,7 @@
       </c>
       <c r="D13" s="55">
         <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>1.4225870013237003</v>
+        <v>1.5953487038612364</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="22"/>
@@ -51079,7 +51080,7 @@
       </c>
       <c r="J13" s="70">
         <f ca="1">J12/L8</f>
-        <v>2.6171960261473202</v>
+        <v>2.6901855567570063</v>
       </c>
       <c r="Q13" s="22"/>
     </row>
@@ -51123,7 +51124,7 @@
       </c>
       <c r="D16" s="29">
         <f ca="1">D15/F10</f>
-        <v>2.8999999999999995</v>
+        <v>2.9538461538461536</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="48" t="s">
@@ -51148,7 +51149,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="54">
         <f ca="1">TODAY()</f>
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="H17" s="63"/>
       <c r="I17" s="61"/>
@@ -51196,7 +51197,7 @@
       </c>
       <c r="N18" s="54">
         <f ca="1">TODAY()</f>
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="O18" s="79"/>
       <c r="P18" s="79"/>
@@ -51207,7 +51208,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="52"/>
@@ -51388,7 +51389,7 @@
       </c>
       <c r="L23">
         <f ca="1">G22-G17</f>
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="N23" s="39">
         <v>44838</v>
@@ -51407,7 +51408,7 @@
       </c>
       <c r="S23">
         <f ca="1">N23-N18</f>
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51432,7 +51433,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>25.4</v>
+        <v>25.166666666666668</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O19:O23)</f>
@@ -51451,7 +51452,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>12.8</v>
+        <v>12.566666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51474,7 +51475,7 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.52979604601860064</v>
+        <v>0.53763026595115682</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51505,7 +51506,7 @@
       </c>
       <c r="Q26" s="66">
         <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.58510630726814283</v>
+        <v>0.61355569958686829</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51560,7 +51561,7 @@
       </c>
       <c r="J28" s="70">
         <f ca="1">J27/L24</f>
-        <v>4.2286380869058036</v>
+        <v>4.26784400294334</v>
       </c>
       <c r="P28" s="70" t="s">
         <v>39</v>
@@ -51593,7 +51594,7 @@
       </c>
       <c r="Q29">
         <f ca="1">Q28/S24</f>
-        <v>2.2469863731656186</v>
+        <v>2.2887076055586144</v>
       </c>
       <c r="S29" s="22"/>
     </row>
@@ -51689,7 +51690,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1305</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51710,7 +51711,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>43.5</v>
+        <v>43.266666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51733,7 +51734,7 @@
       </c>
       <c r="D38" s="66">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.75262202024459857</v>
+        <v>0.76625534296035736</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51760,7 +51761,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.5098012170385386</v>
+        <v>4.5341221789177917</v>
       </c>
       <c r="F41" s="43"/>
       <c r="T41" s="22"/>
@@ -51830,7 +51831,7 @@
       </c>
       <c r="D51" s="55">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.52979604601860064</v>
+        <v>0.53763026595115682</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="29"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="70">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>PBY22</t>
-  </si>
-  <si>
-    <t>T021</t>
-  </si>
-  <si>
-    <t>$</t>
   </si>
   <si>
     <t>TIR</t>
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t>227 al35</t>
+  </si>
+  <si>
+    <t>67715+61162,26</t>
+  </si>
+  <si>
+    <t>9102,69+4535,21</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1103,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1142,10 +1142,7 @@
     <xf numFmtId="2" fontId="19" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="19" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1155,7 +1152,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -44775,7 +44771,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44785,27 +44781,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>47</v>
+      <c r="A1" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
+      <c r="A2" s="61">
         <v>44165</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="60" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="1">
@@ -44815,7 +44811,7 @@
         <v>2459.42</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
         <v>30</v>
@@ -44825,23 +44821,23 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="65">
+      <c r="A3" s="61">
         <v>44200</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>10456.25</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
@@ -44851,10 +44847,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="A4" s="61">
         <v>44255</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="60" t="s">
         <v>30</v>
       </c>
       <c r="C4">
@@ -44864,41 +44860,41 @@
         <v>6389.26</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>56000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
+      <c r="A5" s="61">
         <v>44290</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
+      <c r="A6" s="61">
         <v>44291</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>41</v>
+      <c r="B6" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="C6">
         <v>6162.06</v>
@@ -44907,17 +44903,17 @@
         <v>6131.25</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="61">
         <v>44347</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="60" t="s">
         <v>30</v>
       </c>
       <c r="C7">
@@ -44927,14 +44923,14 @@
         <v>8177.24</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
+      <c r="A8" s="61">
         <v>44381</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="C8">
@@ -44944,14 +44940,14 @@
         <v>11909.7</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
+      <c r="A9" s="61">
         <v>44439</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="60" t="s">
         <v>30</v>
       </c>
       <c r="C9">
@@ -44961,78 +44957,96 @@
         <v>9330.43</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
+      <c r="A10" s="61">
         <v>44473</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="60" t="s">
         <v>29</v>
       </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>13637.9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+      <c r="A11" s="61">
         <v>44473</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>41</v>
+      <c r="B11" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>73846.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+      <c r="A12" s="61">
         <v>44530</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
+      <c r="A13" s="61">
         <v>44565</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
+      <c r="A14" s="61">
         <v>44620</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+      <c r="A15" s="61">
         <v>44655</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
+      <c r="A16" s="61">
         <v>44712</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="65">
+      <c r="A17" s="61">
         <v>44746</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
+      <c r="A18" s="61">
         <v>44838</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -50311,7 +50325,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -50348,28 +50362,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>47</v>
+      <c r="A1" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="68">
+      <c r="A2" s="64">
         <v>44208</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>34</v>
+      <c r="B2" s="65" t="s">
+        <v>32</v>
       </c>
       <c r="C2">
         <v>12266.73</v>
@@ -50378,27 +50392,27 @@
         <v>12205.4</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="67">
+        <v>49</v>
+      </c>
+      <c r="H2" s="63">
         <v>12502</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K2">
         <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
+      <c r="A3" s="64">
         <v>44298</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>34</v>
+      <c r="B3" s="65" t="s">
+        <v>32</v>
       </c>
       <c r="C3">
         <v>12600.77</v>
@@ -50407,27 +50421,27 @@
         <v>12537.77</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="67">
+        <v>56</v>
+      </c>
+      <c r="H3" s="63">
         <v>12035</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>115000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="74">
+      <c r="A4" s="70">
         <v>44305</v>
       </c>
-      <c r="B4" s="75" t="s">
-        <v>54</v>
+      <c r="B4" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="C4">
         <v>12544.24</v>
@@ -50436,21 +50450,21 @@
         <v>12481.52</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="67">
+        <v>59</v>
+      </c>
+      <c r="H4" s="63">
         <v>12488</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="68">
+      <c r="A5" s="64">
         <v>44389</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>34</v>
+      <c r="B5" s="65" t="s">
+        <v>32</v>
       </c>
       <c r="C5">
         <v>12676.96</v>
@@ -50459,176 +50473,176 @@
         <v>12329.29</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="67">
+        <v>67</v>
+      </c>
+      <c r="H5" s="63">
         <v>12292</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
+      <c r="A6" s="64">
         <v>44481</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>34</v>
+      <c r="B6" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="74">
+      <c r="A7" s="70">
         <v>44487</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>54</v>
+      <c r="B7" s="71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="64">
         <v>44573</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>34</v>
+      <c r="B8" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
+      <c r="A9" s="64">
         <v>44663</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>34</v>
+      <c r="B9" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="74">
+      <c r="A10" s="70">
         <v>44669</v>
       </c>
-      <c r="B10" s="75" t="s">
-        <v>54</v>
+      <c r="B10" s="71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="68">
+      <c r="A11" s="64">
         <v>44754</v>
       </c>
-      <c r="B11" s="69" t="s">
-        <v>34</v>
+      <c r="B11" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="68">
+      <c r="A12" s="64">
         <v>44846</v>
       </c>
-      <c r="B12" s="69" t="s">
-        <v>34</v>
+      <c r="B12" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="74">
+      <c r="A13" s="70">
         <v>44851</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>54</v>
+      <c r="B13" s="71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="A14" s="64">
         <v>44938</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>34</v>
+      <c r="B14" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="68">
+      <c r="A15" s="64">
         <v>45028</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>34</v>
+      <c r="B15" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="74">
+      <c r="A16" s="70">
         <v>45033</v>
       </c>
-      <c r="B16" s="75" t="s">
-        <v>54</v>
+      <c r="B16" s="71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="68">
+      <c r="A17" s="64">
         <v>45119</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>34</v>
+      <c r="B17" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
+      <c r="A18" s="64">
         <v>45211</v>
       </c>
-      <c r="B18" s="69" t="s">
-        <v>34</v>
+      <c r="B18" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74">
+      <c r="A19" s="70">
         <v>45216</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>54</v>
+      <c r="B19" s="71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72">
+      <c r="A20" s="68">
         <v>45303</v>
       </c>
-      <c r="B20" s="71" t="s">
-        <v>34</v>
+      <c r="B20" s="67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72">
+      <c r="A21" s="68">
         <v>45394</v>
       </c>
-      <c r="B21" s="71" t="s">
-        <v>34</v>
+      <c r="B21" s="67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72">
+      <c r="A22" s="68">
         <v>45485</v>
       </c>
-      <c r="B22" s="71" t="s">
-        <v>34</v>
+      <c r="B22" s="67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72">
+      <c r="A23" s="68">
         <v>45577</v>
       </c>
-      <c r="B23" s="71" t="s">
-        <v>34</v>
+      <c r="B23" s="67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="72">
+      <c r="A24" s="68">
         <v>45669</v>
       </c>
-      <c r="B24" s="71" t="s">
-        <v>34</v>
+      <c r="B24" s="67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73">
+      <c r="A25" s="69">
         <v>45759</v>
       </c>
-      <c r="B25" s="71" t="s">
-        <v>34</v>
+      <c r="B25" s="67" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -50644,8 +50658,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:J6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50661,25 +50675,24 @@
     <col min="21" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="20"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
-      <c r="O3" s="1"/>
-      <c r="T3" s="22"/>
-    </row>
-    <row r="4" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -50708,63 +50721,32 @@
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
-      <c r="N4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="22"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44461</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34">
+        <v>44474</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31">
         <v>-81.25</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="35">
+      <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="36">
+      <c r="J5" s="33">
         <v>-103.35</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
-      <c r="N5" s="37">
-        <f ca="1">TODAY()</f>
-        <v>44461</v>
-      </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="27">
-        <v>-102.7</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5">
-        <f ca="1">N6-N5</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>44381</v>
       </c>
@@ -50778,48 +50760,25 @@
         <f t="shared" ref="D6:D11" si="0">C6+B6</f>
         <v>19.43</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <v>44530</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="34">
         <v>8.8705999999999996</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="34">
         <v>0</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="33">
         <f t="shared" ref="J6:J8" si="1">I6+H6</f>
         <v>8.8705999999999996</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="N6" s="39">
-        <v>44473</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="40">
-        <v>9.1</v>
-      </c>
-      <c r="Q6" s="40">
-        <v>100</v>
-      </c>
-      <c r="R6" s="41">
-        <f>Q6+P6</f>
-        <v>109.1</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6">
-        <f ca="1">T5/30</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>44473</v>
       </c>
@@ -50833,43 +50792,30 @@
         <f t="shared" si="0"/>
         <v>18.36</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="35">
+      <c r="G7" s="32">
         <v>44620</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="34">
         <v>8.7731999999999992</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="34">
         <v>0</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="33">
         <f t="shared" si="1"/>
         <v>8.7731999999999992</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="20">
         <f ca="1">G8-G5</f>
-        <v>251</v>
-      </c>
-      <c r="P7" s="29">
-        <f>SUM(P6:P6)</f>
-        <v>9.1</v>
-      </c>
-      <c r="Q7" s="29">
-        <f>SUM(Q6:Q6)</f>
-        <v>100</v>
-      </c>
-      <c r="R7" s="29">
-        <f>SUM(R6:R6)</f>
-        <v>109.1</v>
-      </c>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>44565</v>
       </c>
@@ -50883,38 +50829,30 @@
         <f t="shared" si="0"/>
         <v>17.38</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="44">
+      <c r="G8" s="40">
         <v>44712</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="41">
         <v>8.9680999999999997</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="41">
         <v>100</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="42">
         <f t="shared" si="1"/>
         <v>108.96809999999999</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>8.3666666666666671</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="66">
-        <f ca="1">XIRR(R5:R6,N5:N6)</f>
-        <v>5.2888103961944575</v>
-      </c>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.9333333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>44655</v>
       </c>
@@ -50928,38 +50866,30 @@
         <f t="shared" si="0"/>
         <v>16.239999999999998</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>36</v>
+      <c r="E9" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>377</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="29">
+        <v>364</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="28">
         <f>SUM(H6:H8)</f>
         <v>26.611899999999999</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <f>SUM(I6:I8)</f>
         <v>100</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <f>SUM(J6:J8)</f>
         <v>126.61189999999999</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="16">
-        <f>R7-(-R5)</f>
-        <v>6.3999999999999915</v>
-      </c>
-      <c r="S9" s="22"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>44746</v>
       </c>
@@ -50973,139 +50903,123 @@
         <f t="shared" si="0"/>
         <v>15.239999999999998</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>37</v>
+      <c r="E10" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>12.566666666666666</v>
+        <v>12.133333333333333</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
       <c r="I10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="55">
+        <v>31</v>
+      </c>
+      <c r="J10" s="51">
         <f ca="1">XIRR(J5:J8,G5:G8)</f>
-        <v>0.37873240113258366</v>
+        <v>0.40558717846870418</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="Q10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="70">
-        <f>R9*100/-R5</f>
-        <v>6.2317429406036915</v>
-      </c>
-      <c r="S10" s="22"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
         <v>44838</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="36">
         <v>1.95</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="36">
         <v>22.81</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>24.759999999999998</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="I11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="29">
+        <v>36</v>
+      </c>
+      <c r="J11" s="28">
         <f>J9+J5</f>
         <v>23.261899999999997</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="Q11" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="70">
-        <f ca="1">R10/T6</f>
-        <v>15.579357351509229</v>
-      </c>
-      <c r="S11" s="22"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="38">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="34">
         <f>SUM(B6:B11)</f>
         <v>27.2</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <f>SUM(C6:C11)</f>
         <v>84.21</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <f>SUM(D6:D11)</f>
         <v>111.41</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="22"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="70">
+      <c r="I12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="66">
         <f>J11*100/-J5</f>
         <v>22.507885824866953</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="38"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="55">
+        <v>31</v>
+      </c>
+      <c r="D13" s="51">
         <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>1.5953487038612364</v>
-      </c>
-      <c r="E13" s="29"/>
+        <v>2.1076406717300409</v>
+      </c>
+      <c r="E13" s="28"/>
       <c r="F13" s="22"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="70">
+      <c r="I13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="66">
         <f ca="1">J12/L8</f>
-        <v>2.6901855567570063</v>
+        <v>2.8371284653193638</v>
       </c>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="38"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="29">
+        <v>36</v>
+      </c>
+      <c r="D14" s="28">
         <f>D12+D5</f>
         <v>30.159999999999997</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="1"/>
-      <c r="J14" s="42"/>
+      <c r="J14" s="38"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="38"/>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="29">
+        <v>37</v>
+      </c>
+      <c r="D15" s="28">
         <f>D14*100/-D5</f>
         <v>37.119999999999997</v>
       </c>
@@ -51113,120 +51027,120 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="38"/>
       <c r="Q15" s="22"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="38"/>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="29">
+        <v>38</v>
+      </c>
+      <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>2.9538461538461536</v>
+        <v>3.0593406593406591</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="62" t="s">
+      <c r="G16" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="45" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="22"/>
       <c r="D17" s="20"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="54">
+      <c r="G17" s="50">
         <f ca="1">TODAY()</f>
-        <v>44461</v>
-      </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="52">
+        <v>44474</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="48">
         <v>-67.5</v>
       </c>
-      <c r="N17" s="76" t="s">
+      <c r="N17" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="78" t="s">
+      <c r="O17" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="78" t="s">
+      <c r="P17" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="77" t="s">
+      <c r="Q17" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="45" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="20"/>
       <c r="G18" s="25">
         <v>44487</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="52">
         <v>8</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="46">
         <v>0</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="46">
         <v>8</v>
       </c>
-      <c r="N18" s="54">
+      <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44461</v>
-      </c>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="52">
+        <v>44474</v>
+      </c>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="48">
         <v>-71.55</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44461</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52">
+        <v>44474</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48">
         <v>-85</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="1"/>
       <c r="G19" s="25">
         <v>44669</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="52">
         <v>8</v>
       </c>
-      <c r="I19" s="50">
+      <c r="I19" s="46">
         <v>0</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="46">
         <v>8</v>
       </c>
       <c r="K19" s="1"/>
@@ -51234,13 +51148,13 @@
       <c r="N19" s="25">
         <v>44473</v>
       </c>
-      <c r="O19" s="56">
+      <c r="O19" s="52">
         <v>6.1208</v>
       </c>
-      <c r="P19" s="50">
+      <c r="P19" s="46">
         <v>12.2828</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="46">
         <v>18.403600000000001</v>
       </c>
     </row>
@@ -51248,37 +51162,37 @@
       <c r="A20" s="25">
         <v>44389</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="54">
         <v>9.4583999999999993</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="46">
         <v>0</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="46">
         <v>9.4583999999999993</v>
       </c>
       <c r="G20" s="25">
         <v>44851</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="52">
         <v>8</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="46">
         <v>0</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="46">
         <v>8</v>
       </c>
       <c r="N20" s="25">
         <v>44565</v>
       </c>
-      <c r="O20" s="56">
+      <c r="O20" s="52">
         <v>5.1315</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20" s="46">
         <v>12.2828</v>
       </c>
-      <c r="Q20" s="50">
+      <c r="Q20" s="46">
         <v>17.414300000000001</v>
       </c>
     </row>
@@ -51286,37 +51200,37 @@
       <c r="A21" s="25">
         <v>44481</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="54">
         <v>9.5623000000000005</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="46">
         <v>0</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="46">
         <v>9.5623000000000005</v>
       </c>
       <c r="G21" s="25">
         <v>45033</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="52">
         <v>8</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="46">
         <v>0</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="46">
         <v>8</v>
       </c>
       <c r="N21" s="25">
         <v>44655</v>
       </c>
-      <c r="O21" s="56">
+      <c r="O21" s="52">
         <v>3.9864999999999999</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21" s="46">
         <v>12.2828</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="46">
         <v>16.269300000000001</v>
       </c>
     </row>
@@ -51324,37 +51238,37 @@
       <c r="A22" s="25">
         <v>44573</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="54">
         <v>9.5623000000000005</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="46">
         <v>0</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="46">
         <v>9.5623000000000005</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="35">
         <v>45216</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="53">
         <v>8</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="47">
         <v>108</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="47">
         <v>108</v>
       </c>
       <c r="N22" s="25">
         <v>44746</v>
       </c>
-      <c r="O22" s="56">
+      <c r="O22" s="52">
         <v>2.9857</v>
       </c>
-      <c r="P22" s="50">
+      <c r="P22" s="46">
         <v>12.2828</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="Q22" s="46">
         <v>15.2685</v>
       </c>
     </row>
@@ -51362,78 +51276,78 @@
       <c r="A23" s="25">
         <v>44663</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="54">
         <v>9.3544999999999998</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="46">
         <v>0</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="46">
         <v>9.3544999999999998</v>
       </c>
       <c r="G23" s="22"/>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <f>SUM(H18:H22)</f>
         <v>40</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <f>SUM(I18:I22)</f>
         <v>108</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="28">
         <f>SUM(J18:J22)</f>
         <v>140</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L23">
         <f ca="1">G22-G17</f>
-        <v>755</v>
-      </c>
-      <c r="N23" s="39">
+        <v>742</v>
+      </c>
+      <c r="N23" s="35">
         <v>44838</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="53">
         <v>1.9621</v>
       </c>
-      <c r="P23" s="51">
+      <c r="P23" s="47">
         <v>22.811</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="47">
         <v>24.773099999999999</v>
       </c>
       <c r="R23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N23-N18</f>
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>44754</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="54">
         <v>9.4583999999999993</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="46">
         <v>0</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="46">
         <v>9.4583999999999993</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>25.166666666666668</v>
+        <v>24.733333333333334</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O19:O23)</f>
@@ -51448,34 +51362,34 @@
         <v>92.128799999999998</v>
       </c>
       <c r="R24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>12.566666666666666</v>
+        <v>12.133333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>44846</v>
       </c>
-      <c r="B25" s="58">
+      <c r="B25" s="54">
         <v>9.5623000000000005</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="46">
         <v>0</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="46">
         <v>9.5623000000000005</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="66">
+        <v>31</v>
+      </c>
+      <c r="J25" s="62">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.53763026595115682</v>
+        <v>0.55284230113029498</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51483,30 +51397,30 @@
       <c r="A26" s="25">
         <v>44938</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="54">
         <v>9.5623000000000005</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="46">
         <v>0</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="46">
         <v>9.5623000000000005</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="29" t="s">
-        <v>38</v>
+      <c r="I26" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="J26" s="16">
         <f>J23+J17</f>
         <v>72.5</v>
       </c>
-      <c r="P26" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q26" s="66">
+      <c r="P26" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="62">
         <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.61355569958686829</v>
+        <v>0.67482286095619204</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51514,26 +51428,26 @@
       <c r="A27" s="25">
         <v>45028</v>
       </c>
-      <c r="B27" s="58">
+      <c r="B27" s="54">
         <v>9.3544999999999998</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="46">
         <v>0</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="46">
         <v>9.3544999999999998</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="70">
+      <c r="I27" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="66">
         <f>J26*100/-J17</f>
         <v>107.4074074074074</v>
       </c>
-      <c r="P27" s="70" t="s">
-        <v>38</v>
+      <c r="P27" s="66" t="s">
+        <v>36</v>
       </c>
       <c r="Q27" s="16">
         <f>Q24+Q18</f>
@@ -51545,26 +51459,26 @@
       <c r="A28" s="25">
         <v>45119</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="54">
         <v>9.4583999999999993</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="46">
         <v>0</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="46">
         <v>9.4583999999999993</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="70">
+      <c r="I28" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="66">
         <f ca="1">J27/L24</f>
-        <v>4.26784400294334</v>
-      </c>
-      <c r="P28" s="70" t="s">
-        <v>39</v>
+        <v>4.3426175501647197</v>
+      </c>
+      <c r="P28" s="66" t="s">
+        <v>37</v>
       </c>
       <c r="Q28" s="16">
         <f>Q27*100/-Q18</f>
@@ -51576,25 +51490,25 @@
       <c r="A29" s="25">
         <v>45211</v>
       </c>
-      <c r="B29" s="58">
+      <c r="B29" s="54">
         <v>9.5623000000000005</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="46">
         <v>0</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="46">
         <v>9.5623000000000005</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="P29" s="70" t="s">
-        <v>40</v>
+      <c r="P29" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="Q29">
         <f ca="1">Q28/S24</f>
-        <v>2.2887076055586144</v>
+        <v>2.3704471628999935</v>
       </c>
       <c r="S29" s="22"/>
     </row>
@@ -51602,13 +51516,13 @@
       <c r="A30" s="25">
         <v>45303</v>
       </c>
-      <c r="B30" s="58">
+      <c r="B30" s="54">
         <v>9.5361999999999991</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="46">
         <v>0</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="46">
         <v>9.5361999999999991</v>
       </c>
       <c r="G30" s="1"/>
@@ -51623,13 +51537,13 @@
       <c r="A31" s="25">
         <v>45394</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="54">
         <v>9.4324999999999992</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="46">
         <v>0</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="46">
         <v>9.4324999999999992</v>
       </c>
       <c r="G31" s="1"/>
@@ -51644,13 +51558,13 @@
       <c r="A32" s="25">
         <v>45485</v>
       </c>
-      <c r="B32" s="58">
+      <c r="B32" s="54">
         <v>9.4324999999999992</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="46">
         <v>0</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="46">
         <v>9.4324999999999992</v>
       </c>
       <c r="K32" s="1"/>
@@ -51661,13 +51575,13 @@
       <c r="A33" s="25">
         <v>45577</v>
       </c>
-      <c r="B33" s="58">
+      <c r="B33" s="54">
         <v>9.5361999999999991</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="46">
         <v>0</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="46">
         <v>9.5361999999999991</v>
       </c>
       <c r="S33" s="22"/>
@@ -51676,42 +51590,42 @@
       <c r="A34" s="25">
         <v>45669</v>
       </c>
-      <c r="B34" s="58">
+      <c r="B34" s="54">
         <v>9.5623000000000005</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="46">
         <v>0</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="46">
         <v>9.5623000000000005</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1298</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39">
+      <c r="A35" s="35">
         <v>45759</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="55">
         <v>9.3544999999999998</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="47">
         <v>100</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="47">
         <v>109.3545</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>43.266666666666666</v>
+        <v>42.833333333333336</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51730,16 +51644,16 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="66">
+        <v>31</v>
+      </c>
+      <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.76625534296035736</v>
+        <v>0.79330505132675189</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C39" s="29" t="s">
-        <v>38</v>
+      <c r="C39" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="D39" s="1">
         <f>(D36-(-D19))</f>
@@ -51747,8 +51661,8 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C40" s="29" t="s">
-        <v>39</v>
+      <c r="C40" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="D40" s="1">
         <f>D39*100/-D19</f>
@@ -51756,89 +51670,89 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="29" t="s">
-        <v>40</v>
+      <c r="C41" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.5341221789177917</v>
-      </c>
-      <c r="F41" s="43"/>
+        <v>4.5799926756694891</v>
+      </c>
+      <c r="F41" s="39"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T42" s="22"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F43" s="66"/>
+      <c r="F43" s="62"/>
       <c r="T43" s="22"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T44" s="22"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T45" s="22"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T46" s="22"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T47" s="22"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T48" s="22"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T49" s="22"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T50" s="22"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="55">
+      <c r="C51" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="51">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.53763026595115682</v>
+        <v>0.55284230113029498</v>
       </c>
       <c r="T51" s="22"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E54" s="29"/>
+      <c r="E54" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51925,7 +51839,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="81"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -51942,7 +51856,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="81"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -51959,7 +51873,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="81"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -51986,7 +51900,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="81"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -52013,7 +51927,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="81"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -52040,7 +51954,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="81"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -52067,7 +51981,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="81"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -52094,7 +52008,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="81"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -52121,7 +52035,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="81"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -52148,7 +52062,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="81"/>
+      <c r="M11" s="77"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -52175,7 +52089,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="81"/>
+      <c r="M12" s="77"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -52202,7 +52116,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="81"/>
+      <c r="M13" s="77"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -52229,7 +52143,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="81"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -52256,7 +52170,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="81"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -52283,7 +52197,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="81"/>
+      <c r="M16" s="77"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -52310,7 +52224,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="81"/>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -52337,7 +52251,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="81"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -52364,7 +52278,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="81"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -52391,7 +52305,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="81"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -52418,7 +52332,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="81"/>
+      <c r="M21" s="77"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -52445,7 +52359,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="81"/>
+      <c r="M22" s="77"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
@@ -52472,7 +52386,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="81"/>
+      <c r="M23" s="77"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -52499,7 +52413,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="81"/>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
@@ -52526,7 +52440,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="81"/>
+      <c r="M25" s="77"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
@@ -52553,7 +52467,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="81"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
@@ -52580,7 +52494,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="81"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
@@ -52607,7 +52521,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="81"/>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -52634,7 +52548,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="81"/>
+      <c r="M29" s="77"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
@@ -52661,7 +52575,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="81"/>
+      <c r="M30" s="77"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -52688,7 +52602,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="81"/>
+      <c r="M31" s="77"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
@@ -52715,7 +52629,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="81"/>
+      <c r="M32" s="77"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
@@ -52742,7 +52656,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="81"/>
+      <c r="M33" s="77"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
@@ -52769,7 +52683,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="81"/>
+      <c r="M34" s="77"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
@@ -52796,7 +52710,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="81"/>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
@@ -66633,569 +66547,569 @@
   <sheetData>
     <row r="1" spans="1:188" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="B2" s="80">
+      <c r="B2" s="76">
         <v>44081</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="76">
         <v>44082</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="76">
         <v>44083</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="76">
         <v>44084</v>
       </c>
-      <c r="F2" s="80">
+      <c r="F2" s="76">
         <v>44085</v>
       </c>
-      <c r="G2" s="80">
+      <c r="G2" s="76">
         <v>44088</v>
       </c>
-      <c r="H2" s="80">
+      <c r="H2" s="76">
         <v>44089</v>
       </c>
-      <c r="I2" s="80">
+      <c r="I2" s="76">
         <v>44090</v>
       </c>
-      <c r="J2" s="80">
+      <c r="J2" s="76">
         <v>44091</v>
       </c>
-      <c r="K2" s="80">
+      <c r="K2" s="76">
         <v>44092</v>
       </c>
-      <c r="L2" s="80">
+      <c r="L2" s="76">
         <v>44095</v>
       </c>
-      <c r="M2" s="80">
+      <c r="M2" s="76">
         <v>44096</v>
       </c>
-      <c r="N2" s="80">
+      <c r="N2" s="76">
         <v>44097</v>
       </c>
-      <c r="O2" s="80">
+      <c r="O2" s="76">
         <v>44098</v>
       </c>
-      <c r="P2" s="80">
+      <c r="P2" s="76">
         <v>44099</v>
       </c>
-      <c r="Q2" s="80">
+      <c r="Q2" s="76">
         <v>44102</v>
       </c>
-      <c r="R2" s="80">
+      <c r="R2" s="76">
         <v>44103</v>
       </c>
-      <c r="S2" s="80">
+      <c r="S2" s="76">
         <v>44104</v>
       </c>
-      <c r="T2" s="80">
+      <c r="T2" s="76">
         <v>44105</v>
       </c>
-      <c r="U2" s="80">
+      <c r="U2" s="76">
         <v>44106</v>
       </c>
-      <c r="V2" s="80">
+      <c r="V2" s="76">
         <v>44109</v>
       </c>
-      <c r="W2" s="80">
+      <c r="W2" s="76">
         <v>44110</v>
       </c>
-      <c r="X2" s="80">
+      <c r="X2" s="76">
         <v>44111</v>
       </c>
-      <c r="Y2" s="80">
+      <c r="Y2" s="76">
         <v>44112</v>
       </c>
-      <c r="Z2" s="80">
+      <c r="Z2" s="76">
         <v>44113</v>
       </c>
-      <c r="AA2" s="80">
+      <c r="AA2" s="76">
         <v>44117</v>
       </c>
-      <c r="AB2" s="80">
+      <c r="AB2" s="76">
         <v>44118</v>
       </c>
-      <c r="AC2" s="80">
+      <c r="AC2" s="76">
         <v>44119</v>
       </c>
-      <c r="AD2" s="80">
+      <c r="AD2" s="76">
         <v>44120</v>
       </c>
-      <c r="AE2" s="80">
+      <c r="AE2" s="76">
         <v>44123</v>
       </c>
-      <c r="AF2" s="80">
+      <c r="AF2" s="76">
         <v>44124</v>
       </c>
-      <c r="AG2" s="80">
+      <c r="AG2" s="76">
         <v>44125</v>
       </c>
-      <c r="AH2" s="80">
+      <c r="AH2" s="76">
         <v>44126</v>
       </c>
-      <c r="AI2" s="80">
+      <c r="AI2" s="76">
         <v>44127</v>
       </c>
-      <c r="AJ2" s="80">
+      <c r="AJ2" s="76">
         <v>44130</v>
       </c>
-      <c r="AK2" s="80">
+      <c r="AK2" s="76">
         <v>44131</v>
       </c>
-      <c r="AL2" s="80">
+      <c r="AL2" s="76">
         <v>44132</v>
       </c>
-      <c r="AM2" s="80">
+      <c r="AM2" s="76">
         <v>44133</v>
       </c>
-      <c r="AN2" s="80">
+      <c r="AN2" s="76">
         <v>44134</v>
       </c>
-      <c r="AO2" s="80">
+      <c r="AO2" s="76">
         <v>44137</v>
       </c>
-      <c r="AP2" s="80">
+      <c r="AP2" s="76">
         <v>44138</v>
       </c>
-      <c r="AQ2" s="80">
+      <c r="AQ2" s="76">
         <v>44139</v>
       </c>
-      <c r="AR2" s="80">
+      <c r="AR2" s="76">
         <v>44140</v>
       </c>
-      <c r="AS2" s="80">
+      <c r="AS2" s="76">
         <v>44141</v>
       </c>
-      <c r="AT2" s="80">
+      <c r="AT2" s="76">
         <v>44144</v>
       </c>
-      <c r="AU2" s="80">
+      <c r="AU2" s="76">
         <v>44145</v>
       </c>
-      <c r="AV2" s="80">
+      <c r="AV2" s="76">
         <v>44146</v>
       </c>
-      <c r="AW2" s="80">
+      <c r="AW2" s="76">
         <v>44147</v>
       </c>
-      <c r="AX2" s="80">
+      <c r="AX2" s="76">
         <v>44148</v>
       </c>
-      <c r="AY2" s="80">
+      <c r="AY2" s="76">
         <v>44151</v>
       </c>
-      <c r="AZ2" s="80">
+      <c r="AZ2" s="76">
         <v>44152</v>
       </c>
-      <c r="BA2" s="80">
+      <c r="BA2" s="76">
         <v>44153</v>
       </c>
-      <c r="BB2" s="80">
+      <c r="BB2" s="76">
         <v>44154</v>
       </c>
-      <c r="BC2" s="80">
+      <c r="BC2" s="76">
         <v>44155</v>
       </c>
-      <c r="BD2" s="80">
+      <c r="BD2" s="76">
         <v>44159</v>
       </c>
-      <c r="BE2" s="80">
+      <c r="BE2" s="76">
         <v>44160</v>
       </c>
-      <c r="BF2" s="80">
+      <c r="BF2" s="76">
         <v>44161</v>
       </c>
-      <c r="BG2" s="80">
+      <c r="BG2" s="76">
         <v>44162</v>
       </c>
-      <c r="BH2" s="80">
+      <c r="BH2" s="76">
         <v>44165</v>
       </c>
-      <c r="BI2" s="80">
+      <c r="BI2" s="76">
         <v>44166</v>
       </c>
-      <c r="BJ2" s="80">
+      <c r="BJ2" s="76">
         <v>44167</v>
       </c>
-      <c r="BK2" s="80">
+      <c r="BK2" s="76">
         <v>44168</v>
       </c>
-      <c r="BL2" s="80">
+      <c r="BL2" s="76">
         <v>44169</v>
       </c>
-      <c r="BM2" s="80">
+      <c r="BM2" s="76">
         <v>44174</v>
       </c>
-      <c r="BN2" s="80">
+      <c r="BN2" s="76">
         <v>44175</v>
       </c>
-      <c r="BO2" s="80">
+      <c r="BO2" s="76">
         <v>44176</v>
       </c>
-      <c r="BP2" s="80">
+      <c r="BP2" s="76">
         <v>44179</v>
       </c>
-      <c r="BQ2" s="80">
+      <c r="BQ2" s="76">
         <v>44180</v>
       </c>
-      <c r="BR2" s="80">
+      <c r="BR2" s="76">
         <v>44181</v>
       </c>
-      <c r="BS2" s="80">
+      <c r="BS2" s="76">
         <v>44182</v>
       </c>
-      <c r="BT2" s="80">
+      <c r="BT2" s="76">
         <v>44183</v>
       </c>
-      <c r="BU2" s="80">
+      <c r="BU2" s="76">
         <v>44186</v>
       </c>
-      <c r="BV2" s="80">
+      <c r="BV2" s="76">
         <v>44187</v>
       </c>
-      <c r="BW2" s="80">
+      <c r="BW2" s="76">
         <v>44188</v>
       </c>
-      <c r="BX2" s="80">
+      <c r="BX2" s="76">
         <v>44193</v>
       </c>
-      <c r="BY2" s="80">
+      <c r="BY2" s="76">
         <v>44194</v>
       </c>
-      <c r="BZ2" s="80">
+      <c r="BZ2" s="76">
         <v>44195</v>
       </c>
-      <c r="CA2" s="80">
+      <c r="CA2" s="76">
         <v>44200</v>
       </c>
-      <c r="CB2" s="80">
+      <c r="CB2" s="76">
         <v>44201</v>
       </c>
-      <c r="CC2" s="80">
+      <c r="CC2" s="76">
         <v>44202</v>
       </c>
-      <c r="CD2" s="80">
+      <c r="CD2" s="76">
         <v>44203</v>
       </c>
-      <c r="CE2" s="80">
+      <c r="CE2" s="76">
         <v>44204</v>
       </c>
-      <c r="CF2" s="80">
+      <c r="CF2" s="76">
         <v>44207</v>
       </c>
-      <c r="CG2" s="80">
+      <c r="CG2" s="76">
         <v>44208</v>
       </c>
-      <c r="CH2" s="80">
+      <c r="CH2" s="76">
         <v>44209</v>
       </c>
-      <c r="CI2" s="80">
+      <c r="CI2" s="76">
         <v>44210</v>
       </c>
-      <c r="CJ2" s="80">
+      <c r="CJ2" s="76">
         <v>44211</v>
       </c>
-      <c r="CK2" s="80">
+      <c r="CK2" s="76">
         <v>44214</v>
       </c>
-      <c r="CL2" s="80">
+      <c r="CL2" s="76">
         <v>44215</v>
       </c>
-      <c r="CM2" s="80">
+      <c r="CM2" s="76">
         <v>44216</v>
       </c>
-      <c r="CN2" s="80">
+      <c r="CN2" s="76">
         <v>44217</v>
       </c>
-      <c r="CO2" s="80">
+      <c r="CO2" s="76">
         <v>44218</v>
       </c>
-      <c r="CP2" s="80">
+      <c r="CP2" s="76">
         <v>44221</v>
       </c>
-      <c r="CQ2" s="80">
+      <c r="CQ2" s="76">
         <v>44222</v>
       </c>
-      <c r="CR2" s="80">
+      <c r="CR2" s="76">
         <v>44223</v>
       </c>
-      <c r="CS2" s="80">
+      <c r="CS2" s="76">
         <v>44224</v>
       </c>
-      <c r="CT2" s="80">
+      <c r="CT2" s="76">
         <v>44225</v>
       </c>
-      <c r="CU2" s="80">
+      <c r="CU2" s="76">
         <v>44228</v>
       </c>
-      <c r="CV2" s="80">
+      <c r="CV2" s="76">
         <v>44229</v>
       </c>
-      <c r="CW2" s="80">
+      <c r="CW2" s="76">
         <v>44230</v>
       </c>
-      <c r="CX2" s="80">
+      <c r="CX2" s="76">
         <v>44231</v>
       </c>
-      <c r="CY2" s="80">
+      <c r="CY2" s="76">
         <v>44232</v>
       </c>
-      <c r="CZ2" s="80">
+      <c r="CZ2" s="76">
         <v>44235</v>
       </c>
-      <c r="DA2" s="80">
+      <c r="DA2" s="76">
         <v>44236</v>
       </c>
-      <c r="DB2" s="80">
+      <c r="DB2" s="76">
         <v>44237</v>
       </c>
-      <c r="DC2" s="80">
+      <c r="DC2" s="76">
         <v>44238</v>
       </c>
-      <c r="DD2" s="80">
+      <c r="DD2" s="76">
         <v>44239</v>
       </c>
-      <c r="DE2" s="80">
+      <c r="DE2" s="76">
         <v>44244</v>
       </c>
-      <c r="DF2" s="80">
+      <c r="DF2" s="76">
         <v>44245</v>
       </c>
-      <c r="DG2" s="80">
+      <c r="DG2" s="76">
         <v>44246</v>
       </c>
-      <c r="DH2" s="80">
+      <c r="DH2" s="76">
         <v>44249</v>
       </c>
-      <c r="DI2" s="80">
+      <c r="DI2" s="76">
         <v>44250</v>
       </c>
-      <c r="DJ2" s="80">
+      <c r="DJ2" s="76">
         <v>44251</v>
       </c>
-      <c r="DK2" s="80">
+      <c r="DK2" s="76">
         <v>44252</v>
       </c>
-      <c r="DL2" s="80">
+      <c r="DL2" s="76">
         <v>44253</v>
       </c>
-      <c r="DM2" s="80">
+      <c r="DM2" s="76">
         <v>44256</v>
       </c>
-      <c r="DN2" s="80">
+      <c r="DN2" s="76">
         <v>44257</v>
       </c>
-      <c r="DO2" s="80">
+      <c r="DO2" s="76">
         <v>44258</v>
       </c>
-      <c r="DP2" s="80">
+      <c r="DP2" s="76">
         <v>44259</v>
       </c>
-      <c r="DQ2" s="80">
+      <c r="DQ2" s="76">
         <v>44260</v>
       </c>
-      <c r="DR2" s="80">
+      <c r="DR2" s="76">
         <v>44263</v>
       </c>
-      <c r="DS2" s="80">
+      <c r="DS2" s="76">
         <v>44264</v>
       </c>
-      <c r="DT2" s="80">
+      <c r="DT2" s="76">
         <v>44265</v>
       </c>
-      <c r="DU2" s="80">
+      <c r="DU2" s="76">
         <v>44266</v>
       </c>
-      <c r="DV2" s="80">
+      <c r="DV2" s="76">
         <v>44267</v>
       </c>
-      <c r="DW2" s="80">
+      <c r="DW2" s="76">
         <v>44270</v>
       </c>
-      <c r="DX2" s="80">
+      <c r="DX2" s="76">
         <v>44271</v>
       </c>
-      <c r="DY2" s="80">
+      <c r="DY2" s="76">
         <v>44272</v>
       </c>
-      <c r="DZ2" s="80">
+      <c r="DZ2" s="76">
         <v>44273</v>
       </c>
-      <c r="EA2" s="80">
+      <c r="EA2" s="76">
         <v>44274</v>
       </c>
-      <c r="EB2" s="80">
+      <c r="EB2" s="76">
         <v>44277</v>
       </c>
-      <c r="EC2" s="80">
+      <c r="EC2" s="76">
         <v>44278</v>
       </c>
-      <c r="ED2" s="80">
+      <c r="ED2" s="76">
         <v>44280</v>
       </c>
-      <c r="EE2" s="80">
+      <c r="EE2" s="76">
         <v>44281</v>
       </c>
-      <c r="EF2" s="80">
+      <c r="EF2" s="76">
         <v>44284</v>
       </c>
-      <c r="EG2" s="80">
+      <c r="EG2" s="76">
         <v>44285</v>
       </c>
-      <c r="EH2" s="80">
+      <c r="EH2" s="76">
         <v>44286</v>
       </c>
-      <c r="EI2" s="80">
+      <c r="EI2" s="76">
         <v>44291</v>
       </c>
-      <c r="EJ2" s="80">
+      <c r="EJ2" s="76">
         <v>44292</v>
       </c>
-      <c r="EK2" s="80">
+      <c r="EK2" s="76">
         <v>44293</v>
       </c>
-      <c r="EL2" s="80">
+      <c r="EL2" s="76">
         <v>44294</v>
       </c>
-      <c r="EM2" s="80">
+      <c r="EM2" s="76">
         <v>44295</v>
       </c>
-      <c r="EN2" s="80">
+      <c r="EN2" s="76">
         <v>44298</v>
       </c>
-      <c r="EO2" s="80">
+      <c r="EO2" s="76">
         <v>44299</v>
       </c>
-      <c r="EP2" s="80">
+      <c r="EP2" s="76">
         <v>44300</v>
       </c>
-      <c r="EQ2" s="80">
+      <c r="EQ2" s="76">
         <v>44301</v>
       </c>
-      <c r="ER2" s="80">
+      <c r="ER2" s="76">
         <v>44302</v>
       </c>
-      <c r="ES2" s="80">
+      <c r="ES2" s="76">
         <v>44305</v>
       </c>
-      <c r="ET2" s="80">
+      <c r="ET2" s="76">
         <v>44306</v>
       </c>
-      <c r="EU2" s="80">
+      <c r="EU2" s="76">
         <v>44307</v>
       </c>
-      <c r="EV2" s="80">
+      <c r="EV2" s="76">
         <v>44308</v>
       </c>
-      <c r="EW2" s="80">
+      <c r="EW2" s="76">
         <v>44309</v>
       </c>
-      <c r="EX2" s="80">
+      <c r="EX2" s="76">
         <v>44312</v>
       </c>
-      <c r="EY2" s="80">
+      <c r="EY2" s="76">
         <v>44313</v>
       </c>
-      <c r="EZ2" s="80">
+      <c r="EZ2" s="76">
         <v>44314</v>
       </c>
-      <c r="FA2" s="80">
+      <c r="FA2" s="76">
         <v>44315</v>
       </c>
-      <c r="FB2" s="80">
+      <c r="FB2" s="76">
         <v>44316</v>
       </c>
-      <c r="FC2" s="80">
+      <c r="FC2" s="76">
         <v>44319</v>
       </c>
-      <c r="FD2" s="80">
+      <c r="FD2" s="76">
         <v>44320</v>
       </c>
-      <c r="FE2" s="80">
+      <c r="FE2" s="76">
         <v>44321</v>
       </c>
-      <c r="FF2" s="80">
+      <c r="FF2" s="76">
         <v>44322</v>
       </c>
-      <c r="FG2" s="80">
+      <c r="FG2" s="76">
         <v>44323</v>
       </c>
-      <c r="FH2" s="80">
+      <c r="FH2" s="76">
         <v>44326</v>
       </c>
-      <c r="FI2" s="80">
+      <c r="FI2" s="76">
         <v>44327</v>
       </c>
-      <c r="FJ2" s="80">
+      <c r="FJ2" s="76">
         <v>44328</v>
       </c>
-      <c r="FK2" s="80">
+      <c r="FK2" s="76">
         <v>44329</v>
       </c>
-      <c r="FL2" s="80">
+      <c r="FL2" s="76">
         <v>44330</v>
       </c>
-      <c r="FM2" s="80">
+      <c r="FM2" s="76">
         <v>44333</v>
       </c>
-      <c r="FN2" s="80">
+      <c r="FN2" s="76">
         <v>44334</v>
       </c>
-      <c r="FO2" s="80">
+      <c r="FO2" s="76">
         <v>44335</v>
       </c>
-      <c r="FP2" s="80">
+      <c r="FP2" s="76">
         <v>44336</v>
       </c>
-      <c r="FQ2" s="80">
+      <c r="FQ2" s="76">
         <v>44337</v>
       </c>
-      <c r="FR2" s="80">
+      <c r="FR2" s="76">
         <v>44342</v>
       </c>
-      <c r="FS2" s="80">
+      <c r="FS2" s="76">
         <v>44343</v>
       </c>
-      <c r="FT2" s="80">
+      <c r="FT2" s="76">
         <v>44344</v>
       </c>
-      <c r="FU2" s="80">
+      <c r="FU2" s="76">
         <v>44347</v>
       </c>
-      <c r="FV2" s="80">
+      <c r="FV2" s="76">
         <v>44348</v>
       </c>
-      <c r="FW2" s="80">
+      <c r="FW2" s="76">
         <v>44349</v>
       </c>
-      <c r="FX2" s="80">
+      <c r="FX2" s="76">
         <v>44350</v>
       </c>
-      <c r="FY2" s="80">
+      <c r="FY2" s="76">
         <v>44351</v>
       </c>
-      <c r="FZ2" s="80">
+      <c r="FZ2" s="76">
         <v>44354</v>
       </c>
-      <c r="GA2" s="80">
+      <c r="GA2" s="76">
         <v>44355</v>
       </c>
-      <c r="GB2" s="80">
+      <c r="GB2" s="76">
         <v>44356</v>
       </c>
-      <c r="GC2" s="80">
+      <c r="GC2" s="76">
         <v>44357</v>
       </c>
-      <c r="GD2" s="80">
+      <c r="GD2" s="76">
         <v>44358</v>
       </c>
-      <c r="GE2" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="GF2" s="80" t="s">
+      <c r="GE2" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="GF2" s="76" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>9102,69+4535,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invertido en </t>
+  </si>
+  <si>
+    <t>195 al41</t>
   </si>
 </sst>
 </file>
@@ -44770,7 +44776,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -50352,8 +50358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50385,7 +50391,7 @@
       <c r="B2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>12266.73</v>
       </c>
       <c r="D2">
@@ -50414,7 +50420,7 @@
       <c r="B3" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>12600.77</v>
       </c>
       <c r="D3">
@@ -50443,7 +50449,7 @@
       <c r="B4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>12544.24</v>
       </c>
       <c r="D4">
@@ -50466,7 +50472,7 @@
       <c r="B5" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>12676.96</v>
       </c>
       <c r="D5">
@@ -50492,6 +50498,24 @@
       <c r="B6" s="65" t="s">
         <v>32</v>
       </c>
+      <c r="C6" s="1">
+        <v>12895.18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12830.7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="63">
+        <v>12831</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
@@ -50508,6 +50532,7 @@
       <c r="B8" s="65" t="s">
         <v>32</v>
       </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
@@ -50725,7 +50750,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44474</v>
+        <v>44484</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50736,7 +50761,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44474</v>
+        <v>44484</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50812,7 +50837,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G8-G5</f>
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50849,7 +50874,7 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>7.9333333333333336</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50871,7 +50896,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="28">
@@ -50908,7 +50933,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>12.133333333333333</v>
+        <v>11.8</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
@@ -50917,7 +50942,7 @@
       </c>
       <c r="J10" s="51">
         <f ca="1">XIRR(J5:J8,G5:G8)</f>
-        <v>0.40558717846870418</v>
+        <v>0.42897664904594435</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -50984,7 +51009,7 @@
       </c>
       <c r="D13" s="51">
         <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>2.1076406717300409</v>
+        <v>2.9875129461288448</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="22"/>
@@ -50994,7 +51019,7 @@
       </c>
       <c r="J13" s="66">
         <f ca="1">J12/L8</f>
-        <v>2.8371284653193638</v>
+        <v>2.9615639243245995</v>
       </c>
       <c r="Q13" s="22"/>
     </row>
@@ -51038,7 +51063,7 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>3.0593406593406591</v>
+        <v>3.1457627118644065</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="44" t="s">
@@ -51063,7 +51088,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="50">
         <f ca="1">TODAY()</f>
-        <v>44474</v>
+        <v>44484</v>
       </c>
       <c r="H17" s="59"/>
       <c r="I17" s="57"/>
@@ -51111,7 +51136,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44474</v>
+        <v>44484</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51122,7 +51147,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44474</v>
+        <v>44484</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51303,7 +51328,7 @@
       </c>
       <c r="L23">
         <f ca="1">G22-G17</f>
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="N23" s="35">
         <v>44838</v>
@@ -51322,7 +51347,7 @@
       </c>
       <c r="S23">
         <f ca="1">N23-N18</f>
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51347,7 +51372,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>24.733333333333334</v>
+        <v>24.4</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O19:O23)</f>
@@ -51366,7 +51391,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>12.133333333333333</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51389,7 +51414,7 @@
       </c>
       <c r="J25" s="62">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.55284230113029498</v>
+        <v>0.56517308354377738</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51420,7 +51445,7 @@
       </c>
       <c r="Q26" s="62">
         <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.67482286095619204</v>
+        <v>0.73143204450607291</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51475,7 +51500,7 @@
       </c>
       <c r="J28" s="66">
         <f ca="1">J27/L24</f>
-        <v>4.3426175501647197</v>
+        <v>4.4019429265330903</v>
       </c>
       <c r="P28" s="66" t="s">
         <v>37</v>
@@ -51508,7 +51533,7 @@
       </c>
       <c r="Q29">
         <f ca="1">Q28/S24</f>
-        <v>2.3704471628999935</v>
+        <v>2.4374089471627047</v>
       </c>
       <c r="S29" s="22"/>
     </row>
@@ -51604,7 +51629,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1285</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51625,7 +51650,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>42.833333333333336</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51648,7 +51673,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.79330505132675189</v>
+        <v>0.81583503484725961</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51675,7 +51700,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.5799926756694891</v>
+        <v>4.6159141868512101</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51745,7 +51770,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.55284230113029498</v>
+        <v>0.56517308354377738</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>195 al41</t>
+  </si>
+  <si>
+    <t>Iinvertido en 195 al41</t>
   </si>
 </sst>
 </file>
@@ -50359,7 +50362,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50523,6 +50526,18 @@
       </c>
       <c r="B7" s="71" t="s">
         <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12610.96</v>
+      </c>
+      <c r="D7">
+        <v>12544.24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="63">
+        <v>12597</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -50750,7 +50765,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44484</v>
+        <v>44489</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50761,7 +50776,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44484</v>
+        <v>44489</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50837,7 +50852,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G8-G5</f>
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50874,7 +50889,7 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>7.6</v>
+        <v>7.4333333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50896,7 +50911,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="28">
@@ -50933,7 +50948,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>11.8</v>
+        <v>11.633333333333333</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
@@ -50942,7 +50957,7 @@
       </c>
       <c r="J10" s="51">
         <f ca="1">XIRR(J5:J8,G5:G8)</f>
-        <v>0.42897664904594435</v>
+        <v>0.4417095005512236</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -51009,7 +51024,7 @@
       </c>
       <c r="D13" s="51">
         <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>2.9875129461288448</v>
+        <v>4.2356688261032112</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="22"/>
@@ -51019,7 +51034,7 @@
       </c>
       <c r="J13" s="66">
         <f ca="1">J12/L8</f>
-        <v>2.9615639243245995</v>
+        <v>3.0279667028968995</v>
       </c>
       <c r="Q13" s="22"/>
     </row>
@@ -51063,7 +51078,7 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>3.1457627118644065</v>
+        <v>3.1908309455587394</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="44" t="s">
@@ -51088,7 +51103,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="50">
         <f ca="1">TODAY()</f>
-        <v>44484</v>
+        <v>44489</v>
       </c>
       <c r="H17" s="59"/>
       <c r="I17" s="57"/>
@@ -51136,7 +51151,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44484</v>
+        <v>44489</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51147,7 +51162,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44484</v>
+        <v>44489</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51328,7 +51343,7 @@
       </c>
       <c r="L23">
         <f ca="1">G22-G17</f>
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N23" s="35">
         <v>44838</v>
@@ -51347,7 +51362,7 @@
       </c>
       <c r="S23">
         <f ca="1">N23-N18</f>
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51372,7 +51387,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>24.4</v>
+        <v>24.233333333333334</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O19:O23)</f>
@@ -51391,7 +51406,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>11.8</v>
+        <v>11.633333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51414,7 +51429,7 @@
       </c>
       <c r="J25" s="62">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.56517308354377738</v>
+        <v>0.57155789732933071</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51445,7 +51460,7 @@
       </c>
       <c r="Q26" s="62">
         <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.73143204450607291</v>
+        <v>0.76365395784378065</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51500,7 +51515,7 @@
       </c>
       <c r="J28" s="66">
         <f ca="1">J27/L24</f>
-        <v>4.4019429265330903</v>
+        <v>4.4322176371694937</v>
       </c>
       <c r="P28" s="66" t="s">
         <v>37</v>
@@ -51533,7 +51548,7 @@
       </c>
       <c r="Q29">
         <f ca="1">Q28/S24</f>
-        <v>2.4374089471627047</v>
+        <v>2.4723288461191908</v>
       </c>
       <c r="S29" s="22"/>
     </row>
@@ -51629,7 +51644,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51650,7 +51665,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>42.5</v>
+        <v>42.333333333333336</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51673,7 +51688,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.81583503484725961</v>
+        <v>0.82772961854934679</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51700,7 +51715,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.6159141868512101</v>
+        <v>4.6340870773506246</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51770,7 +51785,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.56517308354377738</v>
+        <v>0.57155789732933071</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -44779,8 +44779,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50361,7 +50361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -50765,7 +50765,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44489</v>
+        <v>44508</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50776,7 +50776,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44489</v>
+        <v>44508</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50852,7 +50852,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G8-G5</f>
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50889,7 +50889,7 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>7.4333333333333336</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50911,7 +50911,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="28">
@@ -50948,7 +50948,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>11.633333333333333</v>
+        <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
@@ -50957,7 +50957,7 @@
       </c>
       <c r="J10" s="51">
         <f ca="1">XIRR(J5:J8,G5:G8)</f>
-        <v>0.4417095005512236</v>
+        <v>0.49783237576484674</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -51022,9 +51022,9 @@
       <c r="C13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="51" t="e">
         <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>4.2356688261032112</v>
+        <v>#NUM!</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="22"/>
@@ -51034,7 +51034,7 @@
       </c>
       <c r="J13" s="66">
         <f ca="1">J12/L8</f>
-        <v>3.0279667028968995</v>
+        <v>3.3099832095392578</v>
       </c>
       <c r="Q13" s="22"/>
     </row>
@@ -51078,7 +51078,7 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>3.1908309455587394</v>
+        <v>3.3745454545454545</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="44" t="s">
@@ -51103,7 +51103,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="50">
         <f ca="1">TODAY()</f>
-        <v>44489</v>
+        <v>44508</v>
       </c>
       <c r="H17" s="59"/>
       <c r="I17" s="57"/>
@@ -51151,7 +51151,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44489</v>
+        <v>44508</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51162,7 +51162,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44489</v>
+        <v>44508</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51343,7 +51343,7 @@
       </c>
       <c r="L23">
         <f ca="1">G22-G17</f>
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="N23" s="35">
         <v>44838</v>
@@ -51362,7 +51362,7 @@
       </c>
       <c r="S23">
         <f ca="1">N23-N18</f>
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51387,7 +51387,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>24.233333333333334</v>
+        <v>23.6</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O19:O23)</f>
@@ -51406,7 +51406,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>11.633333333333333</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51429,7 +51429,7 @@
       </c>
       <c r="J25" s="62">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.57155789732933071</v>
+        <v>0.59727287888526914</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51460,7 +51460,7 @@
       </c>
       <c r="Q26" s="62">
         <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.76365395784378065</v>
+        <v>0.91950997114181532</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51515,7 +51515,7 @@
       </c>
       <c r="J28" s="66">
         <f ca="1">J27/L24</f>
-        <v>4.4322176371694937</v>
+        <v>4.5511613308223478</v>
       </c>
       <c r="P28" s="66" t="s">
         <v>37</v>
@@ -51548,7 +51548,7 @@
       </c>
       <c r="Q29">
         <f ca="1">Q28/S24</f>
-        <v>2.4723288461191908</v>
+        <v>2.6146750524109019</v>
       </c>
       <c r="S29" s="22"/>
     </row>
@@ -51644,7 +51644,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1270</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51665,7 +51665,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>42.333333333333336</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51688,7 +51688,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.82772961854934679</v>
+        <v>0.87738255262374865</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51715,7 +51715,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.6340870773506246</v>
+        <v>4.704468895471857</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51785,7 +51785,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.57155789732933071</v>
+        <v>0.59727287888526914</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -44780,7 +44780,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45009,6 +45009,15 @@
       </c>
       <c r="B12" s="60" t="s">
         <v>30</v>
+      </c>
+      <c r="C12">
+        <v>17519.37</v>
+      </c>
+      <c r="D12">
+        <v>17431.77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -50698,8 +50707,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M6"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50765,7 +50774,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44508</v>
+        <v>44532</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50776,7 +50785,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44508</v>
+        <v>44532</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50803,17 +50812,17 @@
       <c r="E6" s="34"/>
       <c r="F6" s="22"/>
       <c r="G6" s="32">
-        <v>44530</v>
+        <v>44620</v>
       </c>
       <c r="H6" s="34">
-        <v>8.8705999999999996</v>
+        <v>8.7731999999999992</v>
       </c>
       <c r="I6" s="34">
         <v>0</v>
       </c>
       <c r="J6" s="33">
-        <f t="shared" ref="J6:J8" si="1">I6+H6</f>
-        <v>8.8705999999999996</v>
+        <f t="shared" ref="J6:J7" si="1">I6+H6</f>
+        <v>8.7731999999999992</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -50834,25 +50843,25 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="32">
-        <v>44620</v>
-      </c>
-      <c r="H7" s="34">
-        <v>8.7731999999999992</v>
-      </c>
-      <c r="I7" s="34">
-        <v>0</v>
-      </c>
-      <c r="J7" s="33">
+      <c r="G7" s="40">
+        <v>44712</v>
+      </c>
+      <c r="H7" s="41">
+        <v>8.9680999999999997</v>
+      </c>
+      <c r="I7" s="41">
+        <v>100</v>
+      </c>
+      <c r="J7" s="42">
         <f t="shared" si="1"/>
-        <v>8.7731999999999992</v>
+        <v>108.96809999999999</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="20">
-        <f ca="1">G8-G5</f>
-        <v>204</v>
+        <f ca="1">G7-G5</f>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50871,25 +50880,25 @@
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="40">
-        <v>44712</v>
-      </c>
-      <c r="H8" s="41">
-        <v>8.9680999999999997</v>
-      </c>
-      <c r="I8" s="41">
+      <c r="G8" s="34"/>
+      <c r="H8" s="28">
+        <f>SUM(H6:H7)</f>
+        <v>17.741299999999999</v>
+      </c>
+      <c r="I8" s="28">
+        <f>SUM(I6:I7)</f>
         <v>100</v>
       </c>
-      <c r="J8" s="42">
-        <f t="shared" si="1"/>
-        <v>108.96809999999999</v>
+      <c r="J8" s="28">
+        <f>SUM(J6:J7)</f>
+        <v>117.7413</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>6.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50911,20 +50920,16 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>330</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="28">
-        <f>SUM(H6:H8)</f>
-        <v>26.611899999999999</v>
-      </c>
-      <c r="I9" s="28">
-        <f>SUM(I6:I8)</f>
-        <v>100</v>
-      </c>
-      <c r="J9" s="28">
-        <f>SUM(J6:J8)</f>
-        <v>126.61189999999999</v>
+        <v>306</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="51">
+        <f ca="1">XIRR(J5:J7,G5:G7)</f>
+        <v>0.31676977276802065</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -50948,16 +50953,15 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>11</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="51">
-        <f ca="1">XIRR(J5:J8,G5:G8)</f>
-        <v>0.49783237576484674</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="I10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="28">
+        <f>J8+J5</f>
+        <v>14.391300000000001</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -50978,13 +50982,13 @@
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="I11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="28">
-        <f>J9+J5</f>
-        <v>23.261899999999997</v>
+      <c r="G11" s="1"/>
+      <c r="I11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="66">
+        <f>J10*100/-J5</f>
+        <v>13.924818577648768</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -51007,11 +51011,11 @@
       <c r="F12" s="22"/>
       <c r="G12" s="1"/>
       <c r="I12" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J12" s="66">
-        <f>J11*100/-J5</f>
-        <v>22.507885824866953</v>
+        <f ca="1">J11/L8</f>
+        <v>2.3208030962747945</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
@@ -51029,16 +51033,10 @@
       <c r="E13" s="28"/>
       <c r="F13" s="22"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="66">
-        <f ca="1">J12/L8</f>
-        <v>3.3099832095392578</v>
-      </c>
+      <c r="J13" s="38"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="34"/>
       <c r="C14" s="20" t="s">
@@ -51050,6 +51048,8 @@
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="38"/>
       <c r="Q14" s="22"/>
     </row>
@@ -51064,10 +51064,18 @@
         <v>37.119999999999997</v>
       </c>
       <c r="F15" s="22"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="38"/>
+      <c r="G15" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>28</v>
+      </c>
       <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51078,20 +51086,17 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>3.3745454545454545</v>
+        <v>3.6392156862745098</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>28</v>
+      <c r="G16" s="50">
+        <f ca="1">TODAY()</f>
+        <v>44532</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="48">
+        <v>-67.5</v>
       </c>
       <c r="Q16" s="22"/>
     </row>
@@ -51101,14 +51106,17 @@
       <c r="C17" s="22"/>
       <c r="D17" s="20"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="50">
-        <f ca="1">TODAY()</f>
-        <v>44508</v>
-      </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="48">
-        <v>-67.5</v>
+      <c r="G17" s="25">
+        <v>44669</v>
+      </c>
+      <c r="H17" s="52">
+        <v>8</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0</v>
+      </c>
+      <c r="J17" s="46">
+        <v>8</v>
       </c>
       <c r="N17" s="72" t="s">
         <v>29</v>
@@ -51138,7 +51146,7 @@
       </c>
       <c r="E18" s="20"/>
       <c r="G18" s="25">
-        <v>44487</v>
+        <v>44851</v>
       </c>
       <c r="H18" s="52">
         <v>8</v>
@@ -51151,18 +51159,18 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44508</v>
+        <v>44532</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
       <c r="Q18" s="48">
-        <v>-71.55</v>
+        <v>-60.7</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44508</v>
+        <v>44532</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51172,7 +51180,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="1"/>
       <c r="G19" s="25">
-        <v>44669</v>
+        <v>45033</v>
       </c>
       <c r="H19" s="52">
         <v>8</v>
@@ -51186,16 +51194,16 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19" s="25">
-        <v>44473</v>
+        <v>44565</v>
       </c>
       <c r="O19" s="52">
-        <v>6.1208</v>
+        <v>5.1315</v>
       </c>
       <c r="P19" s="46">
         <v>12.2828</v>
       </c>
       <c r="Q19" s="46">
-        <v>18.403600000000001</v>
+        <v>17.414300000000001</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51211,29 +51219,29 @@
       <c r="D20" s="46">
         <v>9.4583999999999993</v>
       </c>
-      <c r="G20" s="25">
-        <v>44851</v>
-      </c>
-      <c r="H20" s="52">
+      <c r="G20" s="35">
+        <v>45216</v>
+      </c>
+      <c r="H20" s="53">
         <v>8</v>
       </c>
-      <c r="I20" s="46">
-        <v>0</v>
-      </c>
-      <c r="J20" s="46">
-        <v>8</v>
+      <c r="I20" s="47">
+        <v>108</v>
+      </c>
+      <c r="J20" s="47">
+        <v>108</v>
       </c>
       <c r="N20" s="25">
-        <v>44565</v>
+        <v>44655</v>
       </c>
       <c r="O20" s="52">
-        <v>5.1315</v>
+        <v>3.9864999999999999</v>
       </c>
       <c r="P20" s="46">
         <v>12.2828</v>
       </c>
       <c r="Q20" s="46">
-        <v>17.414300000000001</v>
+        <v>16.269300000000001</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51249,29 +51257,30 @@
       <c r="D21" s="46">
         <v>9.5623000000000005</v>
       </c>
-      <c r="G21" s="25">
-        <v>45033</v>
-      </c>
-      <c r="H21" s="52">
-        <v>8</v>
-      </c>
-      <c r="I21" s="46">
-        <v>0</v>
-      </c>
-      <c r="J21" s="46">
-        <v>8</v>
+      <c r="G21" s="22"/>
+      <c r="H21" s="28">
+        <f>SUM(H17:H20)</f>
+        <v>32</v>
+      </c>
+      <c r="I21" s="28">
+        <f>SUM(I17:I20)</f>
+        <v>108</v>
+      </c>
+      <c r="J21" s="28">
+        <f>SUM(J17:J20)</f>
+        <v>132</v>
       </c>
       <c r="N21" s="25">
-        <v>44655</v>
+        <v>44746</v>
       </c>
       <c r="O21" s="52">
-        <v>3.9864999999999999</v>
+        <v>2.9857</v>
       </c>
       <c r="P21" s="46">
         <v>12.2828</v>
       </c>
       <c r="Q21" s="46">
-        <v>16.269300000000001</v>
+        <v>15.2685</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51287,29 +51296,21 @@
       <c r="D22" s="46">
         <v>9.5623000000000005</v>
       </c>
-      <c r="G22" s="35">
-        <v>45216</v>
-      </c>
-      <c r="H22" s="53">
-        <v>8</v>
-      </c>
-      <c r="I22" s="47">
-        <v>108</v>
-      </c>
-      <c r="J22" s="47">
-        <v>108</v>
-      </c>
-      <c r="N22" s="25">
-        <v>44746</v>
-      </c>
-      <c r="O22" s="52">
-        <v>2.9857</v>
-      </c>
-      <c r="P22" s="46">
-        <v>12.2828</v>
-      </c>
-      <c r="Q22" s="46">
-        <v>15.2685</v>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="N22" s="35">
+        <v>44838</v>
+      </c>
+      <c r="O22" s="53">
+        <v>1.9621</v>
+      </c>
+      <c r="P22" s="47">
+        <v>22.811</v>
+      </c>
+      <c r="Q22" s="47">
+        <v>24.773099999999999</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51325,44 +51326,40 @@
       <c r="D23" s="46">
         <v>9.3544999999999998</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="28">
-        <f>SUM(H18:H22)</f>
-        <v>40</v>
-      </c>
-      <c r="I23" s="28">
-        <f>SUM(I18:I22)</f>
-        <v>108</v>
-      </c>
-      <c r="J23" s="28">
-        <f>SUM(J18:J22)</f>
-        <v>140</v>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="62">
+        <f ca="1">XIRR(J16:J20,G16:G20)</f>
+        <v>0.50118524432182321</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
       </c>
       <c r="L23">
-        <f ca="1">G22-G17</f>
-        <v>708</v>
-      </c>
-      <c r="N23" s="35">
-        <v>44838</v>
-      </c>
-      <c r="O23" s="53">
-        <v>1.9621</v>
-      </c>
-      <c r="P23" s="47">
-        <v>22.811</v>
-      </c>
-      <c r="Q23" s="47">
-        <v>24.773099999999999</v>
+        <f ca="1">G20-G16</f>
+        <v>684</v>
+      </c>
+      <c r="O23" s="16">
+        <f>SUM(O19:O22)</f>
+        <v>14.065799999999999</v>
+      </c>
+      <c r="P23" s="16">
+        <f>SUM(P19:P22)</f>
+        <v>59.659399999999998</v>
+      </c>
+      <c r="Q23" s="16">
+        <f>SUM(Q19:Q22)</f>
+        <v>73.725200000000001</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
-        <f ca="1">N23-N18</f>
-        <v>330</v>
+        <f ca="1">N22-N18</f>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51378,35 +51375,28 @@
       <c r="D24" s="46">
         <v>9.4583999999999993</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="16">
+        <f>J21+J16</f>
+        <v>64.5</v>
+      </c>
       <c r="K24" t="s">
         <v>35</v>
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>23.6</v>
-      </c>
-      <c r="O24" s="16">
-        <f>SUM(O19:O23)</f>
-        <v>20.186599999999999</v>
-      </c>
-      <c r="P24" s="16">
-        <f>SUM(P19:P23)</f>
-        <v>71.9422</v>
-      </c>
-      <c r="Q24" s="16">
-        <f>SUM(Q19:Q23)</f>
-        <v>92.128799999999998</v>
+        <v>22.8</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>11</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51424,12 +51414,19 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="62">
-        <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.59727287888526914</v>
+      <c r="I25" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="66">
+        <f>J24*100/-J16</f>
+        <v>95.555555555555557</v>
+      </c>
+      <c r="P25" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="62">
+        <f ca="1">XIRR(Q18:Q22,N18:N22)</f>
+        <v>0.49739541411399846</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51449,18 +51446,18 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="66">
+        <f ca="1">J25/L24</f>
+        <v>4.1910331384015596</v>
+      </c>
+      <c r="P26" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="16">
-        <f>J23+J17</f>
-        <v>72.5</v>
-      </c>
-      <c r="P26" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q26" s="62">
-        <f ca="1">XIRR(Q18:Q23,N18:N23)</f>
-        <v>0.91950997114181532</v>
+      <c r="Q26" s="16">
+        <f>Q23+Q18</f>
+        <v>13.025199999999998</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51479,19 +51476,14 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="P27" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="66">
-        <f>J26*100/-J17</f>
-        <v>107.4074074074074</v>
-      </c>
-      <c r="P27" s="66" t="s">
-        <v>36</v>
-      </c>
       <c r="Q27" s="16">
-        <f>Q24+Q18</f>
-        <v>20.578800000000001</v>
+        <f>Q26*100/-Q18</f>
+        <v>21.458319604612846</v>
       </c>
       <c r="S27" s="22"/>
     </row>
@@ -51510,19 +51502,14 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="P28" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="66">
-        <f ca="1">J27/L24</f>
-        <v>4.5511613308223478</v>
-      </c>
-      <c r="P28" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="16">
-        <f>Q27*100/-Q18</f>
-        <v>28.761425576519919</v>
+      <c r="Q28">
+        <f ca="1">Q27/S24</f>
+        <v>2.1037568239816515</v>
       </c>
       <c r="S28" s="22"/>
     </row>
@@ -51543,13 +51530,6 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="P29" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29">
-        <f ca="1">Q28/S24</f>
-        <v>2.6146750524109019</v>
-      </c>
       <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51565,10 +51545,6 @@
       <c r="D30" s="46">
         <v>9.5361999999999991</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="S30" s="22"/>
@@ -51586,10 +51562,6 @@
       <c r="D31" s="46">
         <v>9.4324999999999992</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="S31" s="22"/>
@@ -51644,7 +51616,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1251</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51665,7 +51637,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>41.7</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51688,7 +51660,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.87738255262374865</v>
+        <v>0.95289891958236694</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51715,7 +51687,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.704468895471857</v>
+        <v>4.7964878469725294</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51784,8 +51756,8 @@
         <v>31</v>
       </c>
       <c r="D51" s="51">
-        <f ca="1">XIRR(J17:J22,G17:G22)</f>
-        <v>0.59727287888526914</v>
+        <f ca="1">XIRR(J16:J20,G16:G20)</f>
+        <v>0.50118524432182321</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -44779,7 +44779,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -50370,8 +50370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50541,6 +50541,9 @@
       </c>
       <c r="D7">
         <v>12544.24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -50774,7 +50777,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44532</v>
+        <v>44558</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50785,7 +50788,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44532</v>
+        <v>44558</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50861,7 +50864,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G7-G5</f>
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50898,7 +50901,7 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>6</v>
+        <v>5.1333333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50920,7 +50923,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="23"/>
@@ -50929,7 +50932,7 @@
       </c>
       <c r="J9" s="51">
         <f ca="1">XIRR(J5:J7,G5:G7)</f>
-        <v>0.31676977276802065</v>
+        <v>0.38260486721992493</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -50953,7 +50956,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>10.199999999999999</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="G10" s="22"/>
       <c r="I10" s="20" t="s">
@@ -51015,7 +51018,7 @@
       </c>
       <c r="J12" s="66">
         <f ca="1">J11/L8</f>
-        <v>2.3208030962747945</v>
+        <v>2.7126269956458637</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
@@ -51086,12 +51089,12 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>3.6392156862745098</v>
+        <v>3.9771428571428564</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="50">
         <f ca="1">TODAY()</f>
-        <v>44532</v>
+        <v>44558</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="57"/>
@@ -51159,7 +51162,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44532</v>
+        <v>44558</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51170,7 +51173,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44532</v>
+        <v>44558</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51333,14 +51336,14 @@
       </c>
       <c r="J23" s="62">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.50118524432182321</v>
+        <v>0.52983610033988948</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
       </c>
       <c r="L23">
         <f ca="1">G20-G16</f>
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="O23" s="16">
         <f>SUM(O19:O22)</f>
@@ -51359,7 +51362,7 @@
       </c>
       <c r="S23">
         <f ca="1">N22-N18</f>
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51389,14 +51392,14 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>22.8</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>10.199999999999999</v>
+        <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51426,7 +51429,7 @@
       </c>
       <c r="Q25" s="62">
         <f ca="1">XIRR(Q18:Q22,N18:N22)</f>
-        <v>0.49739541411399846</v>
+        <v>0.61206808686256409</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51450,7 +51453,7 @@
       </c>
       <c r="J26" s="66">
         <f ca="1">J25/L24</f>
-        <v>4.1910331384015596</v>
+        <v>4.3566362715298883</v>
       </c>
       <c r="P26" s="66" t="s">
         <v>36</v>
@@ -51509,7 +51512,7 @@
       </c>
       <c r="Q28">
         <f ca="1">Q27/S24</f>
-        <v>2.1037568239816515</v>
+        <v>2.2991056719228049</v>
       </c>
       <c r="S28" s="22"/>
     </row>
@@ -51616,7 +51619,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1227</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51637,7 +51640,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>40.9</v>
+        <v>40.033333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51660,7 +51663,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>0.95289891958236694</v>
+        <v>1.0585651278495789</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51687,7 +51690,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.7964878469725294</v>
+        <v>4.900325219180095</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51757,7 +51760,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.50118524432182321</v>
+        <v>0.52983610033988948</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -44779,7 +44779,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -50370,8 +50370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50777,7 +50777,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44558</v>
+        <v>44563</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50788,7 +50788,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44558</v>
+        <v>44563</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50864,7 +50864,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G7-G5</f>
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50901,7 +50901,7 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>5.1333333333333337</v>
+        <v>4.9666666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50923,7 +50923,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="23"/>
@@ -50932,7 +50932,7 @@
       </c>
       <c r="J9" s="51">
         <f ca="1">XIRR(J5:J7,G5:G7)</f>
-        <v>0.38260486721992493</v>
+        <v>0.39851227402687073</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -50956,7 +50956,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>9.3333333333333339</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="G10" s="22"/>
       <c r="I10" s="20" t="s">
@@ -51018,7 +51018,7 @@
       </c>
       <c r="J12" s="66">
         <f ca="1">J11/L8</f>
-        <v>2.7126269956458637</v>
+        <v>2.8036547471776041</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
@@ -51089,12 +51089,12 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>3.9771428571428564</v>
+        <v>4.0494545454545454</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="50">
         <f ca="1">TODAY()</f>
-        <v>44558</v>
+        <v>44563</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="57"/>
@@ -51162,7 +51162,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44558</v>
+        <v>44563</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51173,7 +51173,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44558</v>
+        <v>44563</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51336,14 +51336,14 @@
       </c>
       <c r="J23" s="62">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.52983610033988948</v>
+        <v>0.53573228716850285</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
       </c>
       <c r="L23">
         <f ca="1">G20-G16</f>
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="O23" s="16">
         <f>SUM(O19:O22)</f>
@@ -51362,7 +51362,7 @@
       </c>
       <c r="S23">
         <f ca="1">N22-N18</f>
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51392,14 +51392,14 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>21.933333333333334</v>
+        <v>21.766666666666666</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>9.3333333333333339</v>
+        <v>9.1666666666666661</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51429,7 +51429,7 @@
       </c>
       <c r="Q25" s="62">
         <f ca="1">XIRR(Q18:Q22,N18:N22)</f>
-        <v>0.61206808686256409</v>
+        <v>0.64065786004066483</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51453,7 +51453,7 @@
       </c>
       <c r="J26" s="66">
         <f ca="1">J25/L24</f>
-        <v>4.3566362715298883</v>
+        <v>4.3899948953547732</v>
       </c>
       <c r="P26" s="66" t="s">
         <v>36</v>
@@ -51512,7 +51512,7 @@
       </c>
       <c r="Q28">
         <f ca="1">Q27/S24</f>
-        <v>2.2991056719228049</v>
+        <v>2.3409075932304924</v>
       </c>
       <c r="S28" s="22"/>
     </row>
@@ -51619,7 +51619,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51640,7 +51640,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>40.033333333333331</v>
+        <v>39.866666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51663,7 +51663,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>1.0585651278495789</v>
+        <v>1.08292156457901</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51690,7 +51690,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.900325219180095</v>
+        <v>4.9208115286248271</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51760,7 +51760,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.52983610033988948</v>
+        <v>0.53573228716850285</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -1112,7 +1112,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1241,6 +1241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -45027,6 +45028,15 @@
       <c r="B13" s="60" t="s">
         <v>29</v>
       </c>
+      <c r="C13" s="78">
+        <v>17935.47</v>
+      </c>
+      <c r="D13" s="78">
+        <v>17909.02</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
@@ -50777,7 +50787,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50788,7 +50798,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50864,7 +50874,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G7-G5</f>
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50901,7 +50911,7 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>4.9666666666666668</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50923,7 +50933,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="23"/>
@@ -50932,7 +50942,7 @@
       </c>
       <c r="J9" s="51">
         <f ca="1">XIRR(J5:J7,G5:G7)</f>
-        <v>0.39851227402687073</v>
+        <v>0.4122167766094208</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -50956,7 +50966,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>9.1666666666666661</v>
+        <v>9.0333333333333332</v>
       </c>
       <c r="G10" s="22"/>
       <c r="I10" s="20" t="s">
@@ -51018,7 +51028,7 @@
       </c>
       <c r="J12" s="66">
         <f ca="1">J11/L8</f>
-        <v>2.8036547471776041</v>
+        <v>2.8809969470997454</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
@@ -51089,12 +51099,12 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>4.0494545454545454</v>
+        <v>4.1092250922509219</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="50">
         <f ca="1">TODAY()</f>
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="57"/>
@@ -51162,7 +51172,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51173,7 +51183,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51336,14 +51346,14 @@
       </c>
       <c r="J23" s="62">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.53573228716850285</v>
+        <v>0.54054628014564521</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
       </c>
       <c r="L23">
         <f ca="1">G20-G16</f>
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="O23" s="16">
         <f>SUM(O19:O22)</f>
@@ -51362,7 +51372,7 @@
       </c>
       <c r="S23">
         <f ca="1">N22-N18</f>
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51392,14 +51402,14 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>21.766666666666666</v>
+        <v>21.633333333333333</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>9.1666666666666661</v>
+        <v>9.0333333333333332</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51429,7 +51439,7 @@
       </c>
       <c r="Q25" s="62">
         <f ca="1">XIRR(Q18:Q22,N18:N22)</f>
-        <v>0.64065786004066483</v>
+        <v>0.66559045910835279</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51453,7 +51463,7 @@
       </c>
       <c r="J26" s="66">
         <f ca="1">J25/L24</f>
-        <v>4.3899948953547732</v>
+        <v>4.4170518746789931</v>
       </c>
       <c r="P26" s="66" t="s">
         <v>36</v>
@@ -51512,7 +51522,7 @@
       </c>
       <c r="Q28">
         <f ca="1">Q27/S24</f>
-        <v>2.3409075932304924</v>
+        <v>2.3754597348279902</v>
       </c>
       <c r="S28" s="22"/>
     </row>
@@ -51619,7 +51629,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51640,7 +51650,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>39.866666666666667</v>
+        <v>39.733333333333334</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51663,7 +51673,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>1.08292156457901</v>
+        <v>1.1036141037940979</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51690,7 +51700,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.9208115286248271</v>
+        <v>4.9373243189893401</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51760,7 +51770,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.53573228716850285</v>
+        <v>0.54054628014564521</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="74">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Iinvertido en 195 al41</t>
+  </si>
+  <si>
+    <t>INVERTIDO EN 215 AL35</t>
   </si>
 </sst>
 </file>
@@ -44780,7 +44783,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -50380,8 +50383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50569,7 +50572,18 @@
       <c r="B8" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>12903.74</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12839.22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="63">
+        <v>12800</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
@@ -50787,7 +50801,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44567</v>
+        <v>44574</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50798,7 +50812,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44567</v>
+        <v>44574</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50874,7 +50888,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G7-G5</f>
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50911,7 +50925,7 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>4.833333333333333</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50933,7 +50947,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="23"/>
@@ -50942,7 +50956,7 @@
       </c>
       <c r="J9" s="51">
         <f ca="1">XIRR(J5:J7,G5:G7)</f>
-        <v>0.4122167766094208</v>
+        <v>0.43859516978263857</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -50966,7 +50980,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>9.0333333333333332</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G10" s="22"/>
       <c r="I10" s="20" t="s">
@@ -51028,7 +51042,7 @@
       </c>
       <c r="J12" s="66">
         <f ca="1">J11/L8</f>
-        <v>2.8809969470997454</v>
+        <v>3.0271344734019063</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
@@ -51099,12 +51113,12 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>4.1092250922509219</v>
+        <v>4.2181818181818178</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="50">
         <f ca="1">TODAY()</f>
-        <v>44567</v>
+        <v>44574</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="57"/>
@@ -51172,7 +51186,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44567</v>
+        <v>44574</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51183,7 +51197,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44567</v>
+        <v>44574</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51346,14 +51360,14 @@
       </c>
       <c r="J23" s="62">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.54054628014564521</v>
+        <v>0.54918617606163045</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
       </c>
       <c r="L23">
         <f ca="1">G20-G16</f>
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="O23" s="16">
         <f>SUM(O19:O22)</f>
@@ -51372,7 +51386,7 @@
       </c>
       <c r="S23">
         <f ca="1">N22-N18</f>
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51402,14 +51416,14 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>21.633333333333333</v>
+        <v>21.4</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>9.0333333333333332</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51439,7 +51453,7 @@
       </c>
       <c r="Q25" s="62">
         <f ca="1">XIRR(Q18:Q22,N18:N22)</f>
-        <v>0.66559045910835279</v>
+        <v>0.71441160440444951</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51463,7 +51477,7 @@
       </c>
       <c r="J26" s="66">
         <f ca="1">J25/L24</f>
-        <v>4.4170518746789931</v>
+        <v>4.46521287642783</v>
       </c>
       <c r="P26" s="66" t="s">
         <v>36</v>
@@ -51522,7 +51536,7 @@
       </c>
       <c r="Q28">
         <f ca="1">Q27/S24</f>
-        <v>2.3754597348279902</v>
+        <v>2.4384454096150958</v>
       </c>
       <c r="S28" s="22"/>
     </row>
@@ -51629,7 +51643,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1192</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51650,7 +51664,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>39.733333333333334</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51673,7 +51687,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>1.1036141037940979</v>
+        <v>1.1427835822105412</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51700,7 +51714,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.9373243189893401</v>
+        <v>4.9664899478778848</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51770,7 +51784,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.54054628014564521</v>
+        <v>0.54918617606163045</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>INVERTIDO EN 215 AL35</t>
+  </si>
+  <si>
+    <t>DEL 10/11/2020 AL 10/12/2020. COMPRA PROMEDIO 102,7</t>
+  </si>
+  <si>
+    <t>DEL 5/11/2020 AL 22/12/2020 COMPRE. COMPRA PROMEDIO 86,52</t>
+  </si>
+  <si>
+    <t>DEL 5/11/2020 AL 17/12/2020. COMPRA PROMEDIO 81,91</t>
   </si>
 </sst>
 </file>
@@ -44781,19 +44790,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>46</v>
       </c>
@@ -44810,7 +44820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <v>44165</v>
       </c>
@@ -44832,8 +44842,11 @@
       <c r="K2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="61">
         <v>44200</v>
       </c>
@@ -44858,8 +44871,11 @@
       <c r="K3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="61">
         <v>44255</v>
       </c>
@@ -44879,10 +44895,13 @@
         <v>39</v>
       </c>
       <c r="K4">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="61">
         <v>44290</v>
       </c>
@@ -44901,8 +44920,12 @@
       <c r="G5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>SUM(K2:K4)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="61">
         <v>44291</v>
       </c>
@@ -44922,7 +44945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>44347</v>
       </c>
@@ -44939,7 +44962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>44381</v>
       </c>
@@ -44956,7 +44979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>44439</v>
       </c>
@@ -44973,7 +44996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>44473</v>
       </c>
@@ -44990,7 +45013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>44473</v>
       </c>
@@ -45007,7 +45030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>44530</v>
       </c>
@@ -45024,7 +45047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>44565</v>
       </c>
@@ -45041,23 +45064,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>44620</v>
       </c>
       <c r="B14" s="60" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="76"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>44655</v>
       </c>
       <c r="B15" s="60" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="76"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
         <v>44712</v>
       </c>
@@ -50383,7 +50408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -50801,7 +50826,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44574</v>
+        <v>44592</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50812,7 +50837,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44574</v>
+        <v>44592</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50888,7 +50913,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G7-G5</f>
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50925,7 +50950,7 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50947,7 +50972,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="23"/>
@@ -50956,7 +50981,7 @@
       </c>
       <c r="J9" s="51">
         <f ca="1">XIRR(J5:J7,G5:G7)</f>
-        <v>0.43859516978263857</v>
+        <v>0.52479373812675478</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -50980,7 +51005,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>8.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G10" s="22"/>
       <c r="I10" s="20" t="s">
@@ -51042,7 +51067,7 @@
       </c>
       <c r="J12" s="66">
         <f ca="1">J11/L8</f>
-        <v>3.0271344734019063</v>
+        <v>3.481204644412192</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
@@ -51113,12 +51138,12 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>4.2181818181818178</v>
+        <v>4.5268292682926834</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="50">
         <f ca="1">TODAY()</f>
-        <v>44574</v>
+        <v>44592</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="57"/>
@@ -51186,7 +51211,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44574</v>
+        <v>44592</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51197,7 +51222,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44574</v>
+        <v>44592</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51360,14 +51385,14 @@
       </c>
       <c r="J23" s="62">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.54918617606163045</v>
+        <v>0.57275238633155834</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
       </c>
       <c r="L23">
         <f ca="1">G20-G16</f>
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="O23" s="16">
         <f>SUM(O19:O22)</f>
@@ -51386,7 +51411,7 @@
       </c>
       <c r="S23">
         <f ca="1">N22-N18</f>
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51416,14 +51441,14 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>8.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51453,7 +51478,7 @@
       </c>
       <c r="Q25" s="62">
         <f ca="1">XIRR(Q18:Q22,N18:N22)</f>
-        <v>0.71441160440444951</v>
+        <v>0.88258260488510132</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51477,7 +51502,7 @@
       </c>
       <c r="J26" s="66">
         <f ca="1">J25/L24</f>
-        <v>4.46521287642783</v>
+        <v>4.5940170940170937</v>
       </c>
       <c r="P26" s="66" t="s">
         <v>36</v>
@@ -51536,7 +51561,7 @@
       </c>
       <c r="Q28">
         <f ca="1">Q27/S24</f>
-        <v>2.4384454096150958</v>
+        <v>2.6168682444649813</v>
       </c>
       <c r="S28" s="22"/>
     </row>
@@ -51643,7 +51668,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1185</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51664,7 +51689,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>39.5</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51687,7 +51712,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>1.1427835822105412</v>
+        <v>1.2665023446083068</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51714,7 +51739,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>4.9664899478778848</v>
+        <v>5.0430939059428397</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51784,7 +51809,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.54918617606163045</v>
+        <v>0.57275238633155834</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -44792,7 +44792,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14:O17"/>
     </sheetView>
   </sheetViews>
@@ -50408,7 +50408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -50826,7 +50826,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44592</v>
+        <v>44611</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50837,7 +50837,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44592</v>
+        <v>44611</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50913,7 +50913,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G7-G5</f>
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50950,7 +50950,7 @@
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>4</v>
+        <v>3.3666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50972,7 +50972,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="23"/>
@@ -50981,7 +50981,7 @@
       </c>
       <c r="J9" s="51">
         <f ca="1">XIRR(J5:J7,G5:G7)</f>
-        <v>0.52479373812675478</v>
+        <v>0.66148191094398501</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -51005,7 +51005,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>8.1999999999999993</v>
+        <v>7.5666666666666664</v>
       </c>
       <c r="G10" s="22"/>
       <c r="I10" s="20" t="s">
@@ -51067,7 +51067,7 @@
       </c>
       <c r="J12" s="66">
         <f ca="1">J11/L8</f>
-        <v>3.481204644412192</v>
+        <v>4.1360847260342872</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
@@ -51138,12 +51138,12 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>4.5268292682926834</v>
+        <v>4.9057268722466958</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="50">
         <f ca="1">TODAY()</f>
-        <v>44592</v>
+        <v>44611</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="57"/>
@@ -51211,7 +51211,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44592</v>
+        <v>44611</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51222,7 +51222,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44592</v>
+        <v>44611</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51385,14 +51385,14 @@
       </c>
       <c r="J23" s="62">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.57275238633155834</v>
+        <v>0.59997710585594188</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
       </c>
       <c r="L23">
         <f ca="1">G20-G16</f>
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="O23" s="16">
         <f>SUM(O19:O22)</f>
@@ -51411,7 +51411,7 @@
       </c>
       <c r="S23">
         <f ca="1">N22-N18</f>
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51441,14 +51441,14 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>20.8</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>8.1999999999999993</v>
+        <v>7.5666666666666664</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51478,7 +51478,7 @@
       </c>
       <c r="Q25" s="62">
         <f ca="1">XIRR(Q18:Q22,N18:N22)</f>
-        <v>0.88258260488510132</v>
+        <v>1.1840977787971496</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51502,7 +51502,7 @@
       </c>
       <c r="J26" s="66">
         <f ca="1">J25/L24</f>
-        <v>4.5940170940170937</v>
+        <v>4.7382920110192837</v>
       </c>
       <c r="P26" s="66" t="s">
         <v>36</v>
@@ -51561,7 +51561,7 @@
       </c>
       <c r="Q28">
         <f ca="1">Q27/S24</f>
-        <v>2.6168682444649813</v>
+        <v>2.8359012693320942</v>
       </c>
       <c r="S28" s="22"/>
     </row>
@@ -51668,7 +51668,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1167</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51689,7 +51689,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>38.9</v>
+        <v>38.266666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51712,7 +51712,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>1.2665023446083068</v>
+        <v>1.4586405873298645</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51739,7 +51739,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>5.0430939059428397</v>
+        <v>5.1265597458495584</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51809,7 +51809,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.57275238633155834</v>
+        <v>0.59997710585594188</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -44792,8 +44792,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45070,6 +45070,15 @@
       </c>
       <c r="B14" s="60" t="s">
         <v>30</v>
+      </c>
+      <c r="C14">
+        <v>19667.32</v>
+      </c>
+      <c r="D14">
+        <v>19568.98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
       </c>
       <c r="J14" s="76"/>
     </row>
@@ -50408,7 +50417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -50759,8 +50768,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:J17"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50826,7 +50835,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44611</v>
+        <v>44624</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50837,12 +50846,12 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44611</v>
+        <v>44624</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="33">
-        <v>-103.35</v>
+        <v>-101</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -50863,18 +50872,18 @@
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="32">
-        <v>44620</v>
-      </c>
-      <c r="H6" s="34">
-        <v>8.7731999999999992</v>
-      </c>
-      <c r="I6" s="34">
-        <v>0</v>
-      </c>
-      <c r="J6" s="33">
-        <f t="shared" ref="J6:J7" si="1">I6+H6</f>
-        <v>8.7731999999999992</v>
+      <c r="G6" s="40">
+        <v>44712</v>
+      </c>
+      <c r="H6" s="41">
+        <v>8.9680999999999997</v>
+      </c>
+      <c r="I6" s="41">
+        <v>100</v>
+      </c>
+      <c r="J6" s="42">
+        <f t="shared" ref="J6" si="1">I6+H6</f>
+        <v>108.96809999999999</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -50895,25 +50904,25 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="40">
-        <v>44712</v>
-      </c>
-      <c r="H7" s="41">
+      <c r="G7" s="34"/>
+      <c r="H7" s="28">
+        <f>SUM(H6:H6)</f>
         <v>8.9680999999999997</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="28">
+        <f>SUM(I6:I6)</f>
         <v>100</v>
       </c>
-      <c r="J7" s="42">
-        <f t="shared" si="1"/>
+      <c r="J7" s="28">
+        <f>SUM(J6:J6)</f>
         <v>108.96809999999999</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="20">
-        <f ca="1">G7-G5</f>
-        <v>101</v>
+        <f ca="1">G6-G5</f>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50932,25 +50941,21 @@
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="28">
-        <f>SUM(H6:H7)</f>
-        <v>17.741299999999999</v>
-      </c>
-      <c r="I8" s="28">
-        <f>SUM(I6:I7)</f>
-        <v>100</v>
-      </c>
-      <c r="J8" s="28">
-        <f>SUM(J6:J7)</f>
-        <v>117.7413</v>
+      <c r="G8" s="20"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="51">
+        <f ca="1">XIRR(J5:J6,G5:G6)</f>
+        <v>0.37019938826560972</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>3.3666666666666667</v>
+        <v>2.9333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50972,16 +50977,15 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>227</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="51">
-        <f ca="1">XIRR(J5:J7,G5:G7)</f>
-        <v>0.66148191094398501</v>
+        <v>214</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="I9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="28">
+        <f>J7+J5</f>
+        <v>7.9680999999999926</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -51005,15 +51009,15 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>7.5666666666666664</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="I10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="28">
-        <f>J8+J5</f>
-        <v>14.391300000000001</v>
+        <v>7.1333333333333337</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="I10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="66">
+        <f>J9*100/-J5</f>
+        <v>7.8892079207920718</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -51036,11 +51040,11 @@
       <c r="F11" s="22"/>
       <c r="G11" s="1"/>
       <c r="I11" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="66">
-        <f>J10*100/-J5</f>
-        <v>13.924818577648768</v>
+        <f ca="1">J10/L8</f>
+        <v>2.6895027002700247</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -51062,17 +51066,11 @@
       <c r="E12" s="34"/>
       <c r="F12" s="22"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="66">
-        <f ca="1">J11/L8</f>
-        <v>4.1360847260342872</v>
-      </c>
+      <c r="J12" s="38"/>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="34"/>
       <c r="C13" s="20" t="s">
@@ -51085,6 +51083,8 @@
       <c r="E13" s="28"/>
       <c r="F13" s="22"/>
       <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="38"/>
       <c r="Q13" s="22"/>
     </row>
@@ -51099,10 +51099,18 @@
         <v>30.159999999999997</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="38"/>
+      <c r="G14" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>28</v>
+      </c>
       <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51116,17 +51124,14 @@
         <v>37.119999999999997</v>
       </c>
       <c r="F15" s="22"/>
-      <c r="G15" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="45" t="s">
-        <v>28</v>
+      <c r="G15" s="50">
+        <f ca="1">TODAY()</f>
+        <v>44624</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="48">
+        <v>-67.5</v>
       </c>
       <c r="Q15" s="22"/>
     </row>
@@ -51138,17 +51143,20 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>4.9057268722466958</v>
+        <v>5.2037383177570087</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="50">
-        <f ca="1">TODAY()</f>
-        <v>44611</v>
-      </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="48">
-        <v>-67.5</v>
+      <c r="G16" s="25">
+        <v>44669</v>
+      </c>
+      <c r="H16" s="52">
+        <v>8</v>
+      </c>
+      <c r="I16" s="46">
+        <v>0</v>
+      </c>
+      <c r="J16" s="46">
+        <v>8</v>
       </c>
       <c r="Q16" s="22"/>
     </row>
@@ -51159,7 +51167,7 @@
       <c r="D17" s="20"/>
       <c r="F17" s="22"/>
       <c r="G17" s="25">
-        <v>44669</v>
+        <v>44851</v>
       </c>
       <c r="H17" s="52">
         <v>8</v>
@@ -51198,7 +51206,7 @@
       </c>
       <c r="E18" s="20"/>
       <c r="G18" s="25">
-        <v>44851</v>
+        <v>45033</v>
       </c>
       <c r="H18" s="52">
         <v>8</v>
@@ -51211,18 +51219,18 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44611</v>
+        <v>44624</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
       <c r="Q18" s="48">
-        <v>-60.7</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44611</v>
+        <v>44624</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51231,31 +51239,31 @@
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="25">
-        <v>45033</v>
-      </c>
-      <c r="H19" s="52">
+      <c r="G19" s="35">
+        <v>45216</v>
+      </c>
+      <c r="H19" s="53">
         <v>8</v>
       </c>
-      <c r="I19" s="46">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46">
-        <v>8</v>
+      <c r="I19" s="47">
+        <v>108</v>
+      </c>
+      <c r="J19" s="47">
+        <v>108</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19" s="25">
-        <v>44565</v>
+        <v>44655</v>
       </c>
       <c r="O19" s="52">
-        <v>5.1315</v>
+        <v>3.9864999999999999</v>
       </c>
       <c r="P19" s="46">
         <v>12.2828</v>
       </c>
       <c r="Q19" s="46">
-        <v>17.414300000000001</v>
+        <v>16.269300000000001</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51271,29 +51279,30 @@
       <c r="D20" s="46">
         <v>9.4583999999999993</v>
       </c>
-      <c r="G20" s="35">
-        <v>45216</v>
-      </c>
-      <c r="H20" s="53">
-        <v>8</v>
-      </c>
-      <c r="I20" s="47">
+      <c r="G20" s="22"/>
+      <c r="H20" s="28">
+        <f>SUM(H16:H19)</f>
+        <v>32</v>
+      </c>
+      <c r="I20" s="28">
+        <f>SUM(I16:I19)</f>
         <v>108</v>
       </c>
-      <c r="J20" s="47">
-        <v>108</v>
+      <c r="J20" s="28">
+        <f>SUM(J16:J19)</f>
+        <v>132</v>
       </c>
       <c r="N20" s="25">
-        <v>44655</v>
+        <v>44746</v>
       </c>
       <c r="O20" s="52">
-        <v>3.9864999999999999</v>
+        <v>2.9857</v>
       </c>
       <c r="P20" s="46">
         <v>12.2828</v>
       </c>
       <c r="Q20" s="46">
-        <v>16.269300000000001</v>
+        <v>15.2685</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51310,29 +51319,20 @@
         <v>9.5623000000000005</v>
       </c>
       <c r="G21" s="22"/>
-      <c r="H21" s="28">
-        <f>SUM(H17:H20)</f>
-        <v>32</v>
-      </c>
-      <c r="I21" s="28">
-        <f>SUM(I17:I20)</f>
-        <v>108</v>
-      </c>
-      <c r="J21" s="28">
-        <f>SUM(J17:J20)</f>
-        <v>132</v>
-      </c>
-      <c r="N21" s="25">
-        <v>44746</v>
-      </c>
-      <c r="O21" s="52">
-        <v>2.9857</v>
-      </c>
-      <c r="P21" s="46">
-        <v>12.2828</v>
-      </c>
-      <c r="Q21" s="46">
-        <v>15.2685</v>
+      <c r="H21" s="22"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="N21" s="35">
+        <v>44838</v>
+      </c>
+      <c r="O21" s="53">
+        <v>1.9621</v>
+      </c>
+      <c r="P21" s="47">
+        <v>22.811</v>
+      </c>
+      <c r="Q21" s="47">
+        <v>24.773099999999999</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51348,21 +51348,26 @@
       <c r="D22" s="46">
         <v>9.5623000000000005</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="N22" s="35">
-        <v>44838</v>
-      </c>
-      <c r="O22" s="53">
-        <v>1.9621</v>
-      </c>
-      <c r="P22" s="47">
-        <v>22.811</v>
-      </c>
-      <c r="Q22" s="47">
-        <v>24.773099999999999</v>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="62">
+        <f ca="1">XIRR(J15:J19,G15:G19)</f>
+        <v>0.62018252015113839</v>
+      </c>
+      <c r="O22" s="16">
+        <f>SUM(O19:O21)</f>
+        <v>8.9343000000000004</v>
+      </c>
+      <c r="P22" s="16">
+        <f>SUM(P19:P21)</f>
+        <v>47.376599999999996</v>
+      </c>
+      <c r="Q22" s="16">
+        <f>SUM(Q19:Q21)</f>
+        <v>56.310900000000004</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51380,38 +51385,26 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="62">
-        <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.59997710585594188</v>
+      <c r="I23" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="16">
+        <f>J20+J15</f>
+        <v>64.5</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
       </c>
       <c r="L23">
-        <f ca="1">G20-G16</f>
-        <v>605</v>
-      </c>
-      <c r="O23" s="16">
-        <f>SUM(O19:O22)</f>
-        <v>14.065799999999999</v>
-      </c>
-      <c r="P23" s="16">
-        <f>SUM(P19:P22)</f>
-        <v>59.659399999999998</v>
-      </c>
-      <c r="Q23" s="16">
-        <f>SUM(Q19:Q22)</f>
-        <v>73.725200000000001</v>
+        <f ca="1">G19-G15</f>
+        <v>592</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
-        <f ca="1">N22-N18</f>
-        <v>227</v>
+        <f ca="1">N21-N18</f>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51430,25 +51423,32 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="16">
-        <f>J21+J16</f>
-        <v>64.5</v>
+        <v>37</v>
+      </c>
+      <c r="J24" s="66">
+        <f>J23*100/-J15</f>
+        <v>95.555555555555557</v>
       </c>
       <c r="K24" t="s">
         <v>35</v>
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>20.166666666666668</v>
+        <v>19.733333333333334</v>
+      </c>
+      <c r="P24" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="62">
+        <f ca="1">XIRR(Q18:Q21,N18:N21)</f>
+        <v>0.38389758467674251</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>7.5666666666666664</v>
+        <v>7.1333333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51467,18 +51467,18 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J25" s="66">
-        <f>J24*100/-J16</f>
-        <v>95.555555555555557</v>
+        <f ca="1">J24/L24</f>
+        <v>4.8423423423423424</v>
       </c>
       <c r="P25" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q25" s="62">
-        <f ca="1">XIRR(Q18:Q22,N18:N22)</f>
-        <v>1.1840977787971496</v>
+        <v>36</v>
+      </c>
+      <c r="Q25" s="16">
+        <f>Q22+Q18</f>
+        <v>6.3109000000000037</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51497,19 +51497,14 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="66">
-        <f ca="1">J25/L24</f>
-        <v>4.7382920110192837</v>
-      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="P26" s="66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="16">
-        <f>Q23+Q18</f>
-        <v>13.025199999999998</v>
+        <f>Q25*100/-Q18</f>
+        <v>12.621800000000007</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51531,11 +51526,11 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="P27" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="16">
-        <f>Q26*100/-Q18</f>
-        <v>21.458319604612846</v>
+        <v>38</v>
+      </c>
+      <c r="Q27">
+        <f ca="1">Q26/S24</f>
+        <v>1.7694112149532719</v>
       </c>
       <c r="S27" s="22"/>
     </row>
@@ -51556,13 +51551,6 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="P28" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q28">
-        <f ca="1">Q27/S24</f>
-        <v>2.8359012693320942</v>
-      </c>
       <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51578,10 +51566,6 @@
       <c r="D29" s="46">
         <v>9.5623000000000005</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
       <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51668,7 +51652,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1148</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51689,7 +51673,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>38.266666666666666</v>
+        <v>37.833333333333336</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51712,7 +51696,7 @@
       </c>
       <c r="D38" s="62">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>1.4586405873298645</v>
+        <v>1.6719016909599305</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51739,7 +51723,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>5.1265597458495584</v>
+        <v>5.1852780513086278</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51808,8 +51792,8 @@
         <v>31</v>
       </c>
       <c r="D51" s="51">
-        <f ca="1">XIRR(J16:J20,G16:G20)</f>
-        <v>0.59997710585594188</v>
+        <f ca="1">XIRR(J15:J19,G15:G19)</f>
+        <v>0.62018252015113839</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -44792,8 +44792,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50417,7 +50417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -50835,7 +50835,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44624</v>
+        <v>44643</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50846,7 +50846,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44624</v>
+        <v>44643</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50922,7 +50922,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G6-G5</f>
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50948,14 +50948,14 @@
       </c>
       <c r="J8" s="51">
         <f ca="1">XIRR(J5:J6,G5:G6)</f>
-        <v>0.37019938826560972</v>
+        <v>0.49433808922767641</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>2.9333333333333331</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50977,7 +50977,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="G9" s="22"/>
       <c r="I9" s="20" t="s">
@@ -51009,7 +51009,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>7.1333333333333337</v>
+        <v>6.5</v>
       </c>
       <c r="G10" s="1"/>
       <c r="I10" s="38" t="s">
@@ -51044,7 +51044,7 @@
       </c>
       <c r="J11" s="66">
         <f ca="1">J10/L8</f>
-        <v>2.6895027002700247</v>
+        <v>3.4300904003443793</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -51126,7 +51126,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="50">
         <f ca="1">TODAY()</f>
-        <v>44624</v>
+        <v>44643</v>
       </c>
       <c r="H15" s="59"/>
       <c r="I15" s="57"/>
@@ -51143,7 +51143,7 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>5.2037383177570087</v>
+        <v>5.7107692307692304</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25">
@@ -51219,7 +51219,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44624</v>
+        <v>44643</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51230,7 +51230,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44624</v>
+        <v>44643</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51355,7 +51355,7 @@
       </c>
       <c r="J22" s="62">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.62018252015113839</v>
+        <v>0.65235608220100427</v>
       </c>
       <c r="O22" s="16">
         <f>SUM(O19:O21)</f>
@@ -51397,14 +51397,14 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N21-N18</f>
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51434,21 +51434,21 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>19.733333333333334</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="P24" s="66" t="s">
         <v>60</v>
       </c>
       <c r="Q24" s="62">
         <f ca="1">XIRR(Q18:Q21,N18:N21)</f>
-        <v>0.38389758467674251</v>
+        <v>0.46273868680000296</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>7.1333333333333337</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51471,7 +51471,7 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">J24/L24</f>
-        <v>4.8423423423423424</v>
+        <v>5.0029086678301331</v>
       </c>
       <c r="P25" s="66" t="s">
         <v>36</v>
@@ -51530,7 +51530,7 @@
       </c>
       <c r="Q27">
         <f ca="1">Q26/S24</f>
-        <v>1.7694112149532719</v>
+        <v>1.9418153846153858</v>
       </c>
       <c r="S27" s="22"/>
     </row>
@@ -51652,7 +51652,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1135</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51673,7 +51673,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>37.833333333333336</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51694,9 +51694,9 @@
       <c r="C38" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="62">
+      <c r="D38" s="62" t="e">
         <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>1.6719016909599305</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -51723,7 +51723,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>5.1852780513086278</v>
+        <v>5.2735578747628074</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51793,7 +51793,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.62018252015113839</v>
+        <v>0.65235608220100427</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -44792,8 +44792,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45088,6 +45088,15 @@
       </c>
       <c r="B15" s="60" t="s">
         <v>29</v>
+      </c>
+      <c r="C15">
+        <v>23139.16</v>
+      </c>
+      <c r="D15">
+        <v>23110.77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
       </c>
       <c r="J15" s="76"/>
     </row>
@@ -50417,8 +50426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50768,8 +50777,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50835,7 +50844,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50846,12 +50855,12 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="33">
-        <v>-101</v>
+        <v>-105</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -50876,14 +50885,14 @@
         <v>44712</v>
       </c>
       <c r="H6" s="41">
-        <v>8.9680999999999997</v>
+        <v>11.5</v>
       </c>
       <c r="I6" s="41">
         <v>100</v>
       </c>
       <c r="J6" s="42">
         <f t="shared" ref="J6" si="1">I6+H6</f>
-        <v>108.96809999999999</v>
+        <v>111.5</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -50907,7 +50916,7 @@
       <c r="G7" s="34"/>
       <c r="H7" s="28">
         <f>SUM(H6:H6)</f>
-        <v>8.9680999999999997</v>
+        <v>11.5</v>
       </c>
       <c r="I7" s="28">
         <f>SUM(I6:I6)</f>
@@ -50915,14 +50924,14 @@
       </c>
       <c r="J7" s="28">
         <f>SUM(J6:J6)</f>
-        <v>108.96809999999999</v>
+        <v>111.5</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="20">
         <f ca="1">G6-G5</f>
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50948,14 +50957,14 @@
       </c>
       <c r="J8" s="51">
         <f ca="1">XIRR(J5:J6,G5:G6)</f>
-        <v>0.49433808922767641</v>
+        <v>0.47918334603309631</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>2.2999999999999998</v>
+        <v>1.8666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50977,7 +50986,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G9" s="22"/>
       <c r="I9" s="20" t="s">
@@ -50985,7 +50994,7 @@
       </c>
       <c r="J9" s="28">
         <f>J7+J5</f>
-        <v>7.9680999999999926</v>
+        <v>6.5</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -51009,7 +51018,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>6.5</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="G10" s="1"/>
       <c r="I10" s="38" t="s">
@@ -51017,7 +51026,7 @@
       </c>
       <c r="J10" s="66">
         <f>J9*100/-J5</f>
-        <v>7.8892079207920718</v>
+        <v>6.1904761904761907</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -51044,7 +51053,7 @@
       </c>
       <c r="J11" s="66">
         <f ca="1">J10/L8</f>
-        <v>3.4300904003443793</v>
+        <v>3.3163265306122449</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -51126,7 +51135,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="50">
         <f ca="1">TODAY()</f>
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="H15" s="59"/>
       <c r="I15" s="57"/>
@@ -51143,7 +51152,7 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>5.7107692307692304</v>
+        <v>6.1186813186813183</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25">
@@ -51219,18 +51228,18 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
       <c r="Q18" s="48">
-        <v>-50</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51254,16 +51263,17 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19" s="25">
-        <v>44655</v>
+        <v>44746</v>
       </c>
       <c r="O19" s="52">
-        <v>3.9864999999999999</v>
+        <v>3.5154000000000001</v>
       </c>
       <c r="P19" s="46">
         <v>12.2828</v>
       </c>
       <c r="Q19" s="46">
-        <v>16.269300000000001</v>
+        <f>O19+P19</f>
+        <v>15.7982</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51292,17 +51302,18 @@
         <f>SUM(J16:J19)</f>
         <v>132</v>
       </c>
-      <c r="N20" s="25">
-        <v>44746</v>
-      </c>
-      <c r="O20" s="52">
-        <v>2.9857</v>
-      </c>
-      <c r="P20" s="46">
-        <v>12.2828</v>
+      <c r="N20" s="35">
+        <v>44838</v>
+      </c>
+      <c r="O20" s="53">
+        <v>2.4041000000000001</v>
+      </c>
+      <c r="P20" s="47">
+        <v>22.811</v>
       </c>
       <c r="Q20" s="46">
-        <v>15.2685</v>
+        <f>O20+P20</f>
+        <v>25.2151</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51322,17 +51333,17 @@
       <c r="H21" s="22"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="N21" s="35">
-        <v>44838</v>
-      </c>
-      <c r="O21" s="53">
-        <v>1.9621</v>
-      </c>
-      <c r="P21" s="47">
-        <v>22.811</v>
-      </c>
-      <c r="Q21" s="47">
-        <v>24.773099999999999</v>
+      <c r="O21" s="16">
+        <f>SUM(O19:O20)</f>
+        <v>5.9195000000000002</v>
+      </c>
+      <c r="P21" s="16">
+        <f>SUM(P19:P20)</f>
+        <v>35.093800000000002</v>
+      </c>
+      <c r="Q21" s="16">
+        <f>SUM(Q19:Q20)</f>
+        <v>41.013300000000001</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51355,19 +51366,7 @@
       </c>
       <c r="J22" s="62">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.65235608220100427</v>
-      </c>
-      <c r="O22" s="16">
-        <f>SUM(O19:O21)</f>
-        <v>8.9343000000000004</v>
-      </c>
-      <c r="P22" s="16">
-        <f>SUM(P19:P21)</f>
-        <v>47.376599999999996</v>
-      </c>
-      <c r="Q22" s="16">
-        <f>SUM(Q19:Q21)</f>
-        <v>56.310900000000004</v>
+        <v>0.6764202535152436</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51397,14 +51396,21 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>573</v>
+        <v>560</v>
+      </c>
+      <c r="P23" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="62">
+        <f ca="1">XIRR(Q18:Q20,N18:N20)</f>
+        <v>0.48860321640968318</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
-        <f ca="1">N21-N18</f>
-        <v>195</v>
+        <f ca="1">N20-N18</f>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51434,21 +51440,21 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>19.100000000000001</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="P24" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q24" s="62">
-        <f ca="1">XIRR(Q18:Q21,N18:N21)</f>
-        <v>0.46273868680000296</v>
+        <v>36</v>
+      </c>
+      <c r="Q24" s="16">
+        <f>Q21+Q18</f>
+        <v>6.013300000000001</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>6.5</v>
+        <v>6.0666666666666664</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51471,14 +51477,14 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">J24/L24</f>
-        <v>5.0029086678301331</v>
+        <v>5.1190476190476186</v>
       </c>
       <c r="P25" s="66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="16">
-        <f>Q22+Q18</f>
-        <v>6.3109000000000037</v>
+        <f>Q24*100/-Q18</f>
+        <v>17.180857142857146</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51500,11 +51506,11 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="P26" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="16">
-        <f>Q25*100/-Q18</f>
-        <v>12.621800000000007</v>
+        <v>38</v>
+      </c>
+      <c r="Q26">
+        <f ca="1">Q25/S24</f>
+        <v>2.8320094191522771</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51525,13 +51531,6 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="P27" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27">
-        <f ca="1">Q26/S24</f>
-        <v>1.9418153846153858</v>
-      </c>
       <c r="S27" s="22"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51652,7 +51651,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1116</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51673,7 +51672,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>37.200000000000003</v>
+        <v>36.766666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51723,7 +51722,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>5.2735578747628074</v>
+        <v>5.3357122286811363</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51793,7 +51792,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.65235608220100427</v>
+        <v>0.6764202535152436</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>DEL 5/11/2020 AL 17/12/2020. COMPRA PROMEDIO 81,91</t>
+  </si>
+  <si>
+    <t>invertido en al41</t>
   </si>
 </sst>
 </file>
@@ -44792,7 +44795,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -50426,8 +50429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50634,6 +50637,18 @@
       </c>
       <c r="B9" s="65" t="s">
         <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13991.89</v>
+      </c>
+      <c r="D9">
+        <v>13921.93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="63">
+        <v>13720</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -50844,7 +50859,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50855,7 +50870,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50931,7 +50946,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G6-G5</f>
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50957,14 +50972,14 @@
       </c>
       <c r="J8" s="51">
         <f ca="1">XIRR(J5:J6,G5:G6)</f>
-        <v>0.47918334603309631</v>
+        <v>0.57891593575477607</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>1.8666666666666667</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50986,7 +51001,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G9" s="22"/>
       <c r="I9" s="20" t="s">
@@ -51018,7 +51033,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>6.0666666666666664</v>
+        <v>5.8</v>
       </c>
       <c r="G10" s="1"/>
       <c r="I10" s="38" t="s">
@@ -51053,7 +51068,7 @@
       </c>
       <c r="J11" s="66">
         <f ca="1">J10/L8</f>
-        <v>3.3163265306122449</v>
+        <v>3.8690476190476191</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -51135,7 +51150,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="50">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="H15" s="59"/>
       <c r="I15" s="57"/>
@@ -51152,7 +51167,7 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>6.1186813186813183</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25">
@@ -51228,7 +51243,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51239,7 +51254,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51366,7 +51381,7 @@
       </c>
       <c r="J22" s="62">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.6764202535152436</v>
+        <v>0.69215871095657344</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51396,21 +51411,21 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="P23" s="66" t="s">
         <v>60</v>
       </c>
       <c r="Q23" s="62">
         <f ca="1">XIRR(Q18:Q20,N18:N20)</f>
-        <v>0.48860321640968318</v>
+        <v>0.52377534508705137</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51440,7 +51455,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>18.666666666666668</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="P24" s="66" t="s">
         <v>36</v>
@@ -51454,7 +51469,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>6.0666666666666664</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51477,7 +51492,7 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">J24/L24</f>
-        <v>5.1190476190476186</v>
+        <v>5.1932367149758463</v>
       </c>
       <c r="P25" s="66" t="s">
         <v>37</v>
@@ -51510,7 +51525,7 @@
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>2.8320094191522771</v>
+        <v>2.9622167487684736</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51651,7 +51666,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1103</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51672,7 +51687,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>36.766666666666666</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51722,7 +51737,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>5.3357122286811363</v>
+        <v>5.3746946011281223</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51792,7 +51807,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.6764202535152436</v>
+        <v>0.69215871095657344</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -273,7 +273,19 @@
     <t>DEL 5/11/2020 AL 17/12/2020. COMPRA PROMEDIO 81,91</t>
   </si>
   <si>
-    <t>invertido en al41</t>
+    <t>usd 6 de rentas de los AL35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL 10/01/2022 Cobre </t>
+  </si>
+  <si>
+    <t>usd 4,8 de rentas de los al41</t>
+  </si>
+  <si>
+    <t>invertido en 195 al41</t>
+  </si>
+  <si>
+    <t>invertido en 215 al41</t>
   </si>
 </sst>
 </file>
@@ -50430,7 +50442,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50561,6 +50573,9 @@
       <c r="H5" s="63">
         <v>12292</v>
       </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
@@ -50587,6 +50602,9 @@
       <c r="H6" s="63">
         <v>12831</v>
       </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
@@ -50610,6 +50628,9 @@
       <c r="H7" s="63">
         <v>12597</v>
       </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
@@ -50624,6 +50645,9 @@
       <c r="D8" s="1">
         <v>12839.22</v>
       </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" t="s">
         <v>73</v>
       </c>
@@ -50644,8 +50668,11 @@
       <c r="D9">
         <v>13921.93</v>
       </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H9" s="63">
         <v>13720</v>
@@ -50657,6 +50684,18 @@
       </c>
       <c r="B10" s="71" t="s">
         <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12544.24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12481.52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -50792,8 +50831,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50859,7 +50898,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50870,7 +50909,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="32">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -50946,7 +50985,7 @@
       </c>
       <c r="L7" s="20">
         <f ca="1">G6-G5</f>
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50972,14 +51011,14 @@
       </c>
       <c r="J8" s="51">
         <f ca="1">XIRR(J5:J6,G5:G6)</f>
-        <v>0.57891593575477607</v>
+        <v>0.66503747105598476</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="20">
         <f ca="1">L7/30</f>
-        <v>1.6</v>
+        <v>1.4333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51001,7 +51040,7 @@
       </c>
       <c r="F9" s="22">
         <f ca="1">A11-A5</f>
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G9" s="22"/>
       <c r="I9" s="20" t="s">
@@ -51033,7 +51072,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">F9/30</f>
-        <v>5.8</v>
+        <v>5.6333333333333337</v>
       </c>
       <c r="G10" s="1"/>
       <c r="I10" s="38" t="s">
@@ -51068,7 +51107,7 @@
       </c>
       <c r="J11" s="66">
         <f ca="1">J10/L8</f>
-        <v>3.8690476190476191</v>
+        <v>4.3189368770764123</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -51150,7 +51189,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="50">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="H15" s="59"/>
       <c r="I15" s="57"/>
@@ -51167,7 +51206,7 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">D15/F10</f>
-        <v>6.3999999999999995</v>
+        <v>6.5893491124260342</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25">
@@ -51243,7 +51282,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51254,7 +51293,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51381,7 +51420,7 @@
       </c>
       <c r="J22" s="62">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.69215871095657344</v>
+        <v>0.70238417387008667</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51411,21 +51450,21 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="P23" s="66" t="s">
         <v>60</v>
       </c>
       <c r="Q23" s="62">
         <f ca="1">XIRR(Q18:Q20,N18:N20)</f>
-        <v>0.52377534508705137</v>
+        <v>0.54843582510948197</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51455,7 +51494,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>18.399999999999999</v>
+        <v>18.233333333333334</v>
       </c>
       <c r="P24" s="66" t="s">
         <v>36</v>
@@ -51469,7 +51508,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>5.8</v>
+        <v>5.6333333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51492,7 +51531,7 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">J24/L24</f>
-        <v>5.1932367149758463</v>
+        <v>5.2407068860450945</v>
       </c>
       <c r="P25" s="66" t="s">
         <v>37</v>
@@ -51525,7 +51564,7 @@
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>2.9622167487684736</v>
+        <v>3.0498562975486054</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51666,7 +51705,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51687,7 +51726,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>36.5</v>
+        <v>36.333333333333336</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51737,7 +51776,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>5.3746946011281223</v>
+        <v>5.3993491635186173</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51807,7 +51846,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.69215871095657344</v>
+        <v>0.70238417387008667</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" firstSheet="2" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -287,13 +287,16 @@
   <si>
     <t>invertido en 215 al41</t>
   </si>
+  <si>
+    <t>224000 amort + 25791,58 renta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1245,7 +1248,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="19" fillId="36" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1410,79 +1413,79 @@
               <c:strCache>
                 <c:ptCount val="194"/>
                 <c:pt idx="0">
-                  <c:v>7/9/2020</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8/9/2020</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9/9/2020</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10/9/2020</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11/9/2020</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14/9/2020</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15/9/2020</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16/9/2020</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17/9/2020</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18/9/2020</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21/9/2020</c:v>
+                  <c:v>21/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22/9/2020</c:v>
+                  <c:v>22/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23/9/2020</c:v>
+                  <c:v>23/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24/9/2020</c:v>
+                  <c:v>24/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25/9/2020</c:v>
+                  <c:v>25/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28/9/2020</c:v>
+                  <c:v>28/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29/9/2020</c:v>
+                  <c:v>29/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30/9/2020</c:v>
+                  <c:v>30/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1/10/2020</c:v>
+                  <c:v>01/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/10/2020</c:v>
+                  <c:v>02/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5/10/2020</c:v>
+                  <c:v>05/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6/10/2020</c:v>
+                  <c:v>06/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7/10/2020</c:v>
+                  <c:v>07/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8/10/2020</c:v>
+                  <c:v>08/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9/10/2020</c:v>
+                  <c:v>09/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13/10/2020</c:v>
@@ -1527,22 +1530,22 @@
                   <c:v>30/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2/11/2020</c:v>
+                  <c:v>02/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3/11/2020</c:v>
+                  <c:v>03/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4/11/2020</c:v>
+                  <c:v>04/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5/11/2020</c:v>
+                  <c:v>05/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6/11/2020</c:v>
+                  <c:v>06/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9/11/2020</c:v>
+                  <c:v>09/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10/11/2020</c:v>
@@ -1587,19 +1590,19 @@
                   <c:v>30/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1/12/2020</c:v>
+                  <c:v>01/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2/12/2020</c:v>
+                  <c:v>02/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3/12/2020</c:v>
+                  <c:v>03/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4/12/2020</c:v>
+                  <c:v>04/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9/12/2020</c:v>
+                  <c:v>09/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>10/12/2020</c:v>
@@ -1641,355 +1644,355 @@
                   <c:v>30/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4/1/2021</c:v>
+                  <c:v>04/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5/1/2021</c:v>
+                  <c:v>05/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6/1/2021</c:v>
+                  <c:v>06/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7/1/2021</c:v>
+                  <c:v>07/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8/1/2021</c:v>
+                  <c:v>08/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11/1/2021</c:v>
+                  <c:v>11/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12/1/2021</c:v>
+                  <c:v>12/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13/1/2021</c:v>
+                  <c:v>13/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14/1/2021</c:v>
+                  <c:v>14/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15/1/2021</c:v>
+                  <c:v>15/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18/1/2021</c:v>
+                  <c:v>18/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19/1/2021</c:v>
+                  <c:v>19/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20/1/2021</c:v>
+                  <c:v>20/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21/1/2021</c:v>
+                  <c:v>21/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22/1/2021</c:v>
+                  <c:v>22/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25/1/2021</c:v>
+                  <c:v>25/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26/1/2021</c:v>
+                  <c:v>26/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27/1/2021</c:v>
+                  <c:v>27/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28/1/2021</c:v>
+                  <c:v>28/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29/1/2021</c:v>
+                  <c:v>29/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1/2/2021</c:v>
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2/2/2021</c:v>
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3/2/2021</c:v>
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4/2/2021</c:v>
+                  <c:v>04/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5/2/2021</c:v>
+                  <c:v>05/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8/2/2021</c:v>
+                  <c:v>08/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9/2/2021</c:v>
+                  <c:v>09/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10/2/2021</c:v>
+                  <c:v>10/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2/2021</c:v>
+                  <c:v>11/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12/2/2021</c:v>
+                  <c:v>12/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17/2/2021</c:v>
+                  <c:v>17/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18/2/2021</c:v>
+                  <c:v>18/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19/2/2021</c:v>
+                  <c:v>19/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22/2/2021</c:v>
+                  <c:v>22/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>23/2/2021</c:v>
+                  <c:v>23/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>24/2/2021</c:v>
+                  <c:v>24/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>25/2/2021</c:v>
+                  <c:v>25/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>26/2/2021</c:v>
+                  <c:v>26/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2/3/2021</c:v>
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3/3/2021</c:v>
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4/3/2021</c:v>
+                  <c:v>04/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5/3/2021</c:v>
+                  <c:v>05/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8/3/2021</c:v>
+                  <c:v>08/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9/3/2021</c:v>
+                  <c:v>09/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>10/3/2021</c:v>
+                  <c:v>10/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11/3/2021</c:v>
+                  <c:v>11/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12/3/2021</c:v>
+                  <c:v>12/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15/3/2021</c:v>
+                  <c:v>15/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16/3/2021</c:v>
+                  <c:v>16/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>17/3/2021</c:v>
+                  <c:v>17/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18/3/2021</c:v>
+                  <c:v>18/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19/3/2021</c:v>
+                  <c:v>19/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22/3/2021</c:v>
+                  <c:v>22/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23/3/2021</c:v>
+                  <c:v>23/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>25/3/2021</c:v>
+                  <c:v>25/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>26/3/2021</c:v>
+                  <c:v>26/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>29/3/2021</c:v>
+                  <c:v>29/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>30/3/2021</c:v>
+                  <c:v>30/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31/3/2021</c:v>
+                  <c:v>31/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5/4/2021</c:v>
+                  <c:v>05/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6/4/2021</c:v>
+                  <c:v>06/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7/4/2021</c:v>
+                  <c:v>07/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8/4/2021</c:v>
+                  <c:v>08/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9/4/2021</c:v>
+                  <c:v>09/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12/4/2021</c:v>
+                  <c:v>12/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>13/4/2021</c:v>
+                  <c:v>13/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14/4/2021</c:v>
+                  <c:v>14/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15/4/2021</c:v>
+                  <c:v>15/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16/4/2021</c:v>
+                  <c:v>16/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>19/4/2021</c:v>
+                  <c:v>19/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>20/4/2021</c:v>
+                  <c:v>20/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21/4/2021</c:v>
+                  <c:v>21/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>22/4/2021</c:v>
+                  <c:v>22/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>23/4/2021</c:v>
+                  <c:v>23/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>26/4/2021</c:v>
+                  <c:v>26/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27/4/2021</c:v>
+                  <c:v>27/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>28/4/2021</c:v>
+                  <c:v>28/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>29/4/2021</c:v>
+                  <c:v>29/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>30/4/2021</c:v>
+                  <c:v>30/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3/5/2021</c:v>
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4/5/2021</c:v>
+                  <c:v>04/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5/5/2021</c:v>
+                  <c:v>05/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6/5/2021</c:v>
+                  <c:v>06/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7/5/2021</c:v>
+                  <c:v>07/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10/5/2021</c:v>
+                  <c:v>10/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11/5/2021</c:v>
+                  <c:v>11/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12/5/2021</c:v>
+                  <c:v>12/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13/5/2021</c:v>
+                  <c:v>13/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>14/5/2021</c:v>
+                  <c:v>14/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>17/5/2021</c:v>
+                  <c:v>17/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>18/5/2021</c:v>
+                  <c:v>18/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>19/5/2021</c:v>
+                  <c:v>19/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>20/5/2021</c:v>
+                  <c:v>20/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21/5/2021</c:v>
+                  <c:v>21/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26/5/2021</c:v>
+                  <c:v>26/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27/5/2021</c:v>
+                  <c:v>27/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>28/5/2021</c:v>
+                  <c:v>28/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>31/5/2021</c:v>
+                  <c:v>31/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1/6/2021</c:v>
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2/6/2021</c:v>
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3/6/2021</c:v>
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4/6/2021</c:v>
+                  <c:v>04/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7/6/2021</c:v>
+                  <c:v>07/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8/6/2021</c:v>
+                  <c:v>08/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>9/6/2021</c:v>
+                  <c:v>09/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10/6/2021</c:v>
+                  <c:v>10/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11/6/2021</c:v>
+                  <c:v>11/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>14/6/2021</c:v>
+                  <c:v>14/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>15/6/2021</c:v>
+                  <c:v>15/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>16/6/2021</c:v>
+                  <c:v>16/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>17/6/2021</c:v>
+                  <c:v>17/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>18/6/2021</c:v>
+                  <c:v>18/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>22/6/2021</c:v>
+                  <c:v>22/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>23/6/2021</c:v>
+                  <c:v>23/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>24/6/2021</c:v>
+                  <c:v>24/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>25/6/2021</c:v>
+                  <c:v>25/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2719,7 +2722,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7/9/2020</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2766,7 +2769,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8/9/2020</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2813,7 +2816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/9/2020</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2860,7 +2863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/9/2020</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2907,7 +2910,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11/9/2020</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2954,7 +2957,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14/9/2020</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3001,7 +3004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15/9/2020</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3048,7 +3051,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/9/2020</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3095,7 +3098,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17/9/2020</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3142,7 +3145,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18/9/2020</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3189,7 +3192,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21/9/2020</c:v>
+                  <c:v>21/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3236,7 +3239,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22/9/2020</c:v>
+                  <c:v>22/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3283,7 +3286,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23/9/2020</c:v>
+                  <c:v>23/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3330,7 +3333,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24/9/2020</c:v>
+                  <c:v>24/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3377,7 +3380,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/9/2020</c:v>
+                  <c:v>25/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3424,7 +3427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28/9/2020</c:v>
+                  <c:v>28/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3471,7 +3474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29/9/2020</c:v>
+                  <c:v>29/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3518,7 +3521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30/9/2020</c:v>
+                  <c:v>30/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3565,7 +3568,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1/10/2020</c:v>
+                  <c:v>01/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3612,7 +3615,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2/10/2020</c:v>
+                  <c:v>02/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3659,7 +3662,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5/10/2020</c:v>
+                  <c:v>05/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3706,7 +3709,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6/10/2020</c:v>
+                  <c:v>06/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3753,7 +3756,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7/10/2020</c:v>
+                  <c:v>07/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3800,7 +3803,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8/10/2020</c:v>
+                  <c:v>08/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3847,7 +3850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/10/2020</c:v>
+                  <c:v>09/10/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4552,7 +4555,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2/11/2020</c:v>
+                  <c:v>02/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4599,7 +4602,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3/11/2020</c:v>
+                  <c:v>03/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4646,7 +4649,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4/11/2020</c:v>
+                  <c:v>04/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4693,7 +4696,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5/11/2020</c:v>
+                  <c:v>05/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4740,7 +4743,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6/11/2020</c:v>
+                  <c:v>06/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4787,7 +4790,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/11/2020</c:v>
+                  <c:v>09/11/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5492,7 +5495,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1/12/2020</c:v>
+                  <c:v>01/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5539,7 +5542,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2/12/2020</c:v>
+                  <c:v>02/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5586,7 +5589,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3/12/2020</c:v>
+                  <c:v>03/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5633,7 +5636,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4/12/2020</c:v>
+                  <c:v>04/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5680,7 +5683,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/12/2020</c:v>
+                  <c:v>09/12/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6338,7 +6341,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4/1/2021</c:v>
+                  <c:v>04/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6385,7 +6388,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5/1/2021</c:v>
+                  <c:v>05/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6432,7 +6435,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6/1/2021</c:v>
+                  <c:v>06/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6479,7 +6482,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7/1/2021</c:v>
+                  <c:v>07/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6526,7 +6529,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8/1/2021</c:v>
+                  <c:v>08/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6573,7 +6576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11/1/2021</c:v>
+                  <c:v>11/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6620,7 +6623,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12/1/2021</c:v>
+                  <c:v>12/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6667,7 +6670,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13/1/2021</c:v>
+                  <c:v>13/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6714,7 +6717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14/1/2021</c:v>
+                  <c:v>14/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6761,7 +6764,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15/1/2021</c:v>
+                  <c:v>15/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6808,7 +6811,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18/1/2021</c:v>
+                  <c:v>18/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6855,7 +6858,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19/1/2021</c:v>
+                  <c:v>19/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6902,7 +6905,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20/1/2021</c:v>
+                  <c:v>20/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6949,7 +6952,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21/1/2021</c:v>
+                  <c:v>21/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6996,7 +6999,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22/1/2021</c:v>
+                  <c:v>22/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7043,7 +7046,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/1/2021</c:v>
+                  <c:v>25/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7090,7 +7093,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26/1/2021</c:v>
+                  <c:v>26/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7137,7 +7140,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/1/2021</c:v>
+                  <c:v>27/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7184,7 +7187,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28/1/2021</c:v>
+                  <c:v>28/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7231,7 +7234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29/1/2021</c:v>
+                  <c:v>29/01/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7278,7 +7281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1/2/2021</c:v>
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7325,7 +7328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2/2/2021</c:v>
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7372,7 +7375,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3/2/2021</c:v>
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7419,7 +7422,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4/2/2021</c:v>
+                  <c:v>04/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7466,7 +7469,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5/2/2021</c:v>
+                  <c:v>05/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7513,7 +7516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8/2/2021</c:v>
+                  <c:v>08/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7560,7 +7563,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/2/2021</c:v>
+                  <c:v>09/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7607,7 +7610,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/2/2021</c:v>
+                  <c:v>10/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7654,7 +7657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11/2/2021</c:v>
+                  <c:v>11/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7701,7 +7704,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12/2/2021</c:v>
+                  <c:v>12/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7748,7 +7751,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17/2/2021</c:v>
+                  <c:v>17/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7795,7 +7798,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18/2/2021</c:v>
+                  <c:v>18/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7842,7 +7845,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19/2/2021</c:v>
+                  <c:v>19/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7889,7 +7892,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22/2/2021</c:v>
+                  <c:v>22/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7936,7 +7939,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23/2/2021</c:v>
+                  <c:v>23/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7983,7 +7986,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24/2/2021</c:v>
+                  <c:v>24/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8030,7 +8033,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/2/2021</c:v>
+                  <c:v>25/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8077,7 +8080,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26/2/2021</c:v>
+                  <c:v>26/02/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8124,7 +8127,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8171,7 +8174,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2/3/2021</c:v>
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8218,7 +8221,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3/3/2021</c:v>
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8265,7 +8268,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4/3/2021</c:v>
+                  <c:v>04/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8312,7 +8315,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5/3/2021</c:v>
+                  <c:v>05/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8359,7 +8362,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8/3/2021</c:v>
+                  <c:v>08/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8406,7 +8409,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/3/2021</c:v>
+                  <c:v>09/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8453,7 +8456,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/3/2021</c:v>
+                  <c:v>10/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8500,7 +8503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11/3/2021</c:v>
+                  <c:v>11/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8547,7 +8550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12/3/2021</c:v>
+                  <c:v>12/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8594,7 +8597,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15/3/2021</c:v>
+                  <c:v>15/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8641,7 +8644,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/3/2021</c:v>
+                  <c:v>16/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8688,7 +8691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17/3/2021</c:v>
+                  <c:v>17/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8735,7 +8738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18/3/2021</c:v>
+                  <c:v>18/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8782,7 +8785,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19/3/2021</c:v>
+                  <c:v>19/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8829,7 +8832,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22/3/2021</c:v>
+                  <c:v>22/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8876,7 +8879,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23/3/2021</c:v>
+                  <c:v>23/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8923,7 +8926,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/3/2021</c:v>
+                  <c:v>25/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8970,7 +8973,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26/3/2021</c:v>
+                  <c:v>26/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9017,7 +9020,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29/3/2021</c:v>
+                  <c:v>29/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9064,7 +9067,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30/3/2021</c:v>
+                  <c:v>30/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9111,7 +9114,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/3/2021</c:v>
+                  <c:v>31/03/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9158,7 +9161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5/4/2021</c:v>
+                  <c:v>05/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9205,7 +9208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6/4/2021</c:v>
+                  <c:v>06/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9252,7 +9255,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7/4/2021</c:v>
+                  <c:v>07/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9299,7 +9302,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8/4/2021</c:v>
+                  <c:v>08/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9346,7 +9349,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/4/2021</c:v>
+                  <c:v>09/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9393,7 +9396,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12/4/2021</c:v>
+                  <c:v>12/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9440,7 +9443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13/4/2021</c:v>
+                  <c:v>13/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9487,7 +9490,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14/4/2021</c:v>
+                  <c:v>14/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9534,7 +9537,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15/4/2021</c:v>
+                  <c:v>15/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9581,7 +9584,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/4/2021</c:v>
+                  <c:v>16/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9628,7 +9631,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19/4/2021</c:v>
+                  <c:v>19/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9675,7 +9678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20/4/2021</c:v>
+                  <c:v>20/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9722,7 +9725,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21/4/2021</c:v>
+                  <c:v>21/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9769,7 +9772,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22/4/2021</c:v>
+                  <c:v>22/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9816,7 +9819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23/4/2021</c:v>
+                  <c:v>23/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9863,7 +9866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26/4/2021</c:v>
+                  <c:v>26/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9910,7 +9913,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/4/2021</c:v>
+                  <c:v>27/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9957,7 +9960,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28/4/2021</c:v>
+                  <c:v>28/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10004,7 +10007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29/4/2021</c:v>
+                  <c:v>29/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10051,7 +10054,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30/4/2021</c:v>
+                  <c:v>30/04/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10098,7 +10101,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3/5/2021</c:v>
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10145,7 +10148,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4/5/2021</c:v>
+                  <c:v>04/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10192,7 +10195,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5/5/2021</c:v>
+                  <c:v>05/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10239,7 +10242,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6/5/2021</c:v>
+                  <c:v>06/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10286,7 +10289,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7/5/2021</c:v>
+                  <c:v>07/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10333,7 +10336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/5/2021</c:v>
+                  <c:v>10/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10380,7 +10383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11/5/2021</c:v>
+                  <c:v>11/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10427,7 +10430,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12/5/2021</c:v>
+                  <c:v>12/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10474,7 +10477,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13/5/2021</c:v>
+                  <c:v>13/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10521,7 +10524,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14/5/2021</c:v>
+                  <c:v>14/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10568,7 +10571,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17/5/2021</c:v>
+                  <c:v>17/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10615,7 +10618,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18/5/2021</c:v>
+                  <c:v>18/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10662,7 +10665,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19/5/2021</c:v>
+                  <c:v>19/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10709,7 +10712,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20/5/2021</c:v>
+                  <c:v>20/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10756,7 +10759,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21/5/2021</c:v>
+                  <c:v>21/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10803,7 +10806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26/5/2021</c:v>
+                  <c:v>26/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10850,7 +10853,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/5/2021</c:v>
+                  <c:v>27/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10897,7 +10900,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28/5/2021</c:v>
+                  <c:v>28/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10944,7 +10947,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/5/2021</c:v>
+                  <c:v>31/05/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10991,7 +10994,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1/6/2021</c:v>
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11038,7 +11041,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2/6/2021</c:v>
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11085,7 +11088,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3/6/2021</c:v>
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11132,7 +11135,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4/6/2021</c:v>
+                  <c:v>04/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11179,7 +11182,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7/6/2021</c:v>
+                  <c:v>07/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11226,7 +11229,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8/6/2021</c:v>
+                  <c:v>08/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11273,7 +11276,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/6/2021</c:v>
+                  <c:v>09/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11320,7 +11323,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/6/2021</c:v>
+                  <c:v>10/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11367,7 +11370,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11/6/2021</c:v>
+                  <c:v>11/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11604,79 +11607,79 @@
               <c:strCache>
                 <c:ptCount val="194"/>
                 <c:pt idx="0">
-                  <c:v>7/9/2020</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8/9/2020</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9/9/2020</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10/9/2020</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11/9/2020</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14/9/2020</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15/9/2020</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16/9/2020</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17/9/2020</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18/9/2020</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21/9/2020</c:v>
+                  <c:v>21/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22/9/2020</c:v>
+                  <c:v>22/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23/9/2020</c:v>
+                  <c:v>23/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24/9/2020</c:v>
+                  <c:v>24/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25/9/2020</c:v>
+                  <c:v>25/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28/9/2020</c:v>
+                  <c:v>28/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29/9/2020</c:v>
+                  <c:v>29/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30/9/2020</c:v>
+                  <c:v>30/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1/10/2020</c:v>
+                  <c:v>01/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/10/2020</c:v>
+                  <c:v>02/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5/10/2020</c:v>
+                  <c:v>05/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6/10/2020</c:v>
+                  <c:v>06/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7/10/2020</c:v>
+                  <c:v>07/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8/10/2020</c:v>
+                  <c:v>08/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9/10/2020</c:v>
+                  <c:v>09/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13/10/2020</c:v>
@@ -11721,22 +11724,22 @@
                   <c:v>30/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2/11/2020</c:v>
+                  <c:v>02/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3/11/2020</c:v>
+                  <c:v>03/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4/11/2020</c:v>
+                  <c:v>04/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5/11/2020</c:v>
+                  <c:v>05/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6/11/2020</c:v>
+                  <c:v>06/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9/11/2020</c:v>
+                  <c:v>09/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10/11/2020</c:v>
@@ -11781,19 +11784,19 @@
                   <c:v>30/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1/12/2020</c:v>
+                  <c:v>01/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2/12/2020</c:v>
+                  <c:v>02/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3/12/2020</c:v>
+                  <c:v>03/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4/12/2020</c:v>
+                  <c:v>04/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9/12/2020</c:v>
+                  <c:v>09/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>10/12/2020</c:v>
@@ -11835,355 +11838,355 @@
                   <c:v>30/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4/1/2021</c:v>
+                  <c:v>04/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5/1/2021</c:v>
+                  <c:v>05/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6/1/2021</c:v>
+                  <c:v>06/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7/1/2021</c:v>
+                  <c:v>07/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8/1/2021</c:v>
+                  <c:v>08/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11/1/2021</c:v>
+                  <c:v>11/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12/1/2021</c:v>
+                  <c:v>12/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13/1/2021</c:v>
+                  <c:v>13/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14/1/2021</c:v>
+                  <c:v>14/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15/1/2021</c:v>
+                  <c:v>15/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18/1/2021</c:v>
+                  <c:v>18/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19/1/2021</c:v>
+                  <c:v>19/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20/1/2021</c:v>
+                  <c:v>20/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21/1/2021</c:v>
+                  <c:v>21/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22/1/2021</c:v>
+                  <c:v>22/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25/1/2021</c:v>
+                  <c:v>25/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26/1/2021</c:v>
+                  <c:v>26/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27/1/2021</c:v>
+                  <c:v>27/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28/1/2021</c:v>
+                  <c:v>28/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29/1/2021</c:v>
+                  <c:v>29/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1/2/2021</c:v>
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2/2/2021</c:v>
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3/2/2021</c:v>
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4/2/2021</c:v>
+                  <c:v>04/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5/2/2021</c:v>
+                  <c:v>05/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8/2/2021</c:v>
+                  <c:v>08/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9/2/2021</c:v>
+                  <c:v>09/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10/2/2021</c:v>
+                  <c:v>10/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2/2021</c:v>
+                  <c:v>11/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12/2/2021</c:v>
+                  <c:v>12/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17/2/2021</c:v>
+                  <c:v>17/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18/2/2021</c:v>
+                  <c:v>18/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19/2/2021</c:v>
+                  <c:v>19/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22/2/2021</c:v>
+                  <c:v>22/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>23/2/2021</c:v>
+                  <c:v>23/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>24/2/2021</c:v>
+                  <c:v>24/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>25/2/2021</c:v>
+                  <c:v>25/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>26/2/2021</c:v>
+                  <c:v>26/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2/3/2021</c:v>
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3/3/2021</c:v>
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4/3/2021</c:v>
+                  <c:v>04/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5/3/2021</c:v>
+                  <c:v>05/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8/3/2021</c:v>
+                  <c:v>08/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9/3/2021</c:v>
+                  <c:v>09/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>10/3/2021</c:v>
+                  <c:v>10/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11/3/2021</c:v>
+                  <c:v>11/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12/3/2021</c:v>
+                  <c:v>12/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15/3/2021</c:v>
+                  <c:v>15/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16/3/2021</c:v>
+                  <c:v>16/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>17/3/2021</c:v>
+                  <c:v>17/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18/3/2021</c:v>
+                  <c:v>18/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19/3/2021</c:v>
+                  <c:v>19/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22/3/2021</c:v>
+                  <c:v>22/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23/3/2021</c:v>
+                  <c:v>23/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>25/3/2021</c:v>
+                  <c:v>25/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>26/3/2021</c:v>
+                  <c:v>26/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>29/3/2021</c:v>
+                  <c:v>29/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>30/3/2021</c:v>
+                  <c:v>30/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31/3/2021</c:v>
+                  <c:v>31/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5/4/2021</c:v>
+                  <c:v>05/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6/4/2021</c:v>
+                  <c:v>06/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7/4/2021</c:v>
+                  <c:v>07/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8/4/2021</c:v>
+                  <c:v>08/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9/4/2021</c:v>
+                  <c:v>09/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12/4/2021</c:v>
+                  <c:v>12/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>13/4/2021</c:v>
+                  <c:v>13/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14/4/2021</c:v>
+                  <c:v>14/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15/4/2021</c:v>
+                  <c:v>15/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16/4/2021</c:v>
+                  <c:v>16/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>19/4/2021</c:v>
+                  <c:v>19/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>20/4/2021</c:v>
+                  <c:v>20/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21/4/2021</c:v>
+                  <c:v>21/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>22/4/2021</c:v>
+                  <c:v>22/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>23/4/2021</c:v>
+                  <c:v>23/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>26/4/2021</c:v>
+                  <c:v>26/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27/4/2021</c:v>
+                  <c:v>27/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>28/4/2021</c:v>
+                  <c:v>28/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>29/4/2021</c:v>
+                  <c:v>29/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>30/4/2021</c:v>
+                  <c:v>30/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3/5/2021</c:v>
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4/5/2021</c:v>
+                  <c:v>04/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5/5/2021</c:v>
+                  <c:v>05/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6/5/2021</c:v>
+                  <c:v>06/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7/5/2021</c:v>
+                  <c:v>07/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10/5/2021</c:v>
+                  <c:v>10/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11/5/2021</c:v>
+                  <c:v>11/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12/5/2021</c:v>
+                  <c:v>12/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13/5/2021</c:v>
+                  <c:v>13/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>14/5/2021</c:v>
+                  <c:v>14/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>17/5/2021</c:v>
+                  <c:v>17/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>18/5/2021</c:v>
+                  <c:v>18/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>19/5/2021</c:v>
+                  <c:v>19/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>20/5/2021</c:v>
+                  <c:v>20/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21/5/2021</c:v>
+                  <c:v>21/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26/5/2021</c:v>
+                  <c:v>26/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27/5/2021</c:v>
+                  <c:v>27/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>28/5/2021</c:v>
+                  <c:v>28/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>31/5/2021</c:v>
+                  <c:v>31/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1/6/2021</c:v>
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2/6/2021</c:v>
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3/6/2021</c:v>
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4/6/2021</c:v>
+                  <c:v>04/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7/6/2021</c:v>
+                  <c:v>07/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8/6/2021</c:v>
+                  <c:v>08/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>9/6/2021</c:v>
+                  <c:v>09/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10/6/2021</c:v>
+                  <c:v>10/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11/6/2021</c:v>
+                  <c:v>11/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>14/6/2021</c:v>
+                  <c:v>14/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>15/6/2021</c:v>
+                  <c:v>15/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>16/6/2021</c:v>
+                  <c:v>16/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>17/6/2021</c:v>
+                  <c:v>17/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>18/6/2021</c:v>
+                  <c:v>18/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>22/6/2021</c:v>
+                  <c:v>22/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>23/6/2021</c:v>
+                  <c:v>23/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>24/6/2021</c:v>
+                  <c:v>24/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>25/6/2021</c:v>
+                  <c:v>25/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12937,79 +12940,79 @@
               <c:strCache>
                 <c:ptCount val="190"/>
                 <c:pt idx="0">
-                  <c:v>7/9/2020</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8/9/2020</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9/9/2020</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10/9/2020</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11/9/2020</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14/9/2020</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15/9/2020</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16/9/2020</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17/9/2020</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18/9/2020</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21/9/2020</c:v>
+                  <c:v>21/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22/9/2020</c:v>
+                  <c:v>22/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23/9/2020</c:v>
+                  <c:v>23/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24/9/2020</c:v>
+                  <c:v>24/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25/9/2020</c:v>
+                  <c:v>25/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28/9/2020</c:v>
+                  <c:v>28/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29/9/2020</c:v>
+                  <c:v>29/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30/9/2020</c:v>
+                  <c:v>30/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1/10/2020</c:v>
+                  <c:v>01/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/10/2020</c:v>
+                  <c:v>02/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5/10/2020</c:v>
+                  <c:v>05/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6/10/2020</c:v>
+                  <c:v>06/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7/10/2020</c:v>
+                  <c:v>07/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8/10/2020</c:v>
+                  <c:v>08/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9/10/2020</c:v>
+                  <c:v>09/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13/10/2020</c:v>
@@ -13054,22 +13057,22 @@
                   <c:v>30/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2/11/2020</c:v>
+                  <c:v>02/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3/11/2020</c:v>
+                  <c:v>03/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4/11/2020</c:v>
+                  <c:v>04/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5/11/2020</c:v>
+                  <c:v>05/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6/11/2020</c:v>
+                  <c:v>06/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9/11/2020</c:v>
+                  <c:v>09/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10/11/2020</c:v>
@@ -13114,19 +13117,19 @@
                   <c:v>30/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1/12/2020</c:v>
+                  <c:v>01/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2/12/2020</c:v>
+                  <c:v>02/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3/12/2020</c:v>
+                  <c:v>03/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4/12/2020</c:v>
+                  <c:v>04/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9/12/2020</c:v>
+                  <c:v>09/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>10/12/2020</c:v>
@@ -13168,343 +13171,343 @@
                   <c:v>30/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4/1/2021</c:v>
+                  <c:v>04/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5/1/2021</c:v>
+                  <c:v>05/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6/1/2021</c:v>
+                  <c:v>06/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7/1/2021</c:v>
+                  <c:v>07/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8/1/2021</c:v>
+                  <c:v>08/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11/1/2021</c:v>
+                  <c:v>11/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12/1/2021</c:v>
+                  <c:v>12/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13/1/2021</c:v>
+                  <c:v>13/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14/1/2021</c:v>
+                  <c:v>14/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15/1/2021</c:v>
+                  <c:v>15/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18/1/2021</c:v>
+                  <c:v>18/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19/1/2021</c:v>
+                  <c:v>19/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20/1/2021</c:v>
+                  <c:v>20/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21/1/2021</c:v>
+                  <c:v>21/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22/1/2021</c:v>
+                  <c:v>22/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25/1/2021</c:v>
+                  <c:v>25/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26/1/2021</c:v>
+                  <c:v>26/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27/1/2021</c:v>
+                  <c:v>27/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28/1/2021</c:v>
+                  <c:v>28/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29/1/2021</c:v>
+                  <c:v>29/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1/2/2021</c:v>
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2/2/2021</c:v>
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3/2/2021</c:v>
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4/2/2021</c:v>
+                  <c:v>04/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5/2/2021</c:v>
+                  <c:v>05/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8/2/2021</c:v>
+                  <c:v>08/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9/2/2021</c:v>
+                  <c:v>09/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10/2/2021</c:v>
+                  <c:v>10/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2/2021</c:v>
+                  <c:v>11/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12/2/2021</c:v>
+                  <c:v>12/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17/2/2021</c:v>
+                  <c:v>17/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18/2/2021</c:v>
+                  <c:v>18/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19/2/2021</c:v>
+                  <c:v>19/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22/2/2021</c:v>
+                  <c:v>22/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>23/2/2021</c:v>
+                  <c:v>23/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>24/2/2021</c:v>
+                  <c:v>24/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>25/2/2021</c:v>
+                  <c:v>25/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>26/2/2021</c:v>
+                  <c:v>26/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2/3/2021</c:v>
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3/3/2021</c:v>
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4/3/2021</c:v>
+                  <c:v>04/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5/3/2021</c:v>
+                  <c:v>05/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8/3/2021</c:v>
+                  <c:v>08/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9/3/2021</c:v>
+                  <c:v>09/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>10/3/2021</c:v>
+                  <c:v>10/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11/3/2021</c:v>
+                  <c:v>11/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12/3/2021</c:v>
+                  <c:v>12/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15/3/2021</c:v>
+                  <c:v>15/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16/3/2021</c:v>
+                  <c:v>16/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>17/3/2021</c:v>
+                  <c:v>17/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18/3/2021</c:v>
+                  <c:v>18/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19/3/2021</c:v>
+                  <c:v>19/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22/3/2021</c:v>
+                  <c:v>22/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23/3/2021</c:v>
+                  <c:v>23/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>25/3/2021</c:v>
+                  <c:v>25/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>26/3/2021</c:v>
+                  <c:v>26/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>29/3/2021</c:v>
+                  <c:v>29/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>30/3/2021</c:v>
+                  <c:v>30/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31/3/2021</c:v>
+                  <c:v>31/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5/4/2021</c:v>
+                  <c:v>05/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6/4/2021</c:v>
+                  <c:v>06/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7/4/2021</c:v>
+                  <c:v>07/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8/4/2021</c:v>
+                  <c:v>08/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9/4/2021</c:v>
+                  <c:v>09/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12/4/2021</c:v>
+                  <c:v>12/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>13/4/2021</c:v>
+                  <c:v>13/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14/4/2021</c:v>
+                  <c:v>14/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15/4/2021</c:v>
+                  <c:v>15/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16/4/2021</c:v>
+                  <c:v>16/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>19/4/2021</c:v>
+                  <c:v>19/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>20/4/2021</c:v>
+                  <c:v>20/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21/4/2021</c:v>
+                  <c:v>21/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>22/4/2021</c:v>
+                  <c:v>22/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>23/4/2021</c:v>
+                  <c:v>23/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>26/4/2021</c:v>
+                  <c:v>26/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27/4/2021</c:v>
+                  <c:v>27/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>28/4/2021</c:v>
+                  <c:v>28/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>29/4/2021</c:v>
+                  <c:v>29/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>30/4/2021</c:v>
+                  <c:v>30/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3/5/2021</c:v>
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4/5/2021</c:v>
+                  <c:v>04/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5/5/2021</c:v>
+                  <c:v>05/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6/5/2021</c:v>
+                  <c:v>06/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7/5/2021</c:v>
+                  <c:v>07/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10/5/2021</c:v>
+                  <c:v>10/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11/5/2021</c:v>
+                  <c:v>11/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12/5/2021</c:v>
+                  <c:v>12/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13/5/2021</c:v>
+                  <c:v>13/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>14/5/2021</c:v>
+                  <c:v>14/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>17/5/2021</c:v>
+                  <c:v>17/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>18/5/2021</c:v>
+                  <c:v>18/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>19/5/2021</c:v>
+                  <c:v>19/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>20/5/2021</c:v>
+                  <c:v>20/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21/5/2021</c:v>
+                  <c:v>21/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26/5/2021</c:v>
+                  <c:v>26/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27/5/2021</c:v>
+                  <c:v>27/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>28/5/2021</c:v>
+                  <c:v>28/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>31/5/2021</c:v>
+                  <c:v>31/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1/6/2021</c:v>
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2/6/2021</c:v>
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3/6/2021</c:v>
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4/6/2021</c:v>
+                  <c:v>04/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7/6/2021</c:v>
+                  <c:v>07/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8/6/2021</c:v>
+                  <c:v>08/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>9/6/2021</c:v>
+                  <c:v>09/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10/6/2021</c:v>
+                  <c:v>10/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11/6/2021</c:v>
+                  <c:v>11/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>14/6/2021</c:v>
+                  <c:v>14/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>15/6/2021</c:v>
+                  <c:v>15/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>16/6/2021</c:v>
+                  <c:v>16/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>17/6/2021</c:v>
+                  <c:v>17/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>18/6/2021</c:v>
+                  <c:v>18/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14227,79 +14230,79 @@
               <c:strCache>
                 <c:ptCount val="190"/>
                 <c:pt idx="0">
-                  <c:v>7/9/2020</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8/9/2020</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9/9/2020</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10/9/2020</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11/9/2020</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14/9/2020</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15/9/2020</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16/9/2020</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17/9/2020</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18/9/2020</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21/9/2020</c:v>
+                  <c:v>21/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22/9/2020</c:v>
+                  <c:v>22/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23/9/2020</c:v>
+                  <c:v>23/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24/9/2020</c:v>
+                  <c:v>24/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25/9/2020</c:v>
+                  <c:v>25/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28/9/2020</c:v>
+                  <c:v>28/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29/9/2020</c:v>
+                  <c:v>29/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30/9/2020</c:v>
+                  <c:v>30/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1/10/2020</c:v>
+                  <c:v>01/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/10/2020</c:v>
+                  <c:v>02/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5/10/2020</c:v>
+                  <c:v>05/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6/10/2020</c:v>
+                  <c:v>06/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7/10/2020</c:v>
+                  <c:v>07/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8/10/2020</c:v>
+                  <c:v>08/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9/10/2020</c:v>
+                  <c:v>09/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13/10/2020</c:v>
@@ -14344,22 +14347,22 @@
                   <c:v>30/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2/11/2020</c:v>
+                  <c:v>02/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3/11/2020</c:v>
+                  <c:v>03/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4/11/2020</c:v>
+                  <c:v>04/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5/11/2020</c:v>
+                  <c:v>05/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6/11/2020</c:v>
+                  <c:v>06/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9/11/2020</c:v>
+                  <c:v>09/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10/11/2020</c:v>
@@ -14404,19 +14407,19 @@
                   <c:v>30/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1/12/2020</c:v>
+                  <c:v>01/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2/12/2020</c:v>
+                  <c:v>02/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3/12/2020</c:v>
+                  <c:v>03/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4/12/2020</c:v>
+                  <c:v>04/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9/12/2020</c:v>
+                  <c:v>09/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>10/12/2020</c:v>
@@ -14458,343 +14461,343 @@
                   <c:v>30/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4/1/2021</c:v>
+                  <c:v>04/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5/1/2021</c:v>
+                  <c:v>05/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6/1/2021</c:v>
+                  <c:v>06/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7/1/2021</c:v>
+                  <c:v>07/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8/1/2021</c:v>
+                  <c:v>08/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11/1/2021</c:v>
+                  <c:v>11/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12/1/2021</c:v>
+                  <c:v>12/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13/1/2021</c:v>
+                  <c:v>13/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14/1/2021</c:v>
+                  <c:v>14/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15/1/2021</c:v>
+                  <c:v>15/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18/1/2021</c:v>
+                  <c:v>18/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19/1/2021</c:v>
+                  <c:v>19/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20/1/2021</c:v>
+                  <c:v>20/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21/1/2021</c:v>
+                  <c:v>21/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22/1/2021</c:v>
+                  <c:v>22/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25/1/2021</c:v>
+                  <c:v>25/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26/1/2021</c:v>
+                  <c:v>26/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27/1/2021</c:v>
+                  <c:v>27/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28/1/2021</c:v>
+                  <c:v>28/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29/1/2021</c:v>
+                  <c:v>29/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1/2/2021</c:v>
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2/2/2021</c:v>
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3/2/2021</c:v>
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4/2/2021</c:v>
+                  <c:v>04/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5/2/2021</c:v>
+                  <c:v>05/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8/2/2021</c:v>
+                  <c:v>08/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9/2/2021</c:v>
+                  <c:v>09/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10/2/2021</c:v>
+                  <c:v>10/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2/2021</c:v>
+                  <c:v>11/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12/2/2021</c:v>
+                  <c:v>12/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17/2/2021</c:v>
+                  <c:v>17/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18/2/2021</c:v>
+                  <c:v>18/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19/2/2021</c:v>
+                  <c:v>19/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22/2/2021</c:v>
+                  <c:v>22/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>23/2/2021</c:v>
+                  <c:v>23/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>24/2/2021</c:v>
+                  <c:v>24/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>25/2/2021</c:v>
+                  <c:v>25/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>26/2/2021</c:v>
+                  <c:v>26/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2/3/2021</c:v>
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3/3/2021</c:v>
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4/3/2021</c:v>
+                  <c:v>04/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5/3/2021</c:v>
+                  <c:v>05/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8/3/2021</c:v>
+                  <c:v>08/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9/3/2021</c:v>
+                  <c:v>09/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>10/3/2021</c:v>
+                  <c:v>10/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11/3/2021</c:v>
+                  <c:v>11/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12/3/2021</c:v>
+                  <c:v>12/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15/3/2021</c:v>
+                  <c:v>15/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16/3/2021</c:v>
+                  <c:v>16/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>17/3/2021</c:v>
+                  <c:v>17/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18/3/2021</c:v>
+                  <c:v>18/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19/3/2021</c:v>
+                  <c:v>19/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22/3/2021</c:v>
+                  <c:v>22/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23/3/2021</c:v>
+                  <c:v>23/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>25/3/2021</c:v>
+                  <c:v>25/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>26/3/2021</c:v>
+                  <c:v>26/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>29/3/2021</c:v>
+                  <c:v>29/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>30/3/2021</c:v>
+                  <c:v>30/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31/3/2021</c:v>
+                  <c:v>31/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5/4/2021</c:v>
+                  <c:v>05/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6/4/2021</c:v>
+                  <c:v>06/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7/4/2021</c:v>
+                  <c:v>07/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8/4/2021</c:v>
+                  <c:v>08/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9/4/2021</c:v>
+                  <c:v>09/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12/4/2021</c:v>
+                  <c:v>12/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>13/4/2021</c:v>
+                  <c:v>13/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14/4/2021</c:v>
+                  <c:v>14/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15/4/2021</c:v>
+                  <c:v>15/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16/4/2021</c:v>
+                  <c:v>16/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>19/4/2021</c:v>
+                  <c:v>19/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>20/4/2021</c:v>
+                  <c:v>20/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21/4/2021</c:v>
+                  <c:v>21/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>22/4/2021</c:v>
+                  <c:v>22/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>23/4/2021</c:v>
+                  <c:v>23/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>26/4/2021</c:v>
+                  <c:v>26/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27/4/2021</c:v>
+                  <c:v>27/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>28/4/2021</c:v>
+                  <c:v>28/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>29/4/2021</c:v>
+                  <c:v>29/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>30/4/2021</c:v>
+                  <c:v>30/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3/5/2021</c:v>
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4/5/2021</c:v>
+                  <c:v>04/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5/5/2021</c:v>
+                  <c:v>05/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6/5/2021</c:v>
+                  <c:v>06/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7/5/2021</c:v>
+                  <c:v>07/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10/5/2021</c:v>
+                  <c:v>10/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11/5/2021</c:v>
+                  <c:v>11/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12/5/2021</c:v>
+                  <c:v>12/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13/5/2021</c:v>
+                  <c:v>13/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>14/5/2021</c:v>
+                  <c:v>14/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>17/5/2021</c:v>
+                  <c:v>17/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>18/5/2021</c:v>
+                  <c:v>18/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>19/5/2021</c:v>
+                  <c:v>19/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>20/5/2021</c:v>
+                  <c:v>20/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21/5/2021</c:v>
+                  <c:v>21/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26/5/2021</c:v>
+                  <c:v>26/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27/5/2021</c:v>
+                  <c:v>27/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>28/5/2021</c:v>
+                  <c:v>28/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>31/5/2021</c:v>
+                  <c:v>31/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1/6/2021</c:v>
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2/6/2021</c:v>
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3/6/2021</c:v>
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4/6/2021</c:v>
+                  <c:v>04/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7/6/2021</c:v>
+                  <c:v>07/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8/6/2021</c:v>
+                  <c:v>08/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>9/6/2021</c:v>
+                  <c:v>09/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10/6/2021</c:v>
+                  <c:v>10/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11/6/2021</c:v>
+                  <c:v>11/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>14/6/2021</c:v>
+                  <c:v>14/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>15/6/2021</c:v>
+                  <c:v>15/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>16/6/2021</c:v>
+                  <c:v>16/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>17/6/2021</c:v>
+                  <c:v>17/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>18/6/2021</c:v>
+                  <c:v>18/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15511,79 +15514,79 @@
               <c:strCache>
                 <c:ptCount val="216"/>
                 <c:pt idx="0">
-                  <c:v>7/9/2020</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8/9/2020</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9/9/2020</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10/9/2020</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11/9/2020</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14/9/2020</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15/9/2020</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16/9/2020</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17/9/2020</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18/9/2020</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21/9/2020</c:v>
+                  <c:v>21/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22/9/2020</c:v>
+                  <c:v>22/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23/9/2020</c:v>
+                  <c:v>23/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24/9/2020</c:v>
+                  <c:v>24/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25/9/2020</c:v>
+                  <c:v>25/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28/9/2020</c:v>
+                  <c:v>28/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29/9/2020</c:v>
+                  <c:v>29/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30/9/2020</c:v>
+                  <c:v>30/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1/10/2020</c:v>
+                  <c:v>01/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/10/2020</c:v>
+                  <c:v>02/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5/10/2020</c:v>
+                  <c:v>05/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6/10/2020</c:v>
+                  <c:v>06/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7/10/2020</c:v>
+                  <c:v>07/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8/10/2020</c:v>
+                  <c:v>08/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9/10/2020</c:v>
+                  <c:v>09/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13/10/2020</c:v>
@@ -15628,22 +15631,22 @@
                   <c:v>30/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2/11/2020</c:v>
+                  <c:v>02/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3/11/2020</c:v>
+                  <c:v>03/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4/11/2020</c:v>
+                  <c:v>04/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5/11/2020</c:v>
+                  <c:v>05/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6/11/2020</c:v>
+                  <c:v>06/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9/11/2020</c:v>
+                  <c:v>09/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10/11/2020</c:v>
@@ -15688,19 +15691,19 @@
                   <c:v>30/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1/12/2020</c:v>
+                  <c:v>01/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2/12/2020</c:v>
+                  <c:v>02/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3/12/2020</c:v>
+                  <c:v>03/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4/12/2020</c:v>
+                  <c:v>04/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9/12/2020</c:v>
+                  <c:v>09/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>10/12/2020</c:v>
@@ -15742,421 +15745,421 @@
                   <c:v>30/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4/1/2021</c:v>
+                  <c:v>04/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5/1/2021</c:v>
+                  <c:v>05/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6/1/2021</c:v>
+                  <c:v>06/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7/1/2021</c:v>
+                  <c:v>07/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8/1/2021</c:v>
+                  <c:v>08/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11/1/2021</c:v>
+                  <c:v>11/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12/1/2021</c:v>
+                  <c:v>12/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13/1/2021</c:v>
+                  <c:v>13/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14/1/2021</c:v>
+                  <c:v>14/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15/1/2021</c:v>
+                  <c:v>15/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18/1/2021</c:v>
+                  <c:v>18/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19/1/2021</c:v>
+                  <c:v>19/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20/1/2021</c:v>
+                  <c:v>20/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21/1/2021</c:v>
+                  <c:v>21/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22/1/2021</c:v>
+                  <c:v>22/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25/1/2021</c:v>
+                  <c:v>25/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26/1/2021</c:v>
+                  <c:v>26/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27/1/2021</c:v>
+                  <c:v>27/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28/1/2021</c:v>
+                  <c:v>28/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29/1/2021</c:v>
+                  <c:v>29/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1/2/2021</c:v>
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2/2/2021</c:v>
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3/2/2021</c:v>
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4/2/2021</c:v>
+                  <c:v>04/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5/2/2021</c:v>
+                  <c:v>05/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8/2/2021</c:v>
+                  <c:v>08/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9/2/2021</c:v>
+                  <c:v>09/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10/2/2021</c:v>
+                  <c:v>10/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2/2021</c:v>
+                  <c:v>11/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12/2/2021</c:v>
+                  <c:v>12/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17/2/2021</c:v>
+                  <c:v>17/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18/2/2021</c:v>
+                  <c:v>18/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19/2/2021</c:v>
+                  <c:v>19/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22/2/2021</c:v>
+                  <c:v>22/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>23/2/2021</c:v>
+                  <c:v>23/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>24/2/2021</c:v>
+                  <c:v>24/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>25/2/2021</c:v>
+                  <c:v>25/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>26/2/2021</c:v>
+                  <c:v>26/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2/3/2021</c:v>
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3/3/2021</c:v>
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4/3/2021</c:v>
+                  <c:v>04/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5/3/2021</c:v>
+                  <c:v>05/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8/3/2021</c:v>
+                  <c:v>08/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9/3/2021</c:v>
+                  <c:v>09/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>10/3/2021</c:v>
+                  <c:v>10/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11/3/2021</c:v>
+                  <c:v>11/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12/3/2021</c:v>
+                  <c:v>12/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15/3/2021</c:v>
+                  <c:v>15/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16/3/2021</c:v>
+                  <c:v>16/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>17/3/2021</c:v>
+                  <c:v>17/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18/3/2021</c:v>
+                  <c:v>18/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19/3/2021</c:v>
+                  <c:v>19/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22/3/2021</c:v>
+                  <c:v>22/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23/3/2021</c:v>
+                  <c:v>23/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>25/3/2021</c:v>
+                  <c:v>25/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>26/3/2021</c:v>
+                  <c:v>26/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>29/3/2021</c:v>
+                  <c:v>29/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>30/3/2021</c:v>
+                  <c:v>30/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31/3/2021</c:v>
+                  <c:v>31/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5/4/2021</c:v>
+                  <c:v>05/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6/4/2021</c:v>
+                  <c:v>06/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7/4/2021</c:v>
+                  <c:v>07/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8/4/2021</c:v>
+                  <c:v>08/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9/4/2021</c:v>
+                  <c:v>09/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12/4/2021</c:v>
+                  <c:v>12/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>13/4/2021</c:v>
+                  <c:v>13/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14/4/2021</c:v>
+                  <c:v>14/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15/4/2021</c:v>
+                  <c:v>15/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16/4/2021</c:v>
+                  <c:v>16/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>19/4/2021</c:v>
+                  <c:v>19/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>20/4/2021</c:v>
+                  <c:v>20/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21/4/2021</c:v>
+                  <c:v>21/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>22/4/2021</c:v>
+                  <c:v>22/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>23/4/2021</c:v>
+                  <c:v>23/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>26/4/2021</c:v>
+                  <c:v>26/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27/4/2021</c:v>
+                  <c:v>27/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>28/4/2021</c:v>
+                  <c:v>28/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>29/4/2021</c:v>
+                  <c:v>29/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>30/4/2021</c:v>
+                  <c:v>30/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3/5/2021</c:v>
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4/5/2021</c:v>
+                  <c:v>04/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5/5/2021</c:v>
+                  <c:v>05/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6/5/2021</c:v>
+                  <c:v>06/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7/5/2021</c:v>
+                  <c:v>07/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10/5/2021</c:v>
+                  <c:v>10/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11/5/2021</c:v>
+                  <c:v>11/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12/5/2021</c:v>
+                  <c:v>12/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13/5/2021</c:v>
+                  <c:v>13/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>14/5/2021</c:v>
+                  <c:v>14/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>17/5/2021</c:v>
+                  <c:v>17/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>18/5/2021</c:v>
+                  <c:v>18/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>19/5/2021</c:v>
+                  <c:v>19/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>20/5/2021</c:v>
+                  <c:v>20/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21/5/2021</c:v>
+                  <c:v>21/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26/5/2021</c:v>
+                  <c:v>26/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27/5/2021</c:v>
+                  <c:v>27/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>28/5/2021</c:v>
+                  <c:v>28/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>31/5/2021</c:v>
+                  <c:v>31/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1/6/2021</c:v>
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2/6/2021</c:v>
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3/6/2021</c:v>
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4/6/2021</c:v>
+                  <c:v>04/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5/6/2021</c:v>
+                  <c:v>05/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>6/6/2021</c:v>
+                  <c:v>06/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>7/6/2021</c:v>
+                  <c:v>07/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>8/6/2021</c:v>
+                  <c:v>08/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>9/6/2021</c:v>
+                  <c:v>09/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>10/6/2021</c:v>
+                  <c:v>10/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>11/6/2021</c:v>
+                  <c:v>11/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>14/6/2021</c:v>
+                  <c:v>14/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>15/6/2021</c:v>
+                  <c:v>15/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>16/6/2021</c:v>
+                  <c:v>16/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>17/6/2021</c:v>
+                  <c:v>17/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>18/6/2021</c:v>
+                  <c:v>18/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>22/6/2021</c:v>
+                  <c:v>22/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>23/6/2021</c:v>
+                  <c:v>23/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>24/6/2021</c:v>
+                  <c:v>24/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>25/6/2021</c:v>
+                  <c:v>25/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>28/6/2021</c:v>
+                  <c:v>28/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>29/6/2021</c:v>
+                  <c:v>29/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>30/6/2021</c:v>
+                  <c:v>30/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1/7/2021</c:v>
+                  <c:v>01/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2/7/2021</c:v>
+                  <c:v>02/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>12/7/2021</c:v>
+                  <c:v>12/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>13/7/2021</c:v>
+                  <c:v>13/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>14/7/2021</c:v>
+                  <c:v>14/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>15/7/2021</c:v>
+                  <c:v>15/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>16/7/2021</c:v>
+                  <c:v>16/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>19/7/2021</c:v>
+                  <c:v>19/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>20/7/2021</c:v>
+                  <c:v>20/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>21/7/2021</c:v>
+                  <c:v>21/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>22/7/2021</c:v>
+                  <c:v>22/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>23/7/2021</c:v>
+                  <c:v>23/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>26/7/2021</c:v>
+                  <c:v>26/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>27/7/2021</c:v>
+                  <c:v>27/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>28/7/2021</c:v>
+                  <c:v>28/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>29/7/2021</c:v>
+                  <c:v>29/07/2021</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>30/7/2021</c:v>
+                  <c:v>30/07/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16963,79 +16966,79 @@
               <c:strCache>
                 <c:ptCount val="194"/>
                 <c:pt idx="0">
-                  <c:v>7/9/2020</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8/9/2020</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9/9/2020</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10/9/2020</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11/9/2020</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14/9/2020</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15/9/2020</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16/9/2020</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17/9/2020</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18/9/2020</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21/9/2020</c:v>
+                  <c:v>21/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22/9/2020</c:v>
+                  <c:v>22/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23/9/2020</c:v>
+                  <c:v>23/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24/9/2020</c:v>
+                  <c:v>24/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25/9/2020</c:v>
+                  <c:v>25/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28/9/2020</c:v>
+                  <c:v>28/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29/9/2020</c:v>
+                  <c:v>29/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30/9/2020</c:v>
+                  <c:v>30/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1/10/2020</c:v>
+                  <c:v>01/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/10/2020</c:v>
+                  <c:v>02/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5/10/2020</c:v>
+                  <c:v>05/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6/10/2020</c:v>
+                  <c:v>06/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7/10/2020</c:v>
+                  <c:v>07/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8/10/2020</c:v>
+                  <c:v>08/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9/10/2020</c:v>
+                  <c:v>09/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13/10/2020</c:v>
@@ -17080,22 +17083,22 @@
                   <c:v>30/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2/11/2020</c:v>
+                  <c:v>02/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3/11/2020</c:v>
+                  <c:v>03/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4/11/2020</c:v>
+                  <c:v>04/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5/11/2020</c:v>
+                  <c:v>05/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6/11/2020</c:v>
+                  <c:v>06/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9/11/2020</c:v>
+                  <c:v>09/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10/11/2020</c:v>
@@ -17140,19 +17143,19 @@
                   <c:v>30/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1/12/2020</c:v>
+                  <c:v>01/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2/12/2020</c:v>
+                  <c:v>02/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3/12/2020</c:v>
+                  <c:v>03/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4/12/2020</c:v>
+                  <c:v>04/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9/12/2020</c:v>
+                  <c:v>09/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>10/12/2020</c:v>
@@ -17194,355 +17197,355 @@
                   <c:v>30/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4/1/2021</c:v>
+                  <c:v>04/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5/1/2021</c:v>
+                  <c:v>05/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6/1/2021</c:v>
+                  <c:v>06/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7/1/2021</c:v>
+                  <c:v>07/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8/1/2021</c:v>
+                  <c:v>08/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11/1/2021</c:v>
+                  <c:v>11/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12/1/2021</c:v>
+                  <c:v>12/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13/1/2021</c:v>
+                  <c:v>13/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14/1/2021</c:v>
+                  <c:v>14/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15/1/2021</c:v>
+                  <c:v>15/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18/1/2021</c:v>
+                  <c:v>18/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19/1/2021</c:v>
+                  <c:v>19/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20/1/2021</c:v>
+                  <c:v>20/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21/1/2021</c:v>
+                  <c:v>21/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22/1/2021</c:v>
+                  <c:v>22/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25/1/2021</c:v>
+                  <c:v>25/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26/1/2021</c:v>
+                  <c:v>26/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27/1/2021</c:v>
+                  <c:v>27/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28/1/2021</c:v>
+                  <c:v>28/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29/1/2021</c:v>
+                  <c:v>29/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1/2/2021</c:v>
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2/2/2021</c:v>
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3/2/2021</c:v>
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4/2/2021</c:v>
+                  <c:v>04/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5/2/2021</c:v>
+                  <c:v>05/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8/2/2021</c:v>
+                  <c:v>08/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9/2/2021</c:v>
+                  <c:v>09/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10/2/2021</c:v>
+                  <c:v>10/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2/2021</c:v>
+                  <c:v>11/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12/2/2021</c:v>
+                  <c:v>12/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17/2/2021</c:v>
+                  <c:v>17/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18/2/2021</c:v>
+                  <c:v>18/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19/2/2021</c:v>
+                  <c:v>19/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22/2/2021</c:v>
+                  <c:v>22/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>23/2/2021</c:v>
+                  <c:v>23/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>24/2/2021</c:v>
+                  <c:v>24/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>25/2/2021</c:v>
+                  <c:v>25/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>26/2/2021</c:v>
+                  <c:v>26/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2/3/2021</c:v>
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3/3/2021</c:v>
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4/3/2021</c:v>
+                  <c:v>04/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5/3/2021</c:v>
+                  <c:v>05/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8/3/2021</c:v>
+                  <c:v>08/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9/3/2021</c:v>
+                  <c:v>09/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>10/3/2021</c:v>
+                  <c:v>10/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11/3/2021</c:v>
+                  <c:v>11/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12/3/2021</c:v>
+                  <c:v>12/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15/3/2021</c:v>
+                  <c:v>15/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16/3/2021</c:v>
+                  <c:v>16/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>17/3/2021</c:v>
+                  <c:v>17/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18/3/2021</c:v>
+                  <c:v>18/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19/3/2021</c:v>
+                  <c:v>19/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22/3/2021</c:v>
+                  <c:v>22/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23/3/2021</c:v>
+                  <c:v>23/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>25/3/2021</c:v>
+                  <c:v>25/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>26/3/2021</c:v>
+                  <c:v>26/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>29/3/2021</c:v>
+                  <c:v>29/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>30/3/2021</c:v>
+                  <c:v>30/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31/3/2021</c:v>
+                  <c:v>31/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5/4/2021</c:v>
+                  <c:v>05/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6/4/2021</c:v>
+                  <c:v>06/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7/4/2021</c:v>
+                  <c:v>07/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8/4/2021</c:v>
+                  <c:v>08/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9/4/2021</c:v>
+                  <c:v>09/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12/4/2021</c:v>
+                  <c:v>12/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>13/4/2021</c:v>
+                  <c:v>13/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14/4/2021</c:v>
+                  <c:v>14/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15/4/2021</c:v>
+                  <c:v>15/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16/4/2021</c:v>
+                  <c:v>16/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>19/4/2021</c:v>
+                  <c:v>19/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>20/4/2021</c:v>
+                  <c:v>20/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21/4/2021</c:v>
+                  <c:v>21/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>22/4/2021</c:v>
+                  <c:v>22/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>23/4/2021</c:v>
+                  <c:v>23/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>26/4/2021</c:v>
+                  <c:v>26/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27/4/2021</c:v>
+                  <c:v>27/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>28/4/2021</c:v>
+                  <c:v>28/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>29/4/2021</c:v>
+                  <c:v>29/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>30/4/2021</c:v>
+                  <c:v>30/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3/5/2021</c:v>
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4/5/2021</c:v>
+                  <c:v>04/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5/5/2021</c:v>
+                  <c:v>05/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6/5/2021</c:v>
+                  <c:v>06/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7/5/2021</c:v>
+                  <c:v>07/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10/5/2021</c:v>
+                  <c:v>10/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11/5/2021</c:v>
+                  <c:v>11/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12/5/2021</c:v>
+                  <c:v>12/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13/5/2021</c:v>
+                  <c:v>13/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>14/5/2021</c:v>
+                  <c:v>14/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>17/5/2021</c:v>
+                  <c:v>17/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>18/5/2021</c:v>
+                  <c:v>18/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>19/5/2021</c:v>
+                  <c:v>19/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>20/5/2021</c:v>
+                  <c:v>20/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21/5/2021</c:v>
+                  <c:v>21/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26/5/2021</c:v>
+                  <c:v>26/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27/5/2021</c:v>
+                  <c:v>27/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>28/5/2021</c:v>
+                  <c:v>28/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>31/5/2021</c:v>
+                  <c:v>31/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1/6/2021</c:v>
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2/6/2021</c:v>
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3/6/2021</c:v>
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4/6/2021</c:v>
+                  <c:v>04/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7/6/2021</c:v>
+                  <c:v>07/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8/6/2021</c:v>
+                  <c:v>08/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>9/6/2021</c:v>
+                  <c:v>09/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10/6/2021</c:v>
+                  <c:v>10/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11/6/2021</c:v>
+                  <c:v>11/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>14/6/2021</c:v>
+                  <c:v>14/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>15/6/2021</c:v>
+                  <c:v>15/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>16/6/2021</c:v>
+                  <c:v>16/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>17/6/2021</c:v>
+                  <c:v>17/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>18/6/2021</c:v>
+                  <c:v>18/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>22/6/2021</c:v>
+                  <c:v>22/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>23/6/2021</c:v>
+                  <c:v>23/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>24/6/2021</c:v>
+                  <c:v>24/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>25/6/2021</c:v>
+                  <c:v>25/06/2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18271,79 +18274,79 @@
               <c:strCache>
                 <c:ptCount val="181"/>
                 <c:pt idx="0">
-                  <c:v>7/9/2020</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8/9/2020</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9/9/2020</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10/9/2020</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11/9/2020</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14/9/2020</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15/9/2020</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16/9/2020</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17/9/2020</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18/9/2020</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21/9/2020</c:v>
+                  <c:v>21/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22/9/2020</c:v>
+                  <c:v>22/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23/9/2020</c:v>
+                  <c:v>23/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24/9/2020</c:v>
+                  <c:v>24/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25/9/2020</c:v>
+                  <c:v>25/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28/9/2020</c:v>
+                  <c:v>28/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29/9/2020</c:v>
+                  <c:v>29/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30/9/2020</c:v>
+                  <c:v>30/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1/10/2020</c:v>
+                  <c:v>01/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/10/2020</c:v>
+                  <c:v>02/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5/10/2020</c:v>
+                  <c:v>05/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6/10/2020</c:v>
+                  <c:v>06/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7/10/2020</c:v>
+                  <c:v>07/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8/10/2020</c:v>
+                  <c:v>08/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9/10/2020</c:v>
+                  <c:v>09/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13/10/2020</c:v>
@@ -18388,22 +18391,22 @@
                   <c:v>30/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2/11/2020</c:v>
+                  <c:v>02/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3/11/2020</c:v>
+                  <c:v>03/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4/11/2020</c:v>
+                  <c:v>04/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5/11/2020</c:v>
+                  <c:v>05/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6/11/2020</c:v>
+                  <c:v>06/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9/11/2020</c:v>
+                  <c:v>09/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10/11/2020</c:v>
@@ -18448,19 +18451,19 @@
                   <c:v>30/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1/12/2020</c:v>
+                  <c:v>01/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2/12/2020</c:v>
+                  <c:v>02/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3/12/2020</c:v>
+                  <c:v>03/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4/12/2020</c:v>
+                  <c:v>04/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9/12/2020</c:v>
+                  <c:v>09/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>10/12/2020</c:v>
@@ -18502,313 +18505,313 @@
                   <c:v>30/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4/1/2021</c:v>
+                  <c:v>04/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5/1/2021</c:v>
+                  <c:v>05/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6/1/2021</c:v>
+                  <c:v>06/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7/1/2021</c:v>
+                  <c:v>07/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8/1/2021</c:v>
+                  <c:v>08/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11/1/2021</c:v>
+                  <c:v>11/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12/1/2021</c:v>
+                  <c:v>12/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13/1/2021</c:v>
+                  <c:v>13/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14/1/2021</c:v>
+                  <c:v>14/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15/1/2021</c:v>
+                  <c:v>15/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18/1/2021</c:v>
+                  <c:v>18/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19/1/2021</c:v>
+                  <c:v>19/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20/1/2021</c:v>
+                  <c:v>20/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21/1/2021</c:v>
+                  <c:v>21/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22/1/2021</c:v>
+                  <c:v>22/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25/1/2021</c:v>
+                  <c:v>25/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26/1/2021</c:v>
+                  <c:v>26/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27/1/2021</c:v>
+                  <c:v>27/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28/1/2021</c:v>
+                  <c:v>28/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29/1/2021</c:v>
+                  <c:v>29/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1/2/2021</c:v>
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2/2/2021</c:v>
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3/2/2021</c:v>
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4/2/2021</c:v>
+                  <c:v>04/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5/2/2021</c:v>
+                  <c:v>05/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8/2/2021</c:v>
+                  <c:v>08/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9/2/2021</c:v>
+                  <c:v>09/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10/2/2021</c:v>
+                  <c:v>10/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2/2021</c:v>
+                  <c:v>11/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12/2/2021</c:v>
+                  <c:v>12/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17/2/2021</c:v>
+                  <c:v>17/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18/2/2021</c:v>
+                  <c:v>18/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19/2/2021</c:v>
+                  <c:v>19/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22/2/2021</c:v>
+                  <c:v>22/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>23/2/2021</c:v>
+                  <c:v>23/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>24/2/2021</c:v>
+                  <c:v>24/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>25/2/2021</c:v>
+                  <c:v>25/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>26/2/2021</c:v>
+                  <c:v>26/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2/3/2021</c:v>
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3/3/2021</c:v>
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4/3/2021</c:v>
+                  <c:v>04/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5/3/2021</c:v>
+                  <c:v>05/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8/3/2021</c:v>
+                  <c:v>08/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9/3/2021</c:v>
+                  <c:v>09/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>10/3/2021</c:v>
+                  <c:v>10/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11/3/2021</c:v>
+                  <c:v>11/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12/3/2021</c:v>
+                  <c:v>12/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15/3/2021</c:v>
+                  <c:v>15/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16/3/2021</c:v>
+                  <c:v>16/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>17/3/2021</c:v>
+                  <c:v>17/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18/3/2021</c:v>
+                  <c:v>18/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19/3/2021</c:v>
+                  <c:v>19/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22/3/2021</c:v>
+                  <c:v>22/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23/3/2021</c:v>
+                  <c:v>23/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>25/3/2021</c:v>
+                  <c:v>25/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>26/3/2021</c:v>
+                  <c:v>26/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>29/3/2021</c:v>
+                  <c:v>29/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>30/3/2021</c:v>
+                  <c:v>30/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31/3/2021</c:v>
+                  <c:v>31/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5/4/2021</c:v>
+                  <c:v>05/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6/4/2021</c:v>
+                  <c:v>06/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7/4/2021</c:v>
+                  <c:v>07/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8/4/2021</c:v>
+                  <c:v>08/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9/4/2021</c:v>
+                  <c:v>09/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12/4/2021</c:v>
+                  <c:v>12/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>13/4/2021</c:v>
+                  <c:v>13/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14/4/2021</c:v>
+                  <c:v>14/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15/4/2021</c:v>
+                  <c:v>15/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16/4/2021</c:v>
+                  <c:v>16/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>19/4/2021</c:v>
+                  <c:v>19/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>20/4/2021</c:v>
+                  <c:v>20/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21/4/2021</c:v>
+                  <c:v>21/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>22/4/2021</c:v>
+                  <c:v>22/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>23/4/2021</c:v>
+                  <c:v>23/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>26/4/2021</c:v>
+                  <c:v>26/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27/4/2021</c:v>
+                  <c:v>27/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>28/4/2021</c:v>
+                  <c:v>28/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>29/4/2021</c:v>
+                  <c:v>29/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>30/4/2021</c:v>
+                  <c:v>30/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3/5/2021</c:v>
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4/5/2021</c:v>
+                  <c:v>04/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5/5/2021</c:v>
+                  <c:v>05/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6/5/2021</c:v>
+                  <c:v>06/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7/5/2021</c:v>
+                  <c:v>07/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10/5/2021</c:v>
+                  <c:v>10/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11/5/2021</c:v>
+                  <c:v>11/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12/5/2021</c:v>
+                  <c:v>12/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13/5/2021</c:v>
+                  <c:v>13/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>14/5/2021</c:v>
+                  <c:v>14/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>17/5/2021</c:v>
+                  <c:v>17/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>18/5/2021</c:v>
+                  <c:v>18/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>19/5/2021</c:v>
+                  <c:v>19/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>20/5/2021</c:v>
+                  <c:v>20/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21/5/2021</c:v>
+                  <c:v>21/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26/5/2021</c:v>
+                  <c:v>26/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27/5/2021</c:v>
+                  <c:v>27/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>28/5/2021</c:v>
+                  <c:v>28/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>31/5/2021</c:v>
+                  <c:v>31/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1/6/2021</c:v>
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2/6/2021</c:v>
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3/6/2021</c:v>
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4/6/2021</c:v>
+                  <c:v>04/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>(en blanco)</c:v>
@@ -19395,79 +19398,79 @@
               <c:strCache>
                 <c:ptCount val="181"/>
                 <c:pt idx="0">
-                  <c:v>7/9/2020</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8/9/2020</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9/9/2020</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10/9/2020</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11/9/2020</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14/9/2020</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15/9/2020</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16/9/2020</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17/9/2020</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18/9/2020</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21/9/2020</c:v>
+                  <c:v>21/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22/9/2020</c:v>
+                  <c:v>22/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23/9/2020</c:v>
+                  <c:v>23/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24/9/2020</c:v>
+                  <c:v>24/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25/9/2020</c:v>
+                  <c:v>25/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28/9/2020</c:v>
+                  <c:v>28/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29/9/2020</c:v>
+                  <c:v>29/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30/9/2020</c:v>
+                  <c:v>30/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1/10/2020</c:v>
+                  <c:v>01/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/10/2020</c:v>
+                  <c:v>02/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5/10/2020</c:v>
+                  <c:v>05/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6/10/2020</c:v>
+                  <c:v>06/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7/10/2020</c:v>
+                  <c:v>07/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8/10/2020</c:v>
+                  <c:v>08/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9/10/2020</c:v>
+                  <c:v>09/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13/10/2020</c:v>
@@ -19512,22 +19515,22 @@
                   <c:v>30/10/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2/11/2020</c:v>
+                  <c:v>02/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3/11/2020</c:v>
+                  <c:v>03/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4/11/2020</c:v>
+                  <c:v>04/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5/11/2020</c:v>
+                  <c:v>05/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6/11/2020</c:v>
+                  <c:v>06/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9/11/2020</c:v>
+                  <c:v>09/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10/11/2020</c:v>
@@ -19572,19 +19575,19 @@
                   <c:v>30/11/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1/12/2020</c:v>
+                  <c:v>01/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2/12/2020</c:v>
+                  <c:v>02/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3/12/2020</c:v>
+                  <c:v>03/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4/12/2020</c:v>
+                  <c:v>04/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9/12/2020</c:v>
+                  <c:v>09/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>10/12/2020</c:v>
@@ -19626,313 +19629,313 @@
                   <c:v>30/12/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4/1/2021</c:v>
+                  <c:v>04/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5/1/2021</c:v>
+                  <c:v>05/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6/1/2021</c:v>
+                  <c:v>06/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7/1/2021</c:v>
+                  <c:v>07/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8/1/2021</c:v>
+                  <c:v>08/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11/1/2021</c:v>
+                  <c:v>11/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12/1/2021</c:v>
+                  <c:v>12/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13/1/2021</c:v>
+                  <c:v>13/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14/1/2021</c:v>
+                  <c:v>14/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15/1/2021</c:v>
+                  <c:v>15/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18/1/2021</c:v>
+                  <c:v>18/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19/1/2021</c:v>
+                  <c:v>19/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20/1/2021</c:v>
+                  <c:v>20/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21/1/2021</c:v>
+                  <c:v>21/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22/1/2021</c:v>
+                  <c:v>22/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25/1/2021</c:v>
+                  <c:v>25/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26/1/2021</c:v>
+                  <c:v>26/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27/1/2021</c:v>
+                  <c:v>27/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28/1/2021</c:v>
+                  <c:v>28/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29/1/2021</c:v>
+                  <c:v>29/01/2021</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1/2/2021</c:v>
+                  <c:v>01/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2/2/2021</c:v>
+                  <c:v>02/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3/2/2021</c:v>
+                  <c:v>03/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4/2/2021</c:v>
+                  <c:v>04/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5/2/2021</c:v>
+                  <c:v>05/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8/2/2021</c:v>
+                  <c:v>08/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9/2/2021</c:v>
+                  <c:v>09/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10/2/2021</c:v>
+                  <c:v>10/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2/2021</c:v>
+                  <c:v>11/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12/2/2021</c:v>
+                  <c:v>12/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17/2/2021</c:v>
+                  <c:v>17/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18/2/2021</c:v>
+                  <c:v>18/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19/2/2021</c:v>
+                  <c:v>19/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22/2/2021</c:v>
+                  <c:v>22/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>23/2/2021</c:v>
+                  <c:v>23/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>24/2/2021</c:v>
+                  <c:v>24/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>25/2/2021</c:v>
+                  <c:v>25/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>26/2/2021</c:v>
+                  <c:v>26/02/2021</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>01/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2/3/2021</c:v>
+                  <c:v>02/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3/3/2021</c:v>
+                  <c:v>03/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4/3/2021</c:v>
+                  <c:v>04/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5/3/2021</c:v>
+                  <c:v>05/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8/3/2021</c:v>
+                  <c:v>08/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9/3/2021</c:v>
+                  <c:v>09/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>10/3/2021</c:v>
+                  <c:v>10/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11/3/2021</c:v>
+                  <c:v>11/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12/3/2021</c:v>
+                  <c:v>12/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15/3/2021</c:v>
+                  <c:v>15/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16/3/2021</c:v>
+                  <c:v>16/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>17/3/2021</c:v>
+                  <c:v>17/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18/3/2021</c:v>
+                  <c:v>18/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19/3/2021</c:v>
+                  <c:v>19/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22/3/2021</c:v>
+                  <c:v>22/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23/3/2021</c:v>
+                  <c:v>23/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>25/3/2021</c:v>
+                  <c:v>25/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>26/3/2021</c:v>
+                  <c:v>26/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>29/3/2021</c:v>
+                  <c:v>29/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>30/3/2021</c:v>
+                  <c:v>30/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31/3/2021</c:v>
+                  <c:v>31/03/2021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5/4/2021</c:v>
+                  <c:v>05/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6/4/2021</c:v>
+                  <c:v>06/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7/4/2021</c:v>
+                  <c:v>07/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8/4/2021</c:v>
+                  <c:v>08/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9/4/2021</c:v>
+                  <c:v>09/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12/4/2021</c:v>
+                  <c:v>12/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>13/4/2021</c:v>
+                  <c:v>13/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14/4/2021</c:v>
+                  <c:v>14/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15/4/2021</c:v>
+                  <c:v>15/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16/4/2021</c:v>
+                  <c:v>16/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>19/4/2021</c:v>
+                  <c:v>19/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>20/4/2021</c:v>
+                  <c:v>20/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21/4/2021</c:v>
+                  <c:v>21/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>22/4/2021</c:v>
+                  <c:v>22/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>23/4/2021</c:v>
+                  <c:v>23/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>26/4/2021</c:v>
+                  <c:v>26/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27/4/2021</c:v>
+                  <c:v>27/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>28/4/2021</c:v>
+                  <c:v>28/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>29/4/2021</c:v>
+                  <c:v>29/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>30/4/2021</c:v>
+                  <c:v>30/04/2021</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3/5/2021</c:v>
+                  <c:v>03/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4/5/2021</c:v>
+                  <c:v>04/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5/5/2021</c:v>
+                  <c:v>05/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6/5/2021</c:v>
+                  <c:v>06/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7/5/2021</c:v>
+                  <c:v>07/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10/5/2021</c:v>
+                  <c:v>10/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11/5/2021</c:v>
+                  <c:v>11/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12/5/2021</c:v>
+                  <c:v>12/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13/5/2021</c:v>
+                  <c:v>13/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>14/5/2021</c:v>
+                  <c:v>14/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>17/5/2021</c:v>
+                  <c:v>17/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>18/5/2021</c:v>
+                  <c:v>18/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>19/5/2021</c:v>
+                  <c:v>19/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>20/5/2021</c:v>
+                  <c:v>20/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21/5/2021</c:v>
+                  <c:v>21/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26/5/2021</c:v>
+                  <c:v>26/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27/5/2021</c:v>
+                  <c:v>27/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>28/5/2021</c:v>
+                  <c:v>28/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>31/5/2021</c:v>
+                  <c:v>31/05/2021</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1/6/2021</c:v>
+                  <c:v>01/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2/6/2021</c:v>
+                  <c:v>02/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3/6/2021</c:v>
+                  <c:v>03/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4/6/2021</c:v>
+                  <c:v>04/06/2021</c:v>
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>(en blanco)</c:v>
@@ -44807,14 +44810,15 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -45121,6 +45125,15 @@
       </c>
       <c r="B16" s="60" t="s">
         <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>249662.62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -50441,7 +50454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -50832,7 +50845,7 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50880,25 +50893,17 @@
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44669</v>
+        <v>44716</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -50907,15 +50912,10 @@
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="32">
-        <f ca="1">TODAY()</f>
-        <v>44669</v>
-      </c>
+      <c r="G5" s="32"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="33">
-        <v>-105</v>
-      </c>
+      <c r="J5" s="33"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
     </row>
@@ -50935,19 +50935,10 @@
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="40">
-        <v>44712</v>
-      </c>
-      <c r="H6" s="41">
-        <v>11.5</v>
-      </c>
-      <c r="I6" s="41">
-        <v>100</v>
-      </c>
-      <c r="J6" s="42">
-        <f t="shared" ref="J6" si="1">I6+H6</f>
-        <v>111.5</v>
-      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
     </row>
@@ -50968,25 +50959,11 @@
       <c r="E7" s="34"/>
       <c r="F7" s="22"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="28">
-        <f>SUM(H6:H6)</f>
-        <v>11.5</v>
-      </c>
-      <c r="I7" s="28">
-        <f>SUM(I6:I6)</f>
-        <v>100</v>
-      </c>
-      <c r="J7" s="28">
-        <f>SUM(J6:J6)</f>
-        <v>111.5</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="20">
-        <f ca="1">G6-G5</f>
-        <v>43</v>
-      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
@@ -51006,20 +50983,10 @@
       <c r="F8" s="22"/>
       <c r="G8" s="20"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="51">
-        <f ca="1">XIRR(J5:J6,G5:G6)</f>
-        <v>0.66503747105598476</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="20">
-        <f ca="1">L7/30</f>
-        <v>1.4333333333333333</v>
-      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
@@ -51035,21 +51002,11 @@
         <f t="shared" si="0"/>
         <v>16.239999999999998</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="22">
-        <f ca="1">A11-A5</f>
-        <v>169</v>
-      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="I9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="28">
-        <f>J7+J5</f>
-        <v>6.5</v>
-      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
     </row>
@@ -51067,21 +51024,11 @@
         <f t="shared" si="0"/>
         <v>15.239999999999998</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="22">
-        <f ca="1">F9/30</f>
-        <v>5.6333333333333337</v>
-      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="66">
-        <f>J9*100/-J5</f>
-        <v>6.1904761904761907</v>
-      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
     </row>
@@ -51102,13 +51049,8 @@
       <c r="E11" s="34"/>
       <c r="F11" s="22"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="66">
-        <f ca="1">J10/L8</f>
-        <v>4.3189368770764123</v>
-      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
@@ -51189,7 +51131,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="50">
         <f ca="1">TODAY()</f>
-        <v>44669</v>
+        <v>44716</v>
       </c>
       <c r="H15" s="59"/>
       <c r="I15" s="57"/>
@@ -51204,9 +51146,9 @@
       <c r="C16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="28">
-        <f ca="1">D15/F10</f>
-        <v>6.5893491124260342</v>
+      <c r="D16" s="28" t="e">
+        <f>D15/F10</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25">
@@ -51282,18 +51224,18 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44669</v>
+        <v>44716</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
       <c r="Q18" s="48">
-        <v>-35</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44669</v>
+        <v>44716</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51360,14 +51302,14 @@
         <v>44838</v>
       </c>
       <c r="O20" s="53">
-        <v>2.4041000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="P20" s="47">
         <v>22.811</v>
       </c>
       <c r="Q20" s="46">
         <f>O20+P20</f>
-        <v>25.2151</v>
+        <v>25.491</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51389,7 +51331,7 @@
       <c r="J21" s="28"/>
       <c r="O21" s="16">
         <f>SUM(O19:O20)</f>
-        <v>5.9195000000000002</v>
+        <v>6.1954000000000002</v>
       </c>
       <c r="P21" s="16">
         <f>SUM(P19:P20)</f>
@@ -51397,7 +51339,7 @@
       </c>
       <c r="Q21" s="16">
         <f>SUM(Q19:Q20)</f>
-        <v>41.013300000000001</v>
+        <v>41.289200000000001</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51420,7 +51362,7 @@
       </c>
       <c r="J22" s="62">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.70238417387008667</v>
+        <v>0.81636646986007699</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51450,21 +51392,21 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="P23" s="66" t="s">
         <v>60</v>
       </c>
       <c r="Q23" s="62">
         <f ca="1">XIRR(Q18:Q20,N18:N20)</f>
-        <v>0.54843582510948197</v>
+        <v>0.59713224768638618</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>169</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51494,21 +51436,21 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>18.233333333333334</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="P24" s="66" t="s">
         <v>36</v>
       </c>
       <c r="Q24" s="16">
         <f>Q21+Q18</f>
-        <v>6.013300000000001</v>
+        <v>4.289200000000001</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>5.6333333333333337</v>
+        <v>4.0666666666666664</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51531,14 +51473,18 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">J24/L24</f>
-        <v>5.2407068860450945</v>
+        <v>5.7333333333333334</v>
+      </c>
+      <c r="N25">
+        <f ca="1">N20-N18</f>
+        <v>122</v>
       </c>
       <c r="P25" s="66" t="s">
         <v>37</v>
       </c>
       <c r="Q25" s="16">
         <f>Q24*100/-Q18</f>
-        <v>17.180857142857146</v>
+        <v>11.592432432432435</v>
       </c>
       <c r="S25" s="22"/>
     </row>
@@ -51559,12 +51505,16 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="N26">
+        <f ca="1">N19-N18</f>
+        <v>30</v>
+      </c>
       <c r="P26" s="66" t="s">
         <v>38</v>
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>3.0498562975486054</v>
+        <v>2.85059813912273</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51653,6 +51603,7 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
+      <c r="N31" s="76"/>
       <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51705,7 +51656,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1090</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51726,7 +51677,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>36.333333333333336</v>
+        <v>34.766666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51776,7 +51727,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>5.3993491635186173</v>
+        <v>5.6426563645592456</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51846,7 +51797,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.70238417387008667</v>
+        <v>0.81636646986007699</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -44810,7 +44810,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -50844,8 +50844,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50903,7 +50903,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f ca="1">TODAY()</f>
-        <v>44716</v>
+        <v>44722</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -51131,7 +51131,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="50">
         <f ca="1">TODAY()</f>
-        <v>44716</v>
+        <v>44722</v>
       </c>
       <c r="H15" s="59"/>
       <c r="I15" s="57"/>
@@ -51224,7 +51224,7 @@
       </c>
       <c r="N18" s="50">
         <f ca="1">TODAY()</f>
-        <v>44716</v>
+        <v>44722</v>
       </c>
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
@@ -51235,7 +51235,7 @@
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f ca="1">TODAY()</f>
-        <v>44716</v>
+        <v>44722</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -51362,7 +51362,7 @@
       </c>
       <c r="J22" s="62">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.81636646986007699</v>
+        <v>0.8337542891502383</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51392,21 +51392,21 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="P23" s="66" t="s">
         <v>60</v>
       </c>
       <c r="Q23" s="62">
         <f ca="1">XIRR(Q18:Q20,N18:N20)</f>
-        <v>0.59713224768638618</v>
+        <v>0.65562686324119579</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51436,7 +51436,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>16.666666666666668</v>
+        <v>16.466666666666665</v>
       </c>
       <c r="P24" s="66" t="s">
         <v>36</v>
@@ -51450,7 +51450,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>4.0666666666666664</v>
+        <v>3.8666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51473,11 +51473,11 @@
       </c>
       <c r="J25" s="66">
         <f ca="1">J24/L24</f>
-        <v>5.7333333333333334</v>
+        <v>5.8029689608636987</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P25" s="66" t="s">
         <v>37</v>
@@ -51507,14 +51507,14 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P26" s="66" t="s">
         <v>38</v>
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>2.85059813912273</v>
+        <v>2.9980428704566644</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51656,7 +51656,7 @@
       </c>
       <c r="F34">
         <f ca="1">A35-A19</f>
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51677,7 +51677,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>34.766666666666666</v>
+        <v>34.56666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51727,7 +51727,7 @@
       </c>
       <c r="D41">
         <f ca="1">D40/F35</f>
-        <v>5.6426563645592456</v>
+        <v>5.6753043280957503</v>
       </c>
       <c r="F41" s="39"/>
       <c r="T41" s="22"/>
@@ -51797,7 +51797,7 @@
       </c>
       <c r="D51" s="51">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.81636646986007699</v>
+        <v>0.8337542891502383</v>
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="28"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -295,8 +295,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -660,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -910,30 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE4E4E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE4E4E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1142,7 +1119,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1175,18 +1152,12 @@
     <xf numFmtId="14" fontId="19" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="35" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="19" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1194,24 +1165,24 @@
     <xf numFmtId="2" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="35" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="19" fillId="35" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="35" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1220,58 +1191,59 @@
     <xf numFmtId="2" fontId="19" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="35" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="35" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="19" fillId="36" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="36" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="19" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="36" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="37" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="37" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -44811,7 +44783,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44823,10 +44795,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C1" t="s">
@@ -44840,10 +44812,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="59">
         <v>44165</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="1">
@@ -44866,10 +44838,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="59">
         <v>44200</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="58" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
@@ -44895,10 +44867,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="59">
         <v>44255</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C4">
@@ -44921,10 +44893,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="61">
+      <c r="A5" s="59">
         <v>44290</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="58" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
@@ -44945,10 +44917,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
+      <c r="A6" s="59">
         <v>44291</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C6">
@@ -44965,10 +44937,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
+      <c r="A7" s="59">
         <v>44347</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C7">
@@ -44982,10 +44954,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
+      <c r="A8" s="59">
         <v>44381</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="C8">
@@ -44999,10 +44971,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
+      <c r="A9" s="59">
         <v>44439</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C9">
@@ -45016,10 +44988,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="A10" s="59">
         <v>44473</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="58" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -45033,10 +45005,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="61">
+      <c r="A11" s="59">
         <v>44473</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
@@ -45050,10 +45022,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="61">
+      <c r="A12" s="59">
         <v>44530</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C12">
@@ -45067,16 +45039,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="61">
+      <c r="A13" s="59">
         <v>44565</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="76">
         <v>17935.47</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="76">
         <v>17909.02</v>
       </c>
       <c r="E13" t="s">
@@ -45084,10 +45056,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="59">
         <v>44620</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C14">
@@ -45099,13 +45071,13 @@
       <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="76"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="61">
+      <c r="A15" s="59">
         <v>44655</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="58" t="s">
         <v>29</v>
       </c>
       <c r="C15">
@@ -45117,13 +45089,13 @@
       <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="76"/>
+      <c r="J15" s="74"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="61">
+      <c r="A16" s="59">
         <v>44712</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
@@ -45136,19 +45108,25 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="61">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="59">
         <v>44746</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="58" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="61">
+      <c r="C17">
+        <v>128664.74</v>
+      </c>
+      <c r="D17">
+        <v>128521.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="59">
         <v>44838</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -50464,10 +50442,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C1" t="s">
@@ -50481,10 +50459,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="64">
+      <c r="A2" s="62">
         <v>44208</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="1">
@@ -50499,7 +50477,7 @@
       <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="61">
         <v>12502</v>
       </c>
       <c r="J2" t="s">
@@ -50510,10 +50488,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="64">
+      <c r="A3" s="62">
         <v>44298</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="1">
@@ -50528,7 +50506,7 @@
       <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="61">
         <v>12035</v>
       </c>
       <c r="J3" t="s">
@@ -50539,10 +50517,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
+      <c r="A4" s="68">
         <v>44305</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1">
@@ -50557,15 +50535,15 @@
       <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="61">
         <v>12488</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="64">
+      <c r="A5" s="62">
         <v>44389</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1">
@@ -50583,7 +50561,7 @@
       <c r="G5" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="61">
         <v>12292</v>
       </c>
       <c r="J5" t="s">
@@ -50591,10 +50569,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
+      <c r="A6" s="62">
         <v>44481</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="1">
@@ -50612,7 +50590,7 @@
       <c r="G6" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="61">
         <v>12831</v>
       </c>
       <c r="J6" t="s">
@@ -50620,10 +50598,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="68">
         <v>44487</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1">
@@ -50638,7 +50616,7 @@
       <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="61">
         <v>12597</v>
       </c>
       <c r="J7" t="s">
@@ -50646,10 +50624,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
+      <c r="A8" s="62">
         <v>44573</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="1">
@@ -50664,15 +50642,15 @@
       <c r="F8" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="61">
         <v>12800</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
+      <c r="A9" s="62">
         <v>44663</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="1">
@@ -50687,15 +50665,15 @@
       <c r="F9" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="61">
         <v>13720</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="A10" s="68">
         <v>44669</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="1">
@@ -50712,122 +50690,122 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
+      <c r="A11" s="62">
         <v>44754</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="64">
+      <c r="A12" s="62">
         <v>44846</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="68">
         <v>44851</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="69" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="64">
+      <c r="A14" s="62">
         <v>44938</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="64">
+      <c r="A15" s="62">
         <v>45028</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
+      <c r="A16" s="68">
         <v>45033</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="64">
+      <c r="A17" s="62">
         <v>45119</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="64">
+      <c r="A18" s="62">
         <v>45211</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70">
+      <c r="A19" s="68">
         <v>45216</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="69" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68">
+      <c r="A20" s="66">
         <v>45303</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="65" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68">
+      <c r="A21" s="66">
         <v>45394</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="65" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68">
+      <c r="A22" s="66">
         <v>45485</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="65" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="68">
+      <c r="A23" s="66">
         <v>45577</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="65" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="68">
+      <c r="A24" s="66">
         <v>45669</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="65" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69">
+      <c r="A25" s="67">
         <v>45759</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="65" t="s">
         <v>32</v>
       </c>
     </row>
@@ -50844,8 +50822,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50898,362 +50876,372 @@
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="L4" s="21">
+        <v>22.1</v>
+      </c>
+      <c r="M4">
+        <v>25.53</v>
+      </c>
+      <c r="N4">
+        <f>M4/L4</f>
+        <v>1.1552036199095022</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="A5" s="27">
         <f ca="1">TODAY()</f>
-        <v>44722</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31">
-        <v>-81.25</v>
+        <v>44749</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29">
+        <v>-22.7</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="32"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="33"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>44381</v>
-      </c>
-      <c r="B6" s="26">
-        <v>7.15</v>
-      </c>
-      <c r="C6" s="26">
-        <v>12.28</v>
-      </c>
-      <c r="D6" s="27">
-        <f t="shared" ref="D6:D11" si="0">C6+B6</f>
-        <v>19.43</v>
-      </c>
-      <c r="E6" s="34"/>
+      <c r="A6" s="33">
+        <v>44838</v>
+      </c>
+      <c r="B6" s="34">
+        <v>2.72</v>
+      </c>
+      <c r="C6" s="34">
+        <v>22.81</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" ref="D6" si="0">C6+B6</f>
+        <v>25.529999999999998</v>
+      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>44473</v>
-      </c>
-      <c r="B7" s="26">
-        <v>6.08</v>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="32">
+        <f>SUM(B6:B6)</f>
+        <v>2.72</v>
       </c>
       <c r="C7" s="26">
-        <v>12.28</v>
-      </c>
-      <c r="D7" s="27">
-        <f t="shared" si="0"/>
-        <v>18.36</v>
-      </c>
-      <c r="E7" s="34"/>
+        <f>SUM(C6:C6)</f>
+        <v>22.81</v>
+      </c>
+      <c r="D7" s="26">
+        <f>SUM(D6:D6)</f>
+        <v>25.529999999999998</v>
+      </c>
+      <c r="E7" s="32"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
-        <v>44565</v>
-      </c>
-      <c r="B8" s="26">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C8" s="26">
-        <v>12.28</v>
-      </c>
-      <c r="D8" s="27">
-        <f t="shared" si="0"/>
-        <v>17.38</v>
-      </c>
-      <c r="E8" s="34"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="49">
+        <f ca="1">XIRR(D5:D6,A5:A6)</f>
+        <v>0.6190477550029756</v>
+      </c>
+      <c r="E8" s="32"/>
       <c r="F8" s="22"/>
       <c r="G8" s="20"/>
       <c r="H8" s="23"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
-        <v>44655</v>
-      </c>
-      <c r="B9" s="26">
-        <v>3.96</v>
-      </c>
-      <c r="C9" s="26">
-        <v>12.28</v>
-      </c>
-      <c r="D9" s="27">
-        <f t="shared" si="0"/>
-        <v>16.239999999999998</v>
-      </c>
-      <c r="E9" s="34"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="20">
+        <v>128000</v>
+      </c>
+      <c r="L8" s="77">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N8">
+        <f>K8/0.221</f>
+        <v>579185.5203619909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="26">
+        <f>D7+D5</f>
+        <v>2.8299999999999983</v>
+      </c>
+      <c r="E9" s="32"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="28"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
-        <v>44746</v>
-      </c>
-      <c r="B10" s="26">
-        <v>2.96</v>
-      </c>
-      <c r="C10" s="26">
-        <v>12.28</v>
-      </c>
-      <c r="D10" s="27">
-        <f t="shared" si="0"/>
-        <v>15.239999999999998</v>
-      </c>
-      <c r="E10" s="34"/>
+      <c r="L9" s="20">
+        <f>K8/L8</f>
+        <v>568888.88888888888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="26">
+        <f>D9*100/-D5</f>
+        <v>12.4669603524229</v>
+      </c>
+      <c r="E10" s="32"/>
       <c r="F10" s="22"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="66"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="64"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
-        <v>44838</v>
-      </c>
-      <c r="B11" s="36">
-        <v>1.95</v>
-      </c>
-      <c r="C11" s="36">
-        <v>22.81</v>
-      </c>
-      <c r="D11" s="37">
-        <f t="shared" si="0"/>
-        <v>24.759999999999998</v>
-      </c>
-      <c r="E11" s="34"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="22"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="66"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="64"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="34">
-        <f>SUM(B6:B11)</f>
-        <v>27.2</v>
-      </c>
-      <c r="C12" s="28">
-        <f>SUM(C6:C11)</f>
-        <v>84.21</v>
-      </c>
-      <c r="D12" s="28">
-        <f>SUM(D6:D11)</f>
-        <v>111.41</v>
-      </c>
-      <c r="E12" s="34"/>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="22"/>
       <c r="G12" s="1"/>
-      <c r="J12" s="38"/>
+      <c r="J12" s="36"/>
       <c r="Q12" s="22"/>
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="51" t="e">
-        <f ca="1">XIRR(D5:D11,A5:A11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" s="28"/>
+      <c r="A13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="26"/>
       <c r="F13" s="22"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="38"/>
+      <c r="J13" s="36"/>
       <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="28">
-        <f>D12+D5</f>
-        <v>30.159999999999997</v>
+      <c r="A14" s="24">
+        <f ca="1">TODAY()</f>
+        <v>44749</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46">
+        <v>-85</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="43" t="s">
         <v>28</v>
       </c>
       <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="28">
-        <f>D14*100/-D5</f>
-        <v>37.119999999999997</v>
+      <c r="A15" s="25">
+        <v>44389</v>
+      </c>
+      <c r="B15" s="52">
+        <v>9.4583999999999993</v>
+      </c>
+      <c r="C15" s="44">
+        <v>0</v>
+      </c>
+      <c r="D15" s="44">
+        <v>9.4583999999999993</v>
       </c>
       <c r="F15" s="22"/>
-      <c r="G15" s="50">
+      <c r="G15" s="48">
         <f ca="1">TODAY()</f>
-        <v>44722</v>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="48">
+        <v>44749</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="46">
         <v>-67.5</v>
       </c>
       <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="28" t="e">
-        <f>D15/F10</f>
-        <v>#DIV/0!</v>
+      <c r="A16" s="25">
+        <v>44481</v>
+      </c>
+      <c r="B16" s="52">
+        <v>9.5623000000000005</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0</v>
+      </c>
+      <c r="D16" s="44">
+        <v>9.5623000000000005</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25">
         <v>44669</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="50">
         <v>8</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="44">
         <v>0</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="44">
         <v>8</v>
       </c>
       <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="25">
+        <v>44573</v>
+      </c>
+      <c r="B17" s="52">
+        <v>9.5623000000000005</v>
+      </c>
+      <c r="C17" s="44">
+        <v>0</v>
+      </c>
+      <c r="D17" s="44">
+        <v>9.5623000000000005</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="25">
         <v>44851</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="50">
         <v>8</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="44">
         <v>0</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="44">
         <v>8</v>
       </c>
-      <c r="N17" s="72" t="s">
+      <c r="N17" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="74" t="s">
+      <c r="O17" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="74" t="s">
+      <c r="P17" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="73" t="s">
+      <c r="Q17" s="71" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>28</v>
+      <c r="A18" s="25">
+        <v>44663</v>
+      </c>
+      <c r="B18" s="52">
+        <v>9.3544999999999998</v>
+      </c>
+      <c r="C18" s="44">
+        <v>0</v>
+      </c>
+      <c r="D18" s="44">
+        <v>9.3544999999999998</v>
       </c>
       <c r="E18" s="20"/>
       <c r="G18" s="25">
         <v>45033</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="50">
         <v>8</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="44">
         <v>0</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="44">
         <v>8</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="48">
         <f ca="1">TODAY()</f>
-        <v>44722</v>
-      </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="48">
+        <v>44749</v>
+      </c>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="46">
         <v>-37</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <f ca="1">TODAY()</f>
-        <v>44722</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48">
-        <v>-85</v>
-      </c>
-      <c r="E19" s="28"/>
+      <c r="A19" s="25">
+        <v>44754</v>
+      </c>
+      <c r="B19" s="52">
+        <v>9.4583999999999993</v>
+      </c>
+      <c r="C19" s="44">
+        <v>0</v>
+      </c>
+      <c r="D19" s="44">
+        <v>9.4583999999999993</v>
+      </c>
+      <c r="E19" s="26"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>45216</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="51">
         <v>8</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="45">
         <v>108</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="45">
         <v>108</v>
       </c>
       <c r="K19" s="1"/>
@@ -51261,74 +51249,74 @@
       <c r="N19" s="25">
         <v>44746</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O19" s="50">
         <v>3.5154000000000001</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="44">
         <v>12.2828</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="44">
         <f>O19+P19</f>
         <v>15.7982</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
-        <v>44389</v>
-      </c>
-      <c r="B20" s="54">
-        <v>9.4583999999999993</v>
-      </c>
-      <c r="C20" s="46">
+        <v>44846</v>
+      </c>
+      <c r="B20" s="52">
+        <v>9.5623000000000005</v>
+      </c>
+      <c r="C20" s="44">
         <v>0</v>
       </c>
-      <c r="D20" s="46">
-        <v>9.4583999999999993</v>
+      <c r="D20" s="44">
+        <v>9.5623000000000005</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="28">
+      <c r="H20" s="26">
         <f>SUM(H16:H19)</f>
         <v>32</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="26">
         <f>SUM(I16:I19)</f>
         <v>108</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="26">
         <f>SUM(J16:J19)</f>
         <v>132</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="33">
         <v>44838</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="51">
         <v>2.68</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="45">
         <v>22.811</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="44">
         <f>O20+P20</f>
         <v>25.491</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
-        <v>44481</v>
-      </c>
-      <c r="B21" s="54">
+        <v>44938</v>
+      </c>
+      <c r="B21" s="52">
         <v>9.5623000000000005</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="44">
         <v>0</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="44">
         <v>9.5623000000000005</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
       <c r="O21" s="16">
         <f>SUM(O19:O20)</f>
         <v>6.1954000000000002</v>
@@ -51344,43 +51332,43 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
-        <v>44573</v>
-      </c>
-      <c r="B22" s="54">
-        <v>9.5623000000000005</v>
-      </c>
-      <c r="C22" s="46">
+        <v>45028</v>
+      </c>
+      <c r="B22" s="52">
+        <v>9.3544999999999998</v>
+      </c>
+      <c r="C22" s="44">
         <v>0</v>
       </c>
-      <c r="D22" s="46">
-        <v>9.5623000000000005</v>
+      <c r="D22" s="44">
+        <v>9.3544999999999998</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="60">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.8337542891502383</v>
+        <v>0.92267633676528926</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
-        <v>44663</v>
-      </c>
-      <c r="B23" s="54">
-        <v>9.3544999999999998</v>
-      </c>
-      <c r="C23" s="46">
+        <v>45119</v>
+      </c>
+      <c r="B23" s="52">
+        <v>9.4583999999999993</v>
+      </c>
+      <c r="C23" s="44">
         <v>0</v>
       </c>
-      <c r="D23" s="46">
-        <v>9.3544999999999998</v>
+      <c r="D23" s="44">
+        <v>9.4583999999999993</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="26" t="s">
         <v>36</v>
       </c>
       <c r="J23" s="16">
@@ -51392,42 +51380,42 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>494</v>
-      </c>
-      <c r="P23" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="P23" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="62">
+      <c r="Q23" s="60">
         <f ca="1">XIRR(Q18:Q20,N18:N20)</f>
-        <v>0.65562686324119579</v>
+        <v>1.1709546923637393</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
-        <v>44754</v>
-      </c>
-      <c r="B24" s="54">
-        <v>9.4583999999999993</v>
-      </c>
-      <c r="C24" s="46">
+        <v>45211</v>
+      </c>
+      <c r="B24" s="52">
+        <v>9.5623000000000005</v>
+      </c>
+      <c r="C24" s="44">
         <v>0</v>
       </c>
-      <c r="D24" s="46">
-        <v>9.4583999999999993</v>
+      <c r="D24" s="44">
+        <v>9.5623000000000005</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="64">
         <f>J23*100/-J15</f>
         <v>95.555555555555557</v>
       </c>
@@ -51436,9 +51424,9 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>16.466666666666665</v>
-      </c>
-      <c r="P24" s="66" t="s">
+        <v>15.566666666666666</v>
+      </c>
+      <c r="P24" s="64" t="s">
         <v>36</v>
       </c>
       <c r="Q24" s="16">
@@ -51450,36 +51438,36 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>3.8666666666666667</v>
+        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
-        <v>44846</v>
-      </c>
-      <c r="B25" s="54">
-        <v>9.5623000000000005</v>
-      </c>
-      <c r="C25" s="46">
+        <v>45303</v>
+      </c>
+      <c r="B25" s="52">
+        <v>9.5361999999999991</v>
+      </c>
+      <c r="C25" s="44">
         <v>0</v>
       </c>
-      <c r="D25" s="46">
-        <v>9.5623000000000005</v>
+      <c r="D25" s="44">
+        <v>9.5361999999999991</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="64">
         <f ca="1">J24/L24</f>
-        <v>5.8029689608636987</v>
+        <v>6.138472519628837</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>116</v>
-      </c>
-      <c r="P25" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="64" t="s">
         <v>37</v>
       </c>
       <c r="Q25" s="16">
@@ -51490,16 +51478,16 @@
     </row>
     <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
-        <v>44938</v>
-      </c>
-      <c r="B26" s="54">
-        <v>9.5623000000000005</v>
-      </c>
-      <c r="C26" s="46">
+        <v>45394</v>
+      </c>
+      <c r="B26" s="52">
+        <v>9.4324999999999992</v>
+      </c>
+      <c r="C26" s="44">
         <v>0</v>
       </c>
-      <c r="D26" s="46">
-        <v>9.5623000000000005</v>
+      <c r="D26" s="44">
+        <v>9.4324999999999992</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -51507,29 +51495,29 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>24</v>
-      </c>
-      <c r="P26" s="66" t="s">
+        <v>-3</v>
+      </c>
+      <c r="P26" s="64" t="s">
         <v>38</v>
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>2.9980428704566644</v>
+        <v>3.9075614940783487</v>
       </c>
       <c r="S26" s="22"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
-        <v>45028</v>
-      </c>
-      <c r="B27" s="54">
-        <v>9.3544999999999998</v>
-      </c>
-      <c r="C27" s="46">
+        <v>45485</v>
+      </c>
+      <c r="B27" s="52">
+        <v>9.4324999999999992</v>
+      </c>
+      <c r="C27" s="44">
         <v>0</v>
       </c>
-      <c r="D27" s="46">
-        <v>9.3544999999999998</v>
+      <c r="D27" s="44">
+        <v>9.4324999999999992</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -51539,16 +51527,16 @@
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
-        <v>45119</v>
-      </c>
-      <c r="B28" s="54">
-        <v>9.4583999999999993</v>
-      </c>
-      <c r="C28" s="46">
+        <v>45577</v>
+      </c>
+      <c r="B28" s="52">
+        <v>9.5361999999999991</v>
+      </c>
+      <c r="C28" s="44">
         <v>0</v>
       </c>
-      <c r="D28" s="46">
-        <v>9.4583999999999993</v>
+      <c r="D28" s="44">
+        <v>9.5361999999999991</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -51558,253 +51546,187 @@
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
-        <v>45211</v>
-      </c>
-      <c r="B29" s="54">
+        <v>45669</v>
+      </c>
+      <c r="B29" s="52">
         <v>9.5623000000000005</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="44">
         <v>0</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="44">
         <v>9.5623000000000005</v>
       </c>
       <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
-        <v>45303</v>
-      </c>
-      <c r="B30" s="54">
-        <v>9.5361999999999991</v>
-      </c>
-      <c r="C30" s="46">
-        <v>0</v>
-      </c>
-      <c r="D30" s="46">
-        <v>9.5361999999999991</v>
+      <c r="A30" s="33">
+        <v>45759</v>
+      </c>
+      <c r="B30" s="53">
+        <v>9.3544999999999998</v>
+      </c>
+      <c r="C30" s="45">
+        <v>100</v>
+      </c>
+      <c r="D30" s="45">
+        <v>109.3545</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
-        <v>45394</v>
-      </c>
-      <c r="B31" s="54">
-        <v>9.4324999999999992</v>
-      </c>
-      <c r="C31" s="46">
-        <v>0</v>
-      </c>
-      <c r="D31" s="46">
-        <v>9.4324999999999992</v>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="16">
+        <f>SUM(B15:B30)</f>
+        <v>151.7499</v>
+      </c>
+      <c r="C31" s="16">
+        <f>SUM(C15:C30)</f>
+        <v>100</v>
+      </c>
+      <c r="D31" s="16">
+        <f>SUM(D15:D30)</f>
+        <v>251.7499</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="N31" s="76"/>
+      <c r="N31" s="74"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
-        <v>45485</v>
-      </c>
-      <c r="B32" s="54">
-        <v>9.4324999999999992</v>
-      </c>
-      <c r="C32" s="46">
-        <v>0</v>
-      </c>
-      <c r="D32" s="46">
-        <v>9.4324999999999992</v>
-      </c>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
-        <v>45577</v>
-      </c>
-      <c r="B33" s="54">
-        <v>9.5361999999999991</v>
-      </c>
-      <c r="C33" s="46">
-        <v>0</v>
-      </c>
-      <c r="D33" s="46">
-        <v>9.5361999999999991</v>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="60" t="e">
+        <f ca="1">XIRR(D14:D30,A14:A30)</f>
+        <v>#NUM!</v>
       </c>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
-        <v>45669</v>
-      </c>
-      <c r="B34" s="54">
-        <v>9.5623000000000005</v>
-      </c>
-      <c r="C34" s="46">
-        <v>0</v>
-      </c>
-      <c r="D34" s="46">
-        <v>9.5623000000000005</v>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C34" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="1">
+        <f>(D31-(-D14))</f>
+        <v>166.7499</v>
       </c>
       <c r="E34" t="s">
         <v>34</v>
       </c>
       <c r="F34">
-        <f ca="1">A35-A19</f>
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35">
-        <v>45759</v>
-      </c>
-      <c r="B35" s="55">
-        <v>9.3544999999999998</v>
-      </c>
-      <c r="C35" s="47">
-        <v>100</v>
-      </c>
-      <c r="D35" s="47">
-        <v>109.3545</v>
+        <f ca="1">A30-A14</f>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C35" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1">
+        <f>D34*100/-D14</f>
+        <v>196.17635294117645</v>
       </c>
       <c r="E35" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>34.56666666666667</v>
+        <v>33.666666666666664</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="16">
-        <f>SUM(B20:B35)</f>
-        <v>151.7499</v>
-      </c>
-      <c r="C36" s="16">
-        <f>SUM(C20:C35)</f>
-        <v>100</v>
-      </c>
-      <c r="D36" s="16">
-        <f>SUM(D20:D35)</f>
-        <v>251.7499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="62" t="e">
-        <f ca="1">XIRR(D19:D35,A19:A35)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C39" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="1">
-        <f>(D36-(-D19))</f>
-        <v>166.7499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C40" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="1">
-        <f>D39*100/-D19</f>
-        <v>196.17635294117645</v>
+      <c r="C36" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <f ca="1">D35/F35</f>
+        <v>5.8270203843913801</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41">
-        <f ca="1">D40/F35</f>
-        <v>5.6753043280957503</v>
-      </c>
-      <c r="F41" s="39"/>
+      <c r="F41" s="37"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T42" s="22"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F43" s="62"/>
+      <c r="F43" s="60"/>
       <c r="T43" s="22"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T44" s="22"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T45" s="22"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="49">
+        <f ca="1">XIRR(J15:J19,G15:G19)</f>
+        <v>0.92267633676528926</v>
+      </c>
       <c r="T46" s="22"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T47" s="22"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T48" s="22"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+    </row>
+    <row r="49" spans="5:23" x14ac:dyDescent="0.25">
       <c r="T49" s="22"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+    </row>
+    <row r="50" spans="5:23" x14ac:dyDescent="0.25">
       <c r="T50" s="22"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="51">
-        <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.8337542891502383</v>
-      </c>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+    </row>
+    <row r="51" spans="5:23" x14ac:dyDescent="0.25">
       <c r="T51" s="22"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E54" s="28"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+    </row>
+    <row r="54" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E54" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51891,7 +51813,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="77"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -51908,7 +51830,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="77"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -51925,7 +51847,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="77"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -51952,7 +51874,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="77"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -51979,7 +51901,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="77"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -52006,7 +51928,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="77"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -52033,7 +51955,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="77"/>
+      <c r="M8" s="75"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -52060,7 +51982,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="77"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -52087,7 +52009,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="77"/>
+      <c r="M10" s="75"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -52114,7 +52036,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="77"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -52141,7 +52063,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="77"/>
+      <c r="M12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -52168,7 +52090,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="77"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -52195,7 +52117,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="77"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -52222,7 +52144,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="77"/>
+      <c r="M15" s="75"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -52249,7 +52171,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="77"/>
+      <c r="M16" s="75"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -52276,7 +52198,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="77"/>
+      <c r="M17" s="75"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -52303,7 +52225,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="77"/>
+      <c r="M18" s="75"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -52330,7 +52252,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="77"/>
+      <c r="M19" s="75"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -52357,7 +52279,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="77"/>
+      <c r="M20" s="75"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -52384,7 +52306,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="77"/>
+      <c r="M21" s="75"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -52411,7 +52333,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="77"/>
+      <c r="M22" s="75"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
@@ -52438,7 +52360,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="77"/>
+      <c r="M23" s="75"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -52465,7 +52387,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="77"/>
+      <c r="M24" s="75"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
@@ -52492,7 +52414,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="77"/>
+      <c r="M25" s="75"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
@@ -52519,7 +52441,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="77"/>
+      <c r="M26" s="75"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
@@ -52546,7 +52468,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="77"/>
+      <c r="M27" s="75"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
@@ -52573,7 +52495,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="77"/>
+      <c r="M28" s="75"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -52600,7 +52522,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="77"/>
+      <c r="M29" s="75"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
@@ -52627,7 +52549,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="77"/>
+      <c r="M30" s="75"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -52654,7 +52576,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="77"/>
+      <c r="M31" s="75"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
@@ -52681,7 +52603,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="77"/>
+      <c r="M32" s="75"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
@@ -52708,7 +52630,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="77"/>
+      <c r="M33" s="75"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
@@ -52735,7 +52657,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="77"/>
+      <c r="M34" s="75"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
@@ -52762,7 +52684,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="77"/>
+      <c r="M35" s="75"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
@@ -66603,565 +66525,565 @@
       </c>
     </row>
     <row r="2" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="B2" s="76">
+      <c r="B2" s="74">
         <v>44081</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="74">
         <v>44082</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="74">
         <v>44083</v>
       </c>
-      <c r="E2" s="76">
+      <c r="E2" s="74">
         <v>44084</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="74">
         <v>44085</v>
       </c>
-      <c r="G2" s="76">
+      <c r="G2" s="74">
         <v>44088</v>
       </c>
-      <c r="H2" s="76">
+      <c r="H2" s="74">
         <v>44089</v>
       </c>
-      <c r="I2" s="76">
+      <c r="I2" s="74">
         <v>44090</v>
       </c>
-      <c r="J2" s="76">
+      <c r="J2" s="74">
         <v>44091</v>
       </c>
-      <c r="K2" s="76">
+      <c r="K2" s="74">
         <v>44092</v>
       </c>
-      <c r="L2" s="76">
+      <c r="L2" s="74">
         <v>44095</v>
       </c>
-      <c r="M2" s="76">
+      <c r="M2" s="74">
         <v>44096</v>
       </c>
-      <c r="N2" s="76">
+      <c r="N2" s="74">
         <v>44097</v>
       </c>
-      <c r="O2" s="76">
+      <c r="O2" s="74">
         <v>44098</v>
       </c>
-      <c r="P2" s="76">
+      <c r="P2" s="74">
         <v>44099</v>
       </c>
-      <c r="Q2" s="76">
+      <c r="Q2" s="74">
         <v>44102</v>
       </c>
-      <c r="R2" s="76">
+      <c r="R2" s="74">
         <v>44103</v>
       </c>
-      <c r="S2" s="76">
+      <c r="S2" s="74">
         <v>44104</v>
       </c>
-      <c r="T2" s="76">
+      <c r="T2" s="74">
         <v>44105</v>
       </c>
-      <c r="U2" s="76">
+      <c r="U2" s="74">
         <v>44106</v>
       </c>
-      <c r="V2" s="76">
+      <c r="V2" s="74">
         <v>44109</v>
       </c>
-      <c r="W2" s="76">
+      <c r="W2" s="74">
         <v>44110</v>
       </c>
-      <c r="X2" s="76">
+      <c r="X2" s="74">
         <v>44111</v>
       </c>
-      <c r="Y2" s="76">
+      <c r="Y2" s="74">
         <v>44112</v>
       </c>
-      <c r="Z2" s="76">
+      <c r="Z2" s="74">
         <v>44113</v>
       </c>
-      <c r="AA2" s="76">
+      <c r="AA2" s="74">
         <v>44117</v>
       </c>
-      <c r="AB2" s="76">
+      <c r="AB2" s="74">
         <v>44118</v>
       </c>
-      <c r="AC2" s="76">
+      <c r="AC2" s="74">
         <v>44119</v>
       </c>
-      <c r="AD2" s="76">
+      <c r="AD2" s="74">
         <v>44120</v>
       </c>
-      <c r="AE2" s="76">
+      <c r="AE2" s="74">
         <v>44123</v>
       </c>
-      <c r="AF2" s="76">
+      <c r="AF2" s="74">
         <v>44124</v>
       </c>
-      <c r="AG2" s="76">
+      <c r="AG2" s="74">
         <v>44125</v>
       </c>
-      <c r="AH2" s="76">
+      <c r="AH2" s="74">
         <v>44126</v>
       </c>
-      <c r="AI2" s="76">
+      <c r="AI2" s="74">
         <v>44127</v>
       </c>
-      <c r="AJ2" s="76">
+      <c r="AJ2" s="74">
         <v>44130</v>
       </c>
-      <c r="AK2" s="76">
+      <c r="AK2" s="74">
         <v>44131</v>
       </c>
-      <c r="AL2" s="76">
+      <c r="AL2" s="74">
         <v>44132</v>
       </c>
-      <c r="AM2" s="76">
+      <c r="AM2" s="74">
         <v>44133</v>
       </c>
-      <c r="AN2" s="76">
+      <c r="AN2" s="74">
         <v>44134</v>
       </c>
-      <c r="AO2" s="76">
+      <c r="AO2" s="74">
         <v>44137</v>
       </c>
-      <c r="AP2" s="76">
+      <c r="AP2" s="74">
         <v>44138</v>
       </c>
-      <c r="AQ2" s="76">
+      <c r="AQ2" s="74">
         <v>44139</v>
       </c>
-      <c r="AR2" s="76">
+      <c r="AR2" s="74">
         <v>44140</v>
       </c>
-      <c r="AS2" s="76">
+      <c r="AS2" s="74">
         <v>44141</v>
       </c>
-      <c r="AT2" s="76">
+      <c r="AT2" s="74">
         <v>44144</v>
       </c>
-      <c r="AU2" s="76">
+      <c r="AU2" s="74">
         <v>44145</v>
       </c>
-      <c r="AV2" s="76">
+      <c r="AV2" s="74">
         <v>44146</v>
       </c>
-      <c r="AW2" s="76">
+      <c r="AW2" s="74">
         <v>44147</v>
       </c>
-      <c r="AX2" s="76">
+      <c r="AX2" s="74">
         <v>44148</v>
       </c>
-      <c r="AY2" s="76">
+      <c r="AY2" s="74">
         <v>44151</v>
       </c>
-      <c r="AZ2" s="76">
+      <c r="AZ2" s="74">
         <v>44152</v>
       </c>
-      <c r="BA2" s="76">
+      <c r="BA2" s="74">
         <v>44153</v>
       </c>
-      <c r="BB2" s="76">
+      <c r="BB2" s="74">
         <v>44154</v>
       </c>
-      <c r="BC2" s="76">
+      <c r="BC2" s="74">
         <v>44155</v>
       </c>
-      <c r="BD2" s="76">
+      <c r="BD2" s="74">
         <v>44159</v>
       </c>
-      <c r="BE2" s="76">
+      <c r="BE2" s="74">
         <v>44160</v>
       </c>
-      <c r="BF2" s="76">
+      <c r="BF2" s="74">
         <v>44161</v>
       </c>
-      <c r="BG2" s="76">
+      <c r="BG2" s="74">
         <v>44162</v>
       </c>
-      <c r="BH2" s="76">
+      <c r="BH2" s="74">
         <v>44165</v>
       </c>
-      <c r="BI2" s="76">
+      <c r="BI2" s="74">
         <v>44166</v>
       </c>
-      <c r="BJ2" s="76">
+      <c r="BJ2" s="74">
         <v>44167</v>
       </c>
-      <c r="BK2" s="76">
+      <c r="BK2" s="74">
         <v>44168</v>
       </c>
-      <c r="BL2" s="76">
+      <c r="BL2" s="74">
         <v>44169</v>
       </c>
-      <c r="BM2" s="76">
+      <c r="BM2" s="74">
         <v>44174</v>
       </c>
-      <c r="BN2" s="76">
+      <c r="BN2" s="74">
         <v>44175</v>
       </c>
-      <c r="BO2" s="76">
+      <c r="BO2" s="74">
         <v>44176</v>
       </c>
-      <c r="BP2" s="76">
+      <c r="BP2" s="74">
         <v>44179</v>
       </c>
-      <c r="BQ2" s="76">
+      <c r="BQ2" s="74">
         <v>44180</v>
       </c>
-      <c r="BR2" s="76">
+      <c r="BR2" s="74">
         <v>44181</v>
       </c>
-      <c r="BS2" s="76">
+      <c r="BS2" s="74">
         <v>44182</v>
       </c>
-      <c r="BT2" s="76">
+      <c r="BT2" s="74">
         <v>44183</v>
       </c>
-      <c r="BU2" s="76">
+      <c r="BU2" s="74">
         <v>44186</v>
       </c>
-      <c r="BV2" s="76">
+      <c r="BV2" s="74">
         <v>44187</v>
       </c>
-      <c r="BW2" s="76">
+      <c r="BW2" s="74">
         <v>44188</v>
       </c>
-      <c r="BX2" s="76">
+      <c r="BX2" s="74">
         <v>44193</v>
       </c>
-      <c r="BY2" s="76">
+      <c r="BY2" s="74">
         <v>44194</v>
       </c>
-      <c r="BZ2" s="76">
+      <c r="BZ2" s="74">
         <v>44195</v>
       </c>
-      <c r="CA2" s="76">
+      <c r="CA2" s="74">
         <v>44200</v>
       </c>
-      <c r="CB2" s="76">
+      <c r="CB2" s="74">
         <v>44201</v>
       </c>
-      <c r="CC2" s="76">
+      <c r="CC2" s="74">
         <v>44202</v>
       </c>
-      <c r="CD2" s="76">
+      <c r="CD2" s="74">
         <v>44203</v>
       </c>
-      <c r="CE2" s="76">
+      <c r="CE2" s="74">
         <v>44204</v>
       </c>
-      <c r="CF2" s="76">
+      <c r="CF2" s="74">
         <v>44207</v>
       </c>
-      <c r="CG2" s="76">
+      <c r="CG2" s="74">
         <v>44208</v>
       </c>
-      <c r="CH2" s="76">
+      <c r="CH2" s="74">
         <v>44209</v>
       </c>
-      <c r="CI2" s="76">
+      <c r="CI2" s="74">
         <v>44210</v>
       </c>
-      <c r="CJ2" s="76">
+      <c r="CJ2" s="74">
         <v>44211</v>
       </c>
-      <c r="CK2" s="76">
+      <c r="CK2" s="74">
         <v>44214</v>
       </c>
-      <c r="CL2" s="76">
+      <c r="CL2" s="74">
         <v>44215</v>
       </c>
-      <c r="CM2" s="76">
+      <c r="CM2" s="74">
         <v>44216</v>
       </c>
-      <c r="CN2" s="76">
+      <c r="CN2" s="74">
         <v>44217</v>
       </c>
-      <c r="CO2" s="76">
+      <c r="CO2" s="74">
         <v>44218</v>
       </c>
-      <c r="CP2" s="76">
+      <c r="CP2" s="74">
         <v>44221</v>
       </c>
-      <c r="CQ2" s="76">
+      <c r="CQ2" s="74">
         <v>44222</v>
       </c>
-      <c r="CR2" s="76">
+      <c r="CR2" s="74">
         <v>44223</v>
       </c>
-      <c r="CS2" s="76">
+      <c r="CS2" s="74">
         <v>44224</v>
       </c>
-      <c r="CT2" s="76">
+      <c r="CT2" s="74">
         <v>44225</v>
       </c>
-      <c r="CU2" s="76">
+      <c r="CU2" s="74">
         <v>44228</v>
       </c>
-      <c r="CV2" s="76">
+      <c r="CV2" s="74">
         <v>44229</v>
       </c>
-      <c r="CW2" s="76">
+      <c r="CW2" s="74">
         <v>44230</v>
       </c>
-      <c r="CX2" s="76">
+      <c r="CX2" s="74">
         <v>44231</v>
       </c>
-      <c r="CY2" s="76">
+      <c r="CY2" s="74">
         <v>44232</v>
       </c>
-      <c r="CZ2" s="76">
+      <c r="CZ2" s="74">
         <v>44235</v>
       </c>
-      <c r="DA2" s="76">
+      <c r="DA2" s="74">
         <v>44236</v>
       </c>
-      <c r="DB2" s="76">
+      <c r="DB2" s="74">
         <v>44237</v>
       </c>
-      <c r="DC2" s="76">
+      <c r="DC2" s="74">
         <v>44238</v>
       </c>
-      <c r="DD2" s="76">
+      <c r="DD2" s="74">
         <v>44239</v>
       </c>
-      <c r="DE2" s="76">
+      <c r="DE2" s="74">
         <v>44244</v>
       </c>
-      <c r="DF2" s="76">
+      <c r="DF2" s="74">
         <v>44245</v>
       </c>
-      <c r="DG2" s="76">
+      <c r="DG2" s="74">
         <v>44246</v>
       </c>
-      <c r="DH2" s="76">
+      <c r="DH2" s="74">
         <v>44249</v>
       </c>
-      <c r="DI2" s="76">
+      <c r="DI2" s="74">
         <v>44250</v>
       </c>
-      <c r="DJ2" s="76">
+      <c r="DJ2" s="74">
         <v>44251</v>
       </c>
-      <c r="DK2" s="76">
+      <c r="DK2" s="74">
         <v>44252</v>
       </c>
-      <c r="DL2" s="76">
+      <c r="DL2" s="74">
         <v>44253</v>
       </c>
-      <c r="DM2" s="76">
+      <c r="DM2" s="74">
         <v>44256</v>
       </c>
-      <c r="DN2" s="76">
+      <c r="DN2" s="74">
         <v>44257</v>
       </c>
-      <c r="DO2" s="76">
+      <c r="DO2" s="74">
         <v>44258</v>
       </c>
-      <c r="DP2" s="76">
+      <c r="DP2" s="74">
         <v>44259</v>
       </c>
-      <c r="DQ2" s="76">
+      <c r="DQ2" s="74">
         <v>44260</v>
       </c>
-      <c r="DR2" s="76">
+      <c r="DR2" s="74">
         <v>44263</v>
       </c>
-      <c r="DS2" s="76">
+      <c r="DS2" s="74">
         <v>44264</v>
       </c>
-      <c r="DT2" s="76">
+      <c r="DT2" s="74">
         <v>44265</v>
       </c>
-      <c r="DU2" s="76">
+      <c r="DU2" s="74">
         <v>44266</v>
       </c>
-      <c r="DV2" s="76">
+      <c r="DV2" s="74">
         <v>44267</v>
       </c>
-      <c r="DW2" s="76">
+      <c r="DW2" s="74">
         <v>44270</v>
       </c>
-      <c r="DX2" s="76">
+      <c r="DX2" s="74">
         <v>44271</v>
       </c>
-      <c r="DY2" s="76">
+      <c r="DY2" s="74">
         <v>44272</v>
       </c>
-      <c r="DZ2" s="76">
+      <c r="DZ2" s="74">
         <v>44273</v>
       </c>
-      <c r="EA2" s="76">
+      <c r="EA2" s="74">
         <v>44274</v>
       </c>
-      <c r="EB2" s="76">
+      <c r="EB2" s="74">
         <v>44277</v>
       </c>
-      <c r="EC2" s="76">
+      <c r="EC2" s="74">
         <v>44278</v>
       </c>
-      <c r="ED2" s="76">
+      <c r="ED2" s="74">
         <v>44280</v>
       </c>
-      <c r="EE2" s="76">
+      <c r="EE2" s="74">
         <v>44281</v>
       </c>
-      <c r="EF2" s="76">
+      <c r="EF2" s="74">
         <v>44284</v>
       </c>
-      <c r="EG2" s="76">
+      <c r="EG2" s="74">
         <v>44285</v>
       </c>
-      <c r="EH2" s="76">
+      <c r="EH2" s="74">
         <v>44286</v>
       </c>
-      <c r="EI2" s="76">
+      <c r="EI2" s="74">
         <v>44291</v>
       </c>
-      <c r="EJ2" s="76">
+      <c r="EJ2" s="74">
         <v>44292</v>
       </c>
-      <c r="EK2" s="76">
+      <c r="EK2" s="74">
         <v>44293</v>
       </c>
-      <c r="EL2" s="76">
+      <c r="EL2" s="74">
         <v>44294</v>
       </c>
-      <c r="EM2" s="76">
+      <c r="EM2" s="74">
         <v>44295</v>
       </c>
-      <c r="EN2" s="76">
+      <c r="EN2" s="74">
         <v>44298</v>
       </c>
-      <c r="EO2" s="76">
+      <c r="EO2" s="74">
         <v>44299</v>
       </c>
-      <c r="EP2" s="76">
+      <c r="EP2" s="74">
         <v>44300</v>
       </c>
-      <c r="EQ2" s="76">
+      <c r="EQ2" s="74">
         <v>44301</v>
       </c>
-      <c r="ER2" s="76">
+      <c r="ER2" s="74">
         <v>44302</v>
       </c>
-      <c r="ES2" s="76">
+      <c r="ES2" s="74">
         <v>44305</v>
       </c>
-      <c r="ET2" s="76">
+      <c r="ET2" s="74">
         <v>44306</v>
       </c>
-      <c r="EU2" s="76">
+      <c r="EU2" s="74">
         <v>44307</v>
       </c>
-      <c r="EV2" s="76">
+      <c r="EV2" s="74">
         <v>44308</v>
       </c>
-      <c r="EW2" s="76">
+      <c r="EW2" s="74">
         <v>44309</v>
       </c>
-      <c r="EX2" s="76">
+      <c r="EX2" s="74">
         <v>44312</v>
       </c>
-      <c r="EY2" s="76">
+      <c r="EY2" s="74">
         <v>44313</v>
       </c>
-      <c r="EZ2" s="76">
+      <c r="EZ2" s="74">
         <v>44314</v>
       </c>
-      <c r="FA2" s="76">
+      <c r="FA2" s="74">
         <v>44315</v>
       </c>
-      <c r="FB2" s="76">
+      <c r="FB2" s="74">
         <v>44316</v>
       </c>
-      <c r="FC2" s="76">
+      <c r="FC2" s="74">
         <v>44319</v>
       </c>
-      <c r="FD2" s="76">
+      <c r="FD2" s="74">
         <v>44320</v>
       </c>
-      <c r="FE2" s="76">
+      <c r="FE2" s="74">
         <v>44321</v>
       </c>
-      <c r="FF2" s="76">
+      <c r="FF2" s="74">
         <v>44322</v>
       </c>
-      <c r="FG2" s="76">
+      <c r="FG2" s="74">
         <v>44323</v>
       </c>
-      <c r="FH2" s="76">
+      <c r="FH2" s="74">
         <v>44326</v>
       </c>
-      <c r="FI2" s="76">
+      <c r="FI2" s="74">
         <v>44327</v>
       </c>
-      <c r="FJ2" s="76">
+      <c r="FJ2" s="74">
         <v>44328</v>
       </c>
-      <c r="FK2" s="76">
+      <c r="FK2" s="74">
         <v>44329</v>
       </c>
-      <c r="FL2" s="76">
+      <c r="FL2" s="74">
         <v>44330</v>
       </c>
-      <c r="FM2" s="76">
+      <c r="FM2" s="74">
         <v>44333</v>
       </c>
-      <c r="FN2" s="76">
+      <c r="FN2" s="74">
         <v>44334</v>
       </c>
-      <c r="FO2" s="76">
+      <c r="FO2" s="74">
         <v>44335</v>
       </c>
-      <c r="FP2" s="76">
+      <c r="FP2" s="74">
         <v>44336</v>
       </c>
-      <c r="FQ2" s="76">
+      <c r="FQ2" s="74">
         <v>44337</v>
       </c>
-      <c r="FR2" s="76">
+      <c r="FR2" s="74">
         <v>44342</v>
       </c>
-      <c r="FS2" s="76">
+      <c r="FS2" s="74">
         <v>44343</v>
       </c>
-      <c r="FT2" s="76">
+      <c r="FT2" s="74">
         <v>44344</v>
       </c>
-      <c r="FU2" s="76">
+      <c r="FU2" s="74">
         <v>44347</v>
       </c>
-      <c r="FV2" s="76">
+      <c r="FV2" s="74">
         <v>44348</v>
       </c>
-      <c r="FW2" s="76">
+      <c r="FW2" s="74">
         <v>44349</v>
       </c>
-      <c r="FX2" s="76">
+      <c r="FX2" s="74">
         <v>44350</v>
       </c>
-      <c r="FY2" s="76">
+      <c r="FY2" s="74">
         <v>44351</v>
       </c>
-      <c r="FZ2" s="76">
+      <c r="FZ2" s="74">
         <v>44354</v>
       </c>
-      <c r="GA2" s="76">
+      <c r="GA2" s="74">
         <v>44355</v>
       </c>
-      <c r="GB2" s="76">
+      <c r="GB2" s="74">
         <v>44356</v>
       </c>
-      <c r="GC2" s="76">
+      <c r="GC2" s="74">
         <v>44357</v>
       </c>
-      <c r="GD2" s="76">
+      <c r="GD2" s="74">
         <v>44358</v>
       </c>
-      <c r="GE2" s="76" t="s">
+      <c r="GE2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="GF2" s="76" t="s">
+      <c r="GF2" s="74" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="91">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -290,6 +290,30 @@
   <si>
     <t>224000 amort + 25791,58 renta</t>
   </si>
+  <si>
+    <t>estan en 275 al30</t>
+  </si>
+  <si>
+    <t>IOL</t>
+  </si>
+  <si>
+    <t>Estan en 800 al41</t>
+  </si>
+  <si>
+    <t>estan en 218 al30</t>
+  </si>
+  <si>
+    <t>estan en 211 al30</t>
+  </si>
+  <si>
+    <t>estan en 208 al30</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>invertido en 257 ae38</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +321,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1119,7 +1143,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1243,7 +1267,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -50430,10 +50459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50441,7 +50470,7 @@
     <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>46</v>
       </c>
@@ -50458,7 +50487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="62">
         <v>44208</v>
       </c>
@@ -50486,8 +50515,22 @@
       <c r="K2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79">
+        <v>6016</v>
+      </c>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="80">
+        <v>44588</v>
+      </c>
+      <c r="S2" s="78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="62">
         <v>44298</v>
       </c>
@@ -50515,8 +50558,20 @@
       <c r="K3">
         <v>115000</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81">
+        <v>6305</v>
+      </c>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="82">
+        <v>44741</v>
+      </c>
+      <c r="S3" s="78"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>44305</v>
       </c>
@@ -50538,8 +50593,16 @@
       <c r="H4" s="61">
         <v>12488</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>44389</v>
       </c>
@@ -50567,8 +50630,14 @@
       <c r="J5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="78"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="62">
         <v>44481</v>
       </c>
@@ -50596,8 +50665,22 @@
       <c r="J6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78">
+        <v>5703</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="80">
+        <v>44670</v>
+      </c>
+      <c r="S6" s="78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>44487</v>
       </c>
@@ -50622,8 +50705,22 @@
       <c r="J7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78">
+        <v>6027.5</v>
+      </c>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="80">
+        <v>44574</v>
+      </c>
+      <c r="S7" s="78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
         <v>44573</v>
       </c>
@@ -50645,8 +50742,22 @@
       <c r="H8" s="61">
         <v>12800</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="78"/>
+      <c r="P8" s="81">
+        <v>5841.5</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="80">
+        <v>44655</v>
+      </c>
+      <c r="S8" s="78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
         <v>44663</v>
       </c>
@@ -50668,8 +50779,16 @@
       <c r="H9" s="61">
         <v>13720</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>44669</v>
       </c>
@@ -50688,16 +50807,39 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>44754</v>
       </c>
       <c r="B11" s="63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>16526.55</v>
+      </c>
+      <c r="D11">
+        <v>16443.919999999998</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <v>44846</v>
       </c>
@@ -50705,7 +50847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <v>44851</v>
       </c>
@@ -50713,7 +50855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
         <v>44938</v>
       </c>
@@ -50721,7 +50863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
         <v>45028</v>
       </c>
@@ -50729,7 +50871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
         <v>45033</v>
       </c>
@@ -50822,8 +50964,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50890,7 +51032,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <f ca="1">TODAY()</f>
-        <v>44749</v>
+        <v>44756</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -50960,7 +51102,7 @@
       </c>
       <c r="D8" s="49">
         <f ca="1">XIRR(D5:D6,A5:A6)</f>
-        <v>0.6190477550029756</v>
+        <v>0.68703187108039854</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="22"/>
@@ -51067,7 +51209,7 @@
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f ca="1">TODAY()</f>
-        <v>44749</v>
+        <v>44756</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="46"/>
@@ -51105,7 +51247,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="48">
         <f ca="1">TODAY()</f>
-        <v>44749</v>
+        <v>44756</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="55"/>
@@ -51209,7 +51351,7 @@
       </c>
       <c r="N18" s="48">
         <f ca="1">TODAY()</f>
-        <v>44749</v>
+        <v>44756</v>
       </c>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -51350,7 +51492,7 @@
       </c>
       <c r="J22" s="60">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.92267633676528926</v>
+        <v>0.94909332990646367</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51380,21 +51522,21 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="P23" s="64" t="s">
         <v>60</v>
       </c>
       <c r="Q23" s="60">
         <f ca="1">XIRR(Q18:Q20,N18:N20)</f>
-        <v>1.1709546923637393</v>
+        <v>1.4695949673652648</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51424,7 +51566,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>15.566666666666666</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="P24" s="64" t="s">
         <v>36</v>
@@ -51438,7 +51580,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>2.9666666666666668</v>
+        <v>2.7333333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51461,11 +51603,11 @@
       </c>
       <c r="J25" s="64">
         <f ca="1">J24/L24</f>
-        <v>6.138472519628837</v>
+        <v>6.2318840579710146</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P25" s="64" t="s">
         <v>37</v>
@@ -51495,14 +51637,14 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="P26" s="64" t="s">
         <v>38</v>
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>3.9075614940783487</v>
+        <v>4.2411338167435737</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51622,7 +51764,7 @@
       </c>
       <c r="F34">
         <f ca="1">A30-A14</f>
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -51638,7 +51780,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>33.666666666666664</v>
+        <v>33.43333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51647,7 +51789,7 @@
       </c>
       <c r="D36">
         <f ca="1">D35/F35</f>
-        <v>5.8270203843913801</v>
+        <v>5.8676875256583187</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -51690,7 +51832,7 @@
       </c>
       <c r="D46" s="49">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.92267633676528926</v>
+        <v>0.94909332990646367</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="26"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>invertido en 257 ae38</t>
+  </si>
+  <si>
+    <t>Reinvertida en 245 AL30</t>
   </si>
 </sst>
 </file>
@@ -14186,6 +14189,7 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15432,6 +15436,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -44812,7 +44817,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45137,7 +45142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>44746</v>
       </c>
@@ -45150,8 +45155,11 @@
       <c r="D17">
         <v>128521.59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>44838</v>
       </c>
@@ -50461,8 +50469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51032,7 +51040,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <f ca="1">TODAY()</f>
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -51102,7 +51110,7 @@
       </c>
       <c r="D8" s="49">
         <f ca="1">XIRR(D5:D6,A5:A6)</f>
-        <v>0.68703187108039854</v>
+        <v>0.86172114610672002</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="22"/>
@@ -51209,7 +51217,7 @@
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f ca="1">TODAY()</f>
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="46"/>
@@ -51247,7 +51255,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="48">
         <f ca="1">TODAY()</f>
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="55"/>
@@ -51351,7 +51359,7 @@
       </c>
       <c r="N18" s="48">
         <f ca="1">TODAY()</f>
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -51492,7 +51500,7 @@
       </c>
       <c r="J22" s="60">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.94909332990646367</v>
+        <v>1.002657759189606</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51522,21 +51530,21 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="P23" s="64" t="s">
         <v>60</v>
       </c>
       <c r="Q23" s="60">
         <f ca="1">XIRR(Q18:Q20,N18:N20)</f>
-        <v>1.4695949673652648</v>
+        <v>2.7859163522720345</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51566,7 +51574,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>15.333333333333334</v>
+        <v>14.9</v>
       </c>
       <c r="P24" s="64" t="s">
         <v>36</v>
@@ -51580,7 +51588,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>2.7333333333333334</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51603,11 +51611,11 @@
       </c>
       <c r="J25" s="64">
         <f ca="1">J24/L24</f>
-        <v>6.2318840579710146</v>
+        <v>6.4131245339299028</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P25" s="64" t="s">
         <v>37</v>
@@ -51637,14 +51645,14 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>-10</v>
+        <v>-23</v>
       </c>
       <c r="P26" s="64" t="s">
         <v>38</v>
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>4.2411338167435737</v>
+        <v>5.0401880141010595</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51764,7 +51772,7 @@
       </c>
       <c r="F34">
         <f ca="1">A30-A14</f>
-        <v>1003</v>
+        <v>990</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -51780,7 +51788,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>33.43333333333333</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51789,7 +51797,7 @@
       </c>
       <c r="D36">
         <f ca="1">D35/F35</f>
-        <v>5.8676875256583187</v>
+        <v>5.9447379679144374</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -51832,7 +51840,7 @@
       </c>
       <c r="D46" s="49">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>0.94909332990646367</v>
+        <v>1.002657759189606</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="26"/>
@@ -70938,8 +70946,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -316,6 +316,45 @@
   </si>
   <si>
     <t>Reinvertida en 245 AL30</t>
+  </si>
+  <si>
+    <t>Estan en 225 al41</t>
+  </si>
+  <si>
+    <t>estan en 225 al30</t>
+  </si>
+  <si>
+    <t>AL30</t>
+  </si>
+  <si>
+    <t>AL41</t>
+  </si>
+  <si>
+    <t>AL 10/7/2022 Cobre</t>
+  </si>
+  <si>
+    <t>usd17,6 de rentas de los al41</t>
+  </si>
+  <si>
+    <t>usd 6 de rentas de los al35 anteriores</t>
+  </si>
+  <si>
+    <t>valor bono</t>
+  </si>
+  <si>
+    <t>rentas</t>
+  </si>
+  <si>
+    <t>T023</t>
+  </si>
+  <si>
+    <t>257 AE38</t>
+  </si>
+  <si>
+    <t>usd 2,2 de rentas de los al30</t>
+  </si>
+  <si>
+    <t>AE38</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1185,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1276,6 +1315,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14189,7 +14238,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15436,7 +15484,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -50467,10 +50514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50511,9 +50558,10 @@
       <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="63" t="s">
         <v>49</v>
       </c>
+      <c r="G2" s="63"/>
       <c r="H2" s="61">
         <v>12502</v>
       </c>
@@ -50554,9 +50602,10 @@
       <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="63" t="s">
         <v>56</v>
       </c>
+      <c r="G3" s="63"/>
       <c r="H3" s="61">
         <v>12035</v>
       </c>
@@ -50595,19 +50644,22 @@
       <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="69" t="s">
         <v>59</v>
       </c>
+      <c r="G4" s="69"/>
       <c r="H4" s="61">
         <v>12488</v>
       </c>
-      <c r="N4" s="81"/>
+      <c r="N4" s="81" t="s">
+        <v>92</v>
+      </c>
       <c r="O4" s="81"/>
       <c r="P4" s="81"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
       <c r="S4" s="78" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -50626,10 +50678,10 @@
       <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="63" t="s">
         <v>67</v>
       </c>
       <c r="H5" s="61">
@@ -50661,10 +50713,10 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="63" t="s">
         <v>71</v>
       </c>
       <c r="H6" s="61">
@@ -50704,9 +50756,10 @@
       <c r="E7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="69" t="s">
         <v>72</v>
       </c>
+      <c r="G7" s="69"/>
       <c r="H7" s="61">
         <v>12597</v>
       </c>
@@ -50744,9 +50797,10 @@
       <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="63" t="s">
         <v>73</v>
       </c>
+      <c r="G8" s="63"/>
       <c r="H8" s="61">
         <v>12800</v>
       </c>
@@ -50781,11 +50835,15 @@
       <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="63" t="s">
         <v>81</v>
       </c>
+      <c r="G9" s="63"/>
       <c r="H9" s="61">
         <v>13720</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
       </c>
       <c r="N9" s="78"/>
       <c r="O9" s="78"/>
@@ -50812,10 +50870,16 @@
       <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="N10" s="78"/>
+      <c r="G10" s="69"/>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="78" t="s">
+        <v>93</v>
+      </c>
       <c r="O10" s="78"/>
       <c r="P10" s="78"/>
       <c r="Q10" s="78"/>
@@ -50824,7 +50888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="62">
         <v>44754</v>
       </c>
@@ -50840,8 +50904,12 @@
       <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="63" t="s">
         <v>90</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
       <c r="S11" t="s">
         <v>84</v>
@@ -50854,6 +50922,19 @@
       <c r="B12" s="63" t="s">
         <v>32</v>
       </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="90"/>
+      <c r="P12" s="84" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
@@ -50862,6 +50943,18 @@
       <c r="B13" s="69" t="s">
         <v>52</v>
       </c>
+      <c r="M13" s="85">
+        <v>0.22</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="86">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
@@ -50870,6 +50963,14 @@
       <c r="B14" s="63" t="s">
         <v>32</v>
       </c>
+      <c r="M14" s="85"/>
+      <c r="N14" s="22">
+        <v>225</v>
+      </c>
+      <c r="O14" s="22">
+        <v>225</v>
+      </c>
+      <c r="P14" s="86"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
@@ -50878,6 +50979,12 @@
       <c r="B15" s="63" t="s">
         <v>32</v>
       </c>
+      <c r="M15" s="85"/>
+      <c r="N15" s="22">
+        <v>211</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="86"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
@@ -50886,48 +50993,94 @@
       <c r="B16" s="69" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="M16" s="85"/>
+      <c r="N16" s="22">
+        <f>N15+N14</f>
+        <v>436</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="86"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
         <v>45119</v>
       </c>
       <c r="B17" s="63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="M17" s="85"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="86"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="62">
         <v>45211</v>
       </c>
       <c r="B18" s="63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="85"/>
+      <c r="N18" s="22">
+        <f>N16*M13</f>
+        <v>95.92</v>
+      </c>
+      <c r="O18" s="22">
+        <f>O14*P13</f>
+        <v>56.25</v>
+      </c>
+      <c r="P18" s="86"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>45216</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="88">
+        <v>1.5</v>
+      </c>
+      <c r="O19" s="88">
+        <v>5.6</v>
+      </c>
+      <c r="P19" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="66">
         <v>45303</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <f>N18+N19</f>
+        <v>97.42</v>
+      </c>
+      <c r="O20">
+        <f>O18+O19</f>
+        <v>61.85</v>
+      </c>
+      <c r="P20" s="64">
+        <f>O20+N20</f>
+        <v>159.27000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="66">
         <v>45394</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="64"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="66">
         <v>45485</v>
       </c>
@@ -50935,7 +51088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="66">
         <v>45577</v>
       </c>
@@ -50943,26 +51096,166 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="66">
         <v>45669</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="90"/>
+      <c r="P24" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" s="84"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67">
         <v>45759</v>
       </c>
       <c r="B25" s="65" t="s">
         <v>32</v>
+      </c>
+      <c r="M25" s="85">
+        <v>0.22</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="86">
+        <v>0.25</v>
+      </c>
+      <c r="Q25" s="85">
+        <v>0.27</v>
+      </c>
+      <c r="R25" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M26" s="85"/>
+      <c r="N26" s="22">
+        <v>218</v>
+      </c>
+      <c r="O26" s="22">
+        <v>800</v>
+      </c>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="86">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" s="85"/>
+      <c r="N27" s="22">
+        <v>208</v>
+      </c>
+      <c r="O27" s="22">
+        <v>215</v>
+      </c>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="86"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M28" s="85"/>
+      <c r="N28" s="22">
+        <f>N27+N26</f>
+        <v>426</v>
+      </c>
+      <c r="O28" s="22">
+        <f>O27+O26</f>
+        <v>1015</v>
+      </c>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="86"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M29" s="85"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="86"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M30" s="85"/>
+      <c r="N30" s="22">
+        <f>N28*M25</f>
+        <v>93.72</v>
+      </c>
+      <c r="O30" s="22">
+        <f>O28*P25</f>
+        <v>253.75</v>
+      </c>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="86">
+        <f>R26*Q25</f>
+        <v>69.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="88">
+        <v>1.5</v>
+      </c>
+      <c r="O31" s="88">
+        <v>5.6</v>
+      </c>
+      <c r="P31" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="89"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <f>N31+N30</f>
+        <v>95.22</v>
+      </c>
+      <c r="O32">
+        <f>O31+O30</f>
+        <v>259.35000000000002</v>
+      </c>
+      <c r="R32">
+        <f>R30</f>
+        <v>69.39</v>
+      </c>
+    </row>
+    <row r="33" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R33" s="64">
+        <f>R32+O32+N32</f>
+        <v>423.96000000000004</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:B25">
     <sortCondition ref="A2:A25"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N24:O24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -51040,7 +51333,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <f ca="1">TODAY()</f>
-        <v>44769</v>
+        <v>44800</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -51110,7 +51403,7 @@
       </c>
       <c r="D8" s="49">
         <f ca="1">XIRR(D5:D6,A5:A6)</f>
-        <v>0.86172114610672002</v>
+        <v>2.0910650491714473</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="22"/>
@@ -51217,7 +51510,7 @@
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f ca="1">TODAY()</f>
-        <v>44769</v>
+        <v>44800</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="46"/>
@@ -51255,7 +51548,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="48">
         <f ca="1">TODAY()</f>
-        <v>44769</v>
+        <v>44800</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="55"/>
@@ -51359,7 +51652,7 @@
       </c>
       <c r="N18" s="48">
         <f ca="1">TODAY()</f>
-        <v>44769</v>
+        <v>44800</v>
       </c>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -51500,7 +51793,7 @@
       </c>
       <c r="J22" s="60">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.002657759189606</v>
+        <v>1.1609699130058291</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51530,21 +51823,21 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="P23" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="60">
+      <c r="Q23" s="60" t="e">
         <f ca="1">XIRR(Q18:Q20,N18:N20)</f>
-        <v>2.7859163522720345</v>
+        <v>#NUM!</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51574,7 +51867,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>14.9</v>
+        <v>13.866666666666667</v>
       </c>
       <c r="P24" s="64" t="s">
         <v>36</v>
@@ -51588,7 +51881,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>2.2999999999999998</v>
+        <v>1.2666666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51611,11 +51904,11 @@
       </c>
       <c r="J25" s="64">
         <f ca="1">J24/L24</f>
-        <v>6.4131245339299028</v>
+        <v>6.8910256410256405</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="P25" s="64" t="s">
         <v>37</v>
@@ -51645,14 +51938,14 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>-23</v>
+        <v>-54</v>
       </c>
       <c r="P26" s="64" t="s">
         <v>38</v>
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>5.0401880141010595</v>
+        <v>9.1519203413940282</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -51772,7 +52065,7 @@
       </c>
       <c r="F34">
         <f ca="1">A30-A14</f>
-        <v>990</v>
+        <v>959</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -51788,7 +52081,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>33</v>
+        <v>31.966666666666665</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -51797,7 +52090,7 @@
       </c>
       <c r="D36">
         <f ca="1">D35/F35</f>
-        <v>5.9447379679144374</v>
+        <v>6.1369036373673556</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -51840,7 +52133,7 @@
       </c>
       <c r="D46" s="49">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.002657759189606</v>
+        <v>1.1609699130058291</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="26"/>
@@ -70946,7 +71239,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="108">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -356,6 +356,15 @@
   <si>
     <t>AE38</t>
   </si>
+  <si>
+    <t>reinvertido en</t>
+  </si>
+  <si>
+    <t>Retorno al final</t>
+  </si>
+  <si>
+    <t>con al30 a 58,20</t>
+  </si>
 </sst>
 </file>
 
@@ -365,7 +374,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +521,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1185,7 +1200,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1325,6 +1340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -44863,8 +44879,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45189,7 +45205,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>44746</v>
       </c>
@@ -45206,12 +45222,30 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>44838</v>
       </c>
       <c r="B18" s="58" t="s">
         <v>29</v>
+      </c>
+      <c r="C18" s="91">
+        <v>207942.48</v>
+      </c>
+      <c r="D18">
+        <v>207831.66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18">
+        <v>222212</v>
+      </c>
+      <c r="L18" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -50516,7 +50550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -51333,7 +51367,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <f ca="1">TODAY()</f>
-        <v>44800</v>
+        <v>44838</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -51401,9 +51435,9 @@
       <c r="C8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="49" t="e">
         <f ca="1">XIRR(D5:D6,A5:A6)</f>
-        <v>2.0910650491714473</v>
+        <v>#NUM!</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="22"/>
@@ -51510,7 +51544,7 @@
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f ca="1">TODAY()</f>
-        <v>44800</v>
+        <v>44838</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="46"/>
@@ -51548,7 +51582,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="48">
         <f ca="1">TODAY()</f>
-        <v>44800</v>
+        <v>44838</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="55"/>
@@ -51652,7 +51686,7 @@
       </c>
       <c r="N18" s="48">
         <f ca="1">TODAY()</f>
-        <v>44800</v>
+        <v>44838</v>
       </c>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -51793,7 +51827,7 @@
       </c>
       <c r="J22" s="60">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.1609699130058291</v>
+        <v>1.4509432673454288</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51823,7 +51857,7 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="P23" s="64" t="s">
         <v>60</v>
@@ -51837,7 +51871,7 @@
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51867,7 +51901,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>13.866666666666667</v>
+        <v>12.6</v>
       </c>
       <c r="P24" s="64" t="s">
         <v>36</v>
@@ -51881,7 +51915,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>1.2666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51904,11 +51938,11 @@
       </c>
       <c r="J25" s="64">
         <f ca="1">J24/L24</f>
-        <v>6.8910256410256405</v>
+        <v>7.5837742504409178</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P25" s="64" t="s">
         <v>37</v>
@@ -51938,14 +51972,14 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>-54</v>
+        <v>-92</v>
       </c>
       <c r="P26" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="e">
         <f ca="1">Q25/S24</f>
-        <v>9.1519203413940282</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -52065,7 +52099,7 @@
       </c>
       <c r="F34">
         <f ca="1">A30-A14</f>
-        <v>959</v>
+        <v>921</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -52081,7 +52115,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>31.966666666666665</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -52090,7 +52124,7 @@
       </c>
       <c r="D36">
         <f ca="1">D35/F35</f>
-        <v>6.1369036373673556</v>
+        <v>6.3901092163249658</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -52133,7 +52167,7 @@
       </c>
       <c r="D46" s="49">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.1609699130058291</v>
+        <v>1.4509432673454288</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="26"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="109">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -357,13 +357,16 @@
     <t>AE38</t>
   </si>
   <si>
-    <t>reinvertido en</t>
-  </si>
-  <si>
     <t>Retorno al final</t>
   </si>
   <si>
     <t>con al30 a 58,20</t>
+  </si>
+  <si>
+    <t>reinvertido en 1962 AE38</t>
+  </si>
+  <si>
+    <t>invertido en 302 AE38</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1340,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -44879,8 +44882,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45229,23 +45232,23 @@
       <c r="B18" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="91">
+      <c r="C18" s="90">
         <v>207942.48</v>
       </c>
       <c r="D18">
         <v>207831.66</v>
       </c>
       <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
         <v>105</v>
-      </c>
-      <c r="I18" t="s">
-        <v>106</v>
       </c>
       <c r="K18">
         <v>222212</v>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -50550,8 +50553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50956,16 +50959,28 @@
       <c r="B12" s="63" t="s">
         <v>32</v>
       </c>
+      <c r="C12" s="79">
+        <v>21130.400000000001</v>
+      </c>
+      <c r="D12" s="79">
+        <v>21024.75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="J12" t="s">
         <v>98</v>
       </c>
       <c r="M12" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="90" t="s">
+      <c r="N12" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="90"/>
+      <c r="O12" s="91"/>
       <c r="P12" s="84" t="s">
         <v>99</v>
       </c>
@@ -51140,10 +51155,10 @@
       <c r="M24" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="N24" s="90" t="s">
+      <c r="N24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="90"/>
+      <c r="O24" s="91"/>
       <c r="P24" s="84" t="s">
         <v>99</v>
       </c>
@@ -51367,7 +51382,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <f ca="1">TODAY()</f>
-        <v>44838</v>
+        <v>44848</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -51544,7 +51559,7 @@
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f ca="1">TODAY()</f>
-        <v>44838</v>
+        <v>44848</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="46"/>
@@ -51582,7 +51597,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="48">
         <f ca="1">TODAY()</f>
-        <v>44838</v>
+        <v>44848</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="55"/>
@@ -51686,7 +51701,7 @@
       </c>
       <c r="N18" s="48">
         <f ca="1">TODAY()</f>
-        <v>44838</v>
+        <v>44848</v>
       </c>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -51827,7 +51842,7 @@
       </c>
       <c r="J22" s="60">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.4509432673454288</v>
+        <v>1.5569703221321103</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51857,7 +51872,7 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="P23" s="64" t="s">
         <v>60</v>
@@ -51871,7 +51886,7 @@
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51901,7 +51916,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>12.6</v>
+        <v>12.266666666666667</v>
       </c>
       <c r="P24" s="64" t="s">
         <v>36</v>
@@ -51915,7 +51930,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51938,11 +51953,11 @@
       </c>
       <c r="J25" s="64">
         <f ca="1">J24/L24</f>
-        <v>7.5837742504409178</v>
+        <v>7.7898550724637676</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="P25" s="64" t="s">
         <v>37</v>
@@ -51972,14 +51987,14 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>-92</v>
+        <v>-102</v>
       </c>
       <c r="P26" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="Q26" t="e">
+      <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>#DIV/0!</v>
+        <v>-34.777297297297309</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -52099,7 +52114,7 @@
       </c>
       <c r="F34">
         <f ca="1">A30-A14</f>
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -52115,7 +52130,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>30.7</v>
+        <v>30.366666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -52124,7 +52139,7 @@
       </c>
       <c r="D36">
         <f ca="1">D35/F35</f>
-        <v>6.3901092163249658</v>
+        <v>6.4602531155162382</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -52167,7 +52182,7 @@
       </c>
       <c r="D46" s="49">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.4509432673454288</v>
+        <v>1.5569703221321103</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="26"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>invertido en 302 AE38</t>
+  </si>
+  <si>
+    <t>invertido en 165 AE38</t>
   </si>
 </sst>
 </file>
@@ -50554,7 +50557,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50991,6 +50994,18 @@
       </c>
       <c r="B13" s="69" t="s">
         <v>52</v>
+      </c>
+      <c r="C13" s="79">
+        <v>12544.24</v>
+      </c>
+      <c r="D13">
+        <v>12481.52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="M13" s="85">
         <v>0.22</v>
@@ -51382,7 +51397,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <f ca="1">TODAY()</f>
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -51559,7 +51574,7 @@
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f ca="1">TODAY()</f>
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="46"/>
@@ -51597,7 +51612,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="48">
         <f ca="1">TODAY()</f>
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="55"/>
@@ -51701,7 +51716,7 @@
       </c>
       <c r="N18" s="48">
         <f ca="1">TODAY()</f>
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -51842,7 +51857,7 @@
       </c>
       <c r="J22" s="60">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.5569703221321103</v>
+        <v>1.7252053141593937</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51872,7 +51887,7 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="P23" s="64" t="s">
         <v>60</v>
@@ -51886,7 +51901,7 @@
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>-10</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51916,7 +51931,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>12.266666666666667</v>
+        <v>11.833333333333334</v>
       </c>
       <c r="P24" s="64" t="s">
         <v>36</v>
@@ -51930,7 +51945,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>-0.33333333333333331</v>
+        <v>-0.76666666666666672</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51953,11 +51968,11 @@
       </c>
       <c r="J25" s="64">
         <f ca="1">J24/L24</f>
-        <v>7.7898550724637676</v>
+        <v>8.0751173708920181</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>-10</v>
+        <v>-23</v>
       </c>
       <c r="P25" s="64" t="s">
         <v>37</v>
@@ -51987,14 +52002,14 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>-102</v>
+        <v>-115</v>
       </c>
       <c r="P26" s="64" t="s">
         <v>38</v>
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>-34.777297297297309</v>
+        <v>-15.120564042303176</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -52114,7 +52129,7 @@
       </c>
       <c r="F34">
         <f ca="1">A30-A14</f>
-        <v>911</v>
+        <v>898</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -52130,7 +52145,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>30.366666666666667</v>
+        <v>29.933333333333334</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -52139,7 +52154,7 @@
       </c>
       <c r="D36">
         <f ca="1">D35/F35</f>
-        <v>6.4602531155162382</v>
+        <v>6.5537757107297256</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -52182,7 +52197,7 @@
       </c>
       <c r="D46" s="49">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.5569703221321103</v>
+        <v>1.7252053141593937</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="26"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -360,9 +360,6 @@
     <t>Retorno al final</t>
   </si>
   <si>
-    <t>con al30 a 58,20</t>
-  </si>
-  <si>
     <t>reinvertido en 1962 AE38</t>
   </si>
   <si>
@@ -370,6 +367,12 @@
   </si>
   <si>
     <t>invertido en 165 AE38</t>
+  </si>
+  <si>
+    <t>al30d 19,40</t>
+  </si>
+  <si>
+    <t>con al30 a 5820</t>
   </si>
 </sst>
 </file>
@@ -44883,10 +44886,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45211,7 +45214,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>44746</v>
       </c>
@@ -45228,7 +45231,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>44838</v>
       </c>
@@ -45242,7 +45245,7 @@
         <v>207831.66</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
         <v>105</v>
@@ -45251,7 +45254,10 @@
         <v>222212</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="N18" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -50556,8 +50562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50972,7 +50978,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -51005,7 +51011,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M13" s="85">
         <v>0.22</v>
@@ -51397,7 +51403,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <f ca="1">TODAY()</f>
-        <v>44861</v>
+        <v>44869</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -51574,7 +51580,7 @@
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f ca="1">TODAY()</f>
-        <v>44861</v>
+        <v>44869</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="46"/>
@@ -51612,7 +51618,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="48">
         <f ca="1">TODAY()</f>
-        <v>44861</v>
+        <v>44869</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="55"/>
@@ -51716,7 +51722,7 @@
       </c>
       <c r="N18" s="48">
         <f ca="1">TODAY()</f>
-        <v>44861</v>
+        <v>44869</v>
       </c>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -51857,7 +51863,7 @@
       </c>
       <c r="J22" s="60">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.7252053141593937</v>
+        <v>1.8522825360298159</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51887,7 +51893,7 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P23" s="64" t="s">
         <v>60</v>
@@ -51901,7 +51907,7 @@
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>-23</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51931,7 +51937,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>11.833333333333334</v>
+        <v>11.566666666666666</v>
       </c>
       <c r="P24" s="64" t="s">
         <v>36</v>
@@ -51945,7 +51951,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>-0.76666666666666672</v>
+        <v>-1.0333333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51968,11 +51974,11 @@
       </c>
       <c r="J25" s="64">
         <f ca="1">J24/L24</f>
-        <v>8.0751173708920181</v>
+        <v>8.2612872238232473</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>-23</v>
+        <v>-31</v>
       </c>
       <c r="P25" s="64" t="s">
         <v>37</v>
@@ -52002,14 +52008,14 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>-115</v>
+        <v>-123</v>
       </c>
       <c r="P26" s="64" t="s">
         <v>38</v>
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>-15.120564042303176</v>
+        <v>-11.218482999128161</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -52129,7 +52135,7 @@
       </c>
       <c r="F34">
         <f ca="1">A30-A14</f>
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -52145,7 +52151,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>29.933333333333334</v>
+        <v>29.666666666666668</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -52154,7 +52160,7 @@
       </c>
       <c r="D36">
         <f ca="1">D35/F35</f>
-        <v>6.5537757107297256</v>
+        <v>6.612686054196959</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -52197,7 +52203,7 @@
       </c>
       <c r="D46" s="49">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.7252053141593937</v>
+        <v>1.8522825360298159</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="26"/>

--- a/Bonos en pesos.xlsx
+++ b/Bonos en pesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Cartera Escalera" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="143">
   <si>
     <t>AL29_Cierre</t>
   </si>
@@ -297,16 +297,10 @@
     <t>IOL</t>
   </si>
   <si>
-    <t>Estan en 800 al41</t>
-  </si>
-  <si>
     <t>estan en 218 al30</t>
   </si>
   <si>
     <t>estan en 211 al30</t>
-  </si>
-  <si>
-    <t>estan en 208 al30</t>
   </si>
   <si>
     <t>ECO</t>
@@ -348,9 +342,6 @@
     <t>T023</t>
   </si>
   <si>
-    <t>257 AE38</t>
-  </si>
-  <si>
     <t>usd 2,2 de rentas de los al30</t>
   </si>
   <si>
@@ -374,6 +365,111 @@
   <si>
     <t>con al30 a 5820</t>
   </si>
+  <si>
+    <t>iol</t>
+  </si>
+  <si>
+    <t>PESOS</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>RENTA USD</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>VENDO $</t>
+  </si>
+  <si>
+    <t>COMPRO #</t>
+  </si>
+  <si>
+    <t>ACA TENGO QUE VER CUANTO EN USD RECUPERO VENDIENDO MAS LAS RENTAS REINVERTIDAS</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>estan en 215 al41</t>
+  </si>
+  <si>
+    <t>estan en 302 ae38</t>
+  </si>
+  <si>
+    <t>estan en 257 ae38</t>
+  </si>
+  <si>
+    <t>estan en 165 ae38</t>
+  </si>
+  <si>
+    <t>VENDO</t>
+  </si>
+  <si>
+    <t>CON COMISION</t>
+  </si>
+  <si>
+    <t>por EL ARBITRAJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENTA POR LOS </t>
+  </si>
+  <si>
+    <t>QUE YA TENGO</t>
+  </si>
+  <si>
+    <t>POR EL ARBITRAJE</t>
+  </si>
+  <si>
+    <t>POR LOS QUE TENGO</t>
+  </si>
+  <si>
+    <t>al30</t>
+  </si>
+  <si>
+    <t>ae38</t>
+  </si>
+  <si>
+    <t>al41</t>
+  </si>
+  <si>
+    <t>a valor actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI VENDO LOS AL30, AL41 Y AE38 A VALOR ACTUAL </t>
+  </si>
+  <si>
+    <t>OBTENGO ESTE DINERO</t>
+  </si>
+  <si>
+    <t>SIN TENER EN CUENTA LAS RENTAS COBRADAS</t>
+  </si>
+  <si>
+    <t>estan en 182 al41</t>
+  </si>
+  <si>
+    <t>CAMBIO PBA25</t>
+  </si>
+  <si>
+    <t>POR AE38</t>
+  </si>
+  <si>
+    <t>CAMBIO TO23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANJEADO PBA25 Y T023 POR </t>
+  </si>
+  <si>
+    <t>Estan en 220 al41</t>
+  </si>
+  <si>
+    <t>estan en 173 al41</t>
+  </si>
+  <si>
+    <t>inv inicial</t>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +479,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +634,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1209,7 +1313,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1347,6 +1451,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2673,11 +2787,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="155017984"/>
-        <c:axId val="155019520"/>
+        <c:axId val="270621696"/>
+        <c:axId val="270660352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155017984"/>
+        <c:axId val="270621696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155019520"/>
+        <c:crossAx val="270660352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2695,7 +2809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155019520"/>
+        <c:axId val="270660352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +2820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155017984"/>
+        <c:crossAx val="270621696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11539,11 +11653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="155774976"/>
-        <c:axId val="155776512"/>
+        <c:axId val="272576512"/>
+        <c:axId val="272578048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155774976"/>
+        <c:axId val="272576512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11553,7 +11667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155776512"/>
+        <c:crossAx val="272578048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11561,7 +11675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155776512"/>
+        <c:axId val="272578048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11572,7 +11686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155774976"/>
+        <c:crossAx val="272576512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12867,11 +12981,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="154749184"/>
-        <c:axId val="154755072"/>
+        <c:axId val="271845632"/>
+        <c:axId val="271867904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154749184"/>
+        <c:axId val="271845632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12881,7 +12995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154755072"/>
+        <c:crossAx val="271867904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12889,7 +13003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154755072"/>
+        <c:axId val="271867904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12900,7 +13014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154749184"/>
+        <c:crossAx val="271845632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14179,11 +14293,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="155354240"/>
-        <c:axId val="155355776"/>
+        <c:axId val="271971456"/>
+        <c:axId val="271972992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155354240"/>
+        <c:axId val="271971456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14193,7 +14307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155355776"/>
+        <c:crossAx val="271972992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14201,7 +14315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155355776"/>
+        <c:axId val="271972992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14212,7 +14326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155354240"/>
+        <c:crossAx val="271971456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15469,11 +15583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="155820032"/>
-        <c:axId val="155821568"/>
+        <c:axId val="272068608"/>
+        <c:axId val="272070144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155820032"/>
+        <c:axId val="272068608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15483,7 +15597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155821568"/>
+        <c:crossAx val="272070144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15491,7 +15605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155821568"/>
+        <c:axId val="272070144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15502,7 +15616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155820032"/>
+        <c:crossAx val="272068608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16915,11 +17029,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="155957120"/>
-        <c:axId val="155958656"/>
+        <c:axId val="272153216"/>
+        <c:axId val="272957824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155957120"/>
+        <c:axId val="272153216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16929,7 +17043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155958656"/>
+        <c:crossAx val="272957824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16937,7 +17051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155958656"/>
+        <c:axId val="272957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16948,7 +17062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155957120"/>
+        <c:crossAx val="272153216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18226,11 +18340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="156054272"/>
-        <c:axId val="156055808"/>
+        <c:axId val="273015936"/>
+        <c:axId val="273017472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156054272"/>
+        <c:axId val="273015936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18240,7 +18354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156055808"/>
+        <c:crossAx val="273017472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18248,7 +18362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156055808"/>
+        <c:axId val="273017472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18259,7 +18373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156054272"/>
+        <c:crossAx val="273015936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20457,11 +20571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="156201344"/>
-        <c:axId val="156202880"/>
+        <c:axId val="273244928"/>
+        <c:axId val="273246464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156201344"/>
+        <c:axId val="273244928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20471,7 +20585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156202880"/>
+        <c:crossAx val="273246464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20479,7 +20593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156202880"/>
+        <c:axId val="273246464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20490,7 +20604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156201344"/>
+        <c:crossAx val="273244928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44888,7 +45002,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -45228,7 +45342,7 @@
         <v>128521.59</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -45245,19 +45359,19 @@
         <v>207831.66</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K18">
         <v>222212</v>
       </c>
       <c r="L18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -50560,15 +50674,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -50617,14 +50733,16 @@
       <c r="K2">
         <v>100000</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79">
+      <c r="O2" s="81">
+        <v>275</v>
+      </c>
+      <c r="P2" s="81">
         <v>6016</v>
       </c>
-      <c r="Q2" s="78"/>
+      <c r="Q2" s="81"/>
       <c r="R2" s="80">
         <v>44588</v>
       </c>
@@ -50662,9 +50780,11 @@
         <v>115000</v>
       </c>
       <c r="N3" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="81"/>
+        <v>140</v>
+      </c>
+      <c r="O3" s="81">
+        <v>220</v>
+      </c>
       <c r="P3" s="81">
         <v>6305</v>
       </c>
@@ -50697,15 +50817,17 @@
       <c r="H4" s="61">
         <v>12488</v>
       </c>
-      <c r="N4" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
+      <c r="N4" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="69">
+        <v>225</v>
+      </c>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
       <c r="S4" s="78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -50736,8 +50858,12 @@
       <c r="J5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
+      <c r="N5" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="81">
+        <v>182</v>
+      </c>
       <c r="P5" s="81"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
@@ -50771,14 +50897,16 @@
       <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78">
+      <c r="N6" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="81">
+        <v>218</v>
+      </c>
+      <c r="P6" s="81">
         <v>5703</v>
       </c>
-      <c r="Q6" s="78"/>
+      <c r="Q6" s="81"/>
       <c r="R6" s="80">
         <v>44670</v>
       </c>
@@ -50809,17 +50937,23 @@
       <c r="H7" s="61">
         <v>12597</v>
       </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
       <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78">
+      <c r="M7" s="69"/>
+      <c r="N7" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="69">
+        <v>211</v>
+      </c>
+      <c r="P7" s="69">
         <v>6027.5</v>
       </c>
-      <c r="Q7" s="78"/>
+      <c r="Q7" s="69"/>
       <c r="R7" s="80">
         <v>44574</v>
       </c>
@@ -50851,9 +50985,11 @@
         <v>12800</v>
       </c>
       <c r="N8" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" s="78"/>
+        <v>141</v>
+      </c>
+      <c r="O8" s="78">
+        <v>173</v>
+      </c>
       <c r="P8" s="81">
         <v>5841.5</v>
       </c>
@@ -50889,15 +51025,19 @@
         <v>13720</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
+        <v>94</v>
+      </c>
+      <c r="N9" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="78">
+        <v>215</v>
+      </c>
       <c r="P9" s="78"/>
       <c r="Q9" s="78"/>
       <c r="R9" s="78"/>
       <c r="S9" s="78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -50920,21 +51060,26 @@
         <v>80</v>
       </c>
       <c r="G10" s="69"/>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
       <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
+        <v>95</v>
+      </c>
+      <c r="N10" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="69">
+        <v>225</v>
+      </c>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
       <c r="R10" s="78"/>
       <c r="S10" s="78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>44754</v>
       </c>
@@ -50951,12 +51096,22 @@
         <v>48</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="63"/>
       <c r="J11" t="s">
-        <v>103</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M11" s="78"/>
+      <c r="N11" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" s="78">
+        <v>257</v>
+      </c>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
       <c r="S11" t="s">
         <v>84</v>
       </c>
@@ -50978,23 +51133,24 @@
         <v>48</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>107</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G12" s="65"/>
       <c r="J12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="91"/>
-      <c r="P12" s="84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="M12" s="78"/>
+      <c r="N12" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="98">
+        <v>302</v>
+      </c>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68">
         <v>44851</v>
       </c>
@@ -51010,20 +51166,18 @@
       <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="I13" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="85">
-        <v>0.22</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="86">
-        <v>0.25</v>
+      <c r="N13" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="98">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -51033,14 +51187,19 @@
       <c r="B14" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="85"/>
-      <c r="N14" s="22">
-        <v>225</v>
-      </c>
-      <c r="O14" s="22">
-        <v>225</v>
-      </c>
-      <c r="P14" s="86"/>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" s="101"/>
+      <c r="P14" s="84" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
@@ -51049,12 +51208,18 @@
       <c r="B15" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="85"/>
-      <c r="N15" s="22">
-        <v>211</v>
-      </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="86"/>
+      <c r="M15" s="85">
+        <v>0.22</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="86">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
@@ -51065,21 +51230,27 @@
       </c>
       <c r="M16" s="85"/>
       <c r="N16" s="22">
-        <f>N15+N14</f>
-        <v>436</v>
-      </c>
-      <c r="O16" s="22"/>
+        <v>225</v>
+      </c>
+      <c r="O16" s="22">
+        <v>225</v>
+      </c>
       <c r="P16" s="86"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>45119</v>
       </c>
       <c r="B17" s="63" t="s">
         <v>32</v>
       </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
       <c r="M17" s="85"/>
-      <c r="N17" s="22"/>
+      <c r="N17" s="22">
+        <v>211</v>
+      </c>
       <c r="O17" s="22"/>
       <c r="P17" s="86"/>
     </row>
@@ -51090,15 +51261,26 @@
       <c r="B18" s="63" t="s">
         <v>32</v>
       </c>
+      <c r="C18" s="91"/>
+      <c r="D18" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="84" t="s">
+        <v>101</v>
+      </c>
       <c r="M18" s="85"/>
       <c r="N18" s="22">
-        <f>N16*M13</f>
-        <v>95.92</v>
-      </c>
-      <c r="O18" s="22">
-        <f>O14*P13</f>
-        <v>56.25</v>
-      </c>
+        <f>N17+N16</f>
+        <v>436</v>
+      </c>
+      <c r="O18" s="22"/>
       <c r="P18" s="86"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51108,18 +51290,26 @@
       <c r="B19" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="88">
-        <v>1.5</v>
-      </c>
-      <c r="O19" s="88">
-        <v>5.6</v>
-      </c>
-      <c r="P19" s="89" t="s">
-        <v>100</v>
-      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="85">
+        <v>156803</v>
+      </c>
+      <c r="E19" s="22">
+        <v>225</v>
+      </c>
+      <c r="F19" s="22">
+        <v>436</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="86">
+        <v>165</v>
+      </c>
+      <c r="M19" s="85"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="86"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="66">
@@ -51128,18 +51318,30 @@
       <c r="B20" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="N20">
-        <f>N18+N19</f>
-        <v>97.42</v>
-      </c>
-      <c r="O20">
-        <f>O18+O19</f>
-        <v>61.85</v>
-      </c>
-      <c r="P20" s="64">
-        <f>O20+N20</f>
-        <v>159.27000000000001</v>
-      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="22">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="86">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="M20" s="85"/>
+      <c r="N20" s="22">
+        <f>N18*M15</f>
+        <v>95.92</v>
+      </c>
+      <c r="O20" s="22">
+        <f>O16*P15</f>
+        <v>56.25</v>
+      </c>
+      <c r="P20" s="86"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="66">
@@ -51148,7 +51350,34 @@
       <c r="B21" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="64"/>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="85">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E21" s="22">
+        <v>90</v>
+      </c>
+      <c r="F21" s="22">
+        <v>76.3</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="86">
+        <v>105</v>
+      </c>
+      <c r="M21" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="88">
+        <v>1.5</v>
+      </c>
+      <c r="O21" s="88">
+        <v>5.6</v>
+      </c>
+      <c r="P21" s="89" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="66">
@@ -51157,6 +51386,23 @@
       <c r="B22" s="65" t="s">
         <v>32</v>
       </c>
+      <c r="D22" s="85"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="86"/>
+      <c r="N22">
+        <f>N20+N21</f>
+        <v>97.42</v>
+      </c>
+      <c r="O22">
+        <f>O20+O21</f>
+        <v>61.85</v>
+      </c>
+      <c r="P22" s="64">
+        <f>O22+N22</f>
+        <v>159.27000000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="66">
@@ -51165,6 +51411,12 @@
       <c r="B23" s="65" t="s">
         <v>32</v>
       </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="86"/>
+      <c r="P23" s="64"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="66">
@@ -51173,20 +51425,11 @@
       <c r="B24" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="N24" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="91"/>
-      <c r="P24" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q24" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="R24" s="84"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67">
@@ -51195,127 +51438,904 @@
       <c r="B25" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="85">
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="91"/>
+      <c r="M26" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="101"/>
+      <c r="P26" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="R26" s="84"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C27" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="85">
         <v>0.22</v>
       </c>
-      <c r="N25" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="P25" s="86">
+      <c r="N27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" s="86">
         <v>0.25</v>
       </c>
-      <c r="Q25" s="85">
+      <c r="Q27" s="85">
         <v>0.27</v>
       </c>
-      <c r="R25" s="86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M26" s="85"/>
-      <c r="N26" s="22">
-        <v>218</v>
-      </c>
-      <c r="O26" s="22">
-        <v>800</v>
-      </c>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="86">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
-        <v>102</v>
-      </c>
-      <c r="M27" s="85"/>
-      <c r="N27" s="22">
-        <v>208</v>
-      </c>
-      <c r="O27" s="22">
-        <v>215</v>
-      </c>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="86"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="85">
+        <v>156803</v>
+      </c>
+      <c r="D28" s="22">
+        <v>97720</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="86">
+        <v>930</v>
+      </c>
       <c r="M28" s="85"/>
       <c r="N28" s="22">
-        <f>N27+N26</f>
-        <v>426</v>
+        <v>218</v>
       </c>
       <c r="O28" s="22">
-        <f>O27+O26</f>
-        <v>1015</v>
+        <v>800</v>
       </c>
       <c r="P28" s="86"/>
       <c r="Q28" s="85"/>
-      <c r="R28" s="86"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" s="86">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="87"/>
+      <c r="D29" s="88">
+        <f>D28-(D28*1/100)</f>
+        <v>96742.8</v>
+      </c>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="72">
+        <v>930</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
       <c r="M29" s="85"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
+      <c r="N29" s="22">
+        <v>208</v>
+      </c>
+      <c r="O29" s="22">
+        <v>215</v>
+      </c>
       <c r="P29" s="86"/>
       <c r="Q29" s="85"/>
       <c r="R29" s="86"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M30" s="85"/>
       <c r="N30" s="22">
-        <f>N28*M25</f>
-        <v>93.72</v>
+        <f>N29+N28</f>
+        <v>426</v>
       </c>
       <c r="O30" s="22">
-        <f>O28*P25</f>
-        <v>253.75</v>
+        <f>O29+O28</f>
+        <v>1015</v>
       </c>
       <c r="P30" s="86"/>
       <c r="Q30" s="85"/>
-      <c r="R30" s="86">
-        <f>R26*Q25</f>
+      <c r="R30" s="86"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C31" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28">
+        <v>1.75</v>
+      </c>
+      <c r="F31" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="84">
+        <v>1.94</v>
+      </c>
+      <c r="M31" s="85"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="86"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C32" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="23">
+        <v>44935</v>
+      </c>
+      <c r="E32" s="21">
+        <f>E29*E31/100</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <f>F29*F31/100</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="93">
+        <f>H29*H31/100</f>
+        <v>18.042000000000002</v>
+      </c>
+      <c r="M32" s="85"/>
+      <c r="N32" s="22">
+        <f>N30*M27</f>
+        <v>93.72</v>
+      </c>
+      <c r="O32" s="22">
+        <f>O30*P27</f>
+        <v>253.75</v>
+      </c>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="86">
+        <f>R28*Q27</f>
         <v>69.39</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M31" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" s="88">
+    <row r="33" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="87"/>
+      <c r="D33" s="94">
+        <v>45116</v>
+      </c>
+      <c r="E33" s="95">
+        <v>18.472961430000002</v>
+      </c>
+      <c r="F33" s="88">
+        <v>3.1128375373525556</v>
+      </c>
+      <c r="G33" s="88"/>
+      <c r="H33" s="96">
+        <v>18.616906584000002</v>
+      </c>
+      <c r="M33" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="88">
         <v>1.5</v>
       </c>
-      <c r="O31" s="88">
+      <c r="O33" s="88">
         <v>5.6</v>
       </c>
-      <c r="P31" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="89"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N32">
-        <f>N31+N30</f>
+      <c r="P33" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="89"/>
+    </row>
+    <row r="34" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="72">
+        <f>H32+H33</f>
+        <v>36.658906584000007</v>
+      </c>
+      <c r="N34">
+        <f>N33+N32</f>
         <v>95.22</v>
       </c>
-      <c r="O32">
-        <f>O31+O30</f>
+      <c r="O34">
+        <f>O33+O32</f>
         <v>259.35000000000002</v>
       </c>
-      <c r="R32">
-        <f>R30</f>
+      <c r="R34">
+        <f>R32</f>
         <v>69.39</v>
       </c>
     </row>
-    <row r="33" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R33" s="64">
-        <f>R32+O32+N32</f>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="64">
+        <f>R34+O34+N34</f>
         <v>423.96000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:18" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="97">
+        <v>44935</v>
+      </c>
+      <c r="E37" s="28">
+        <f>E19*E31/100</f>
+        <v>3.9375</v>
+      </c>
+      <c r="F37" s="28">
+        <f>F19*F31/100</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="84">
+        <f>H19*H31/100</f>
+        <v>3.2009999999999996</v>
+      </c>
+      <c r="J37" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="N37" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="23">
+        <v>45116</v>
+      </c>
+      <c r="E38" s="22">
+        <f>E19*E31/100</f>
+        <v>3.9375</v>
+      </c>
+      <c r="F38" s="22">
+        <f>F19*F31/100</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="86">
+        <f>H19*H31/100</f>
+        <v>3.2009999999999996</v>
+      </c>
+      <c r="J38" s="85">
+        <v>700</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22">
+        <v>436</v>
+      </c>
+      <c r="M38" s="22">
+        <v>1115</v>
+      </c>
+      <c r="N38" s="86">
+        <v>225</v>
+      </c>
+      <c r="P38" s="78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="87"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88">
+        <f>SUM(E37:E38)</f>
+        <v>7.875</v>
+      </c>
+      <c r="F39" s="88">
+        <f>SUM(F37:F38)</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G39" s="88"/>
+      <c r="H39" s="89">
+        <f>SUM(H37:H38)</f>
+        <v>6.4019999999999992</v>
+      </c>
+      <c r="J39" s="85"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="86"/>
+      <c r="P39" s="78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" s="78" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="72">
+        <f>SUM(E39)</f>
+        <v>7.875</v>
+      </c>
+      <c r="F40" s="72">
+        <f>SUM(F39)</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="72">
+        <f>SUM(H39)</f>
+        <v>6.4019999999999992</v>
+      </c>
+      <c r="J40" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88">
+        <f>L38*F45</f>
+        <v>100.71600000000001</v>
+      </c>
+      <c r="M40" s="88">
+        <f>M38*H45</f>
+        <v>337.84499999999997</v>
+      </c>
+      <c r="N40" s="89">
+        <f>N38*E45</f>
+        <v>61.875000000000007</v>
+      </c>
+      <c r="O40" s="100">
+        <f>SUM(L40:N40)</f>
+        <v>500.43599999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="78"/>
+      <c r="D42" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C43" s="91"/>
+      <c r="D43" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C44" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="85">
+        <v>135000</v>
+      </c>
+      <c r="E44" s="22">
+        <v>790</v>
+      </c>
+      <c r="F44" s="22">
+        <v>218</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="86">
+        <v>559</v>
+      </c>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C45" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="85"/>
+      <c r="E45" s="22">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="86">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C46" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="85">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E46" s="22">
+        <v>90</v>
+      </c>
+      <c r="F46" s="22">
+        <v>76.3</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="86">
+        <v>99</v>
+      </c>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" t="s">
+        <v>139</v>
+      </c>
+      <c r="N46" s="64">
+        <f>H55+H29</f>
+        <v>2258</v>
+      </c>
+      <c r="O46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C47" s="78"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C48" s="78"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+    </row>
+    <row r="49" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="78"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+    </row>
+    <row r="50" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C51" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C52" s="85">
+        <v>135000</v>
+      </c>
+      <c r="D52" s="22">
+        <f>C52*D46</f>
+        <v>132570</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="86">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="85"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="3:16" s="78" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="85"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="86"/>
+    </row>
+    <row r="55" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="87"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="72">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="M57" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="N57" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="P57" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C58" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28">
+        <v>1.75</v>
+      </c>
+      <c r="F58" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="G58" s="28"/>
+      <c r="H58" s="84">
+        <v>1.94</v>
+      </c>
+      <c r="J58" s="85">
+        <v>700</v>
+      </c>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22">
+        <v>1201</v>
+      </c>
+      <c r="M58" s="22">
+        <f>H55+H44</f>
+        <v>1887</v>
+      </c>
+      <c r="N58" s="86">
+        <v>435</v>
+      </c>
+      <c r="P58" s="78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="23">
+        <v>44935</v>
+      </c>
+      <c r="E59" s="21">
+        <f>E55*E58/100</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="22">
+        <f>F55*F58/100</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="93">
+        <f>H55*H58/100</f>
+        <v>25.763199999999998</v>
+      </c>
+      <c r="J59" s="85"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="86"/>
+      <c r="P59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="85"/>
+      <c r="D60" s="23">
+        <v>45116</v>
+      </c>
+      <c r="E60" s="21">
+        <v>25.519724999999998</v>
+      </c>
+      <c r="F60" s="22">
+        <v>4.3002719528178242</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="93">
+        <v>25.718579999999996</v>
+      </c>
+      <c r="J60" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88">
+        <f>L58*F45</f>
+        <v>277.43100000000004</v>
+      </c>
+      <c r="M60" s="88">
+        <f>M58*H45</f>
+        <v>571.76099999999997</v>
+      </c>
+      <c r="N60" s="89">
+        <f>N58*E45</f>
+        <v>119.62500000000001</v>
+      </c>
+      <c r="O60" s="100">
+        <f>SUM(L60:N60)</f>
+        <v>968.81700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C61" s="85"/>
+      <c r="D61" s="23">
+        <v>45300</v>
+      </c>
+      <c r="E61" s="22">
+        <f>E55*E58/100</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="22">
+        <f>F55*0.38/100</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="86">
+        <f>H55*2.12/100</f>
+        <v>28.153600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C62" s="85"/>
+      <c r="D62" s="23">
+        <v>45482</v>
+      </c>
+      <c r="E62" s="22">
+        <f>E55*E58/100</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="22">
+        <f>F55*0.38/100</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="86">
+        <f>H55*2.12/100</f>
+        <v>28.153600000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C63" s="85"/>
+      <c r="D63" s="23">
+        <v>45666</v>
+      </c>
+      <c r="E63" s="22">
+        <f>E55*E58/100</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="22">
+        <f>F55*0.36/100</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="22"/>
+      <c r="H63" s="86">
+        <f>H55*2.5/100</f>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C64" s="85"/>
+      <c r="D64" s="23">
+        <v>45847</v>
+      </c>
+      <c r="E64" s="22">
+        <f>E55*E58/100</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="22">
+        <f>F55*0.33/100</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="86">
+        <f>H55*2.5/100</f>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="87"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88">
+        <f>SUM(E59:E64)</f>
+        <v>25.519724999999998</v>
+      </c>
+      <c r="F65" s="88">
+        <f>SUM(F59:F64)</f>
+        <v>4.3002719528178242</v>
+      </c>
+      <c r="G65" s="88"/>
+      <c r="H65" s="89">
+        <f>SUM(H59:H64)</f>
+        <v>174.18898000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="97">
+        <v>44935</v>
+      </c>
+      <c r="E68" s="28">
+        <f>E44*E58/100</f>
+        <v>13.824999999999999</v>
+      </c>
+      <c r="F68" s="28">
+        <f>F44*F58/100</f>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G68" s="28"/>
+      <c r="H68" s="84">
+        <f>H44*H58/100</f>
+        <v>10.8446</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="23">
+        <v>45116</v>
+      </c>
+      <c r="E69" s="22">
+        <f>E44*E58/100</f>
+        <v>13.824999999999999</v>
+      </c>
+      <c r="F69" s="22">
+        <f>F44*F58/100</f>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G69" s="22"/>
+      <c r="H69" s="86">
+        <f>H44*H58/100</f>
+        <v>10.8446</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="85"/>
+      <c r="D70" s="23">
+        <v>45300</v>
+      </c>
+      <c r="E70" s="22">
+        <v>7.6124999999999998</v>
+      </c>
+      <c r="F70" s="22">
+        <f>F44*0.38/100</f>
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="G70" s="22"/>
+      <c r="H70" s="86">
+        <f>H44*2.12/100</f>
+        <v>11.850800000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="85"/>
+      <c r="D71" s="23">
+        <v>45482</v>
+      </c>
+      <c r="E71" s="22">
+        <v>7.6124999999999998</v>
+      </c>
+      <c r="F71" s="22">
+        <f>F44*0.38/100</f>
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="G71" s="22"/>
+      <c r="H71" s="86">
+        <f>H44*2.12/100</f>
+        <v>11.850800000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="85"/>
+      <c r="D72" s="23">
+        <v>45666</v>
+      </c>
+      <c r="E72" s="22">
+        <v>7.6124999999999998</v>
+      </c>
+      <c r="F72" s="22">
+        <f>F44*0.36/100</f>
+        <v>0.78480000000000005</v>
+      </c>
+      <c r="G72" s="22"/>
+      <c r="H72" s="86">
+        <f>H44*2.5/100</f>
+        <v>13.975</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="87"/>
+      <c r="D73" s="94">
+        <v>45847</v>
+      </c>
+      <c r="E73" s="88">
+        <v>7.6124999999999998</v>
+      </c>
+      <c r="F73" s="88">
+        <f>F44*0.33/100</f>
+        <v>0.71939999999999993</v>
+      </c>
+      <c r="G73" s="88"/>
+      <c r="H73" s="89">
+        <f>H44*2.5/100</f>
+        <v>13.975</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="72">
+        <f>SUM(E68:E73)</f>
+        <v>58.099999999999987</v>
+      </c>
+      <c r="F74" s="72">
+        <f>SUM(F68:F73)</f>
+        <v>4.2510000000000003</v>
+      </c>
+      <c r="H74" s="72">
+        <f>SUM(H68:H73)</f>
+        <v>73.340800000000002</v>
+      </c>
+      <c r="I74">
+        <f>E74+F74+H74</f>
+        <v>135.6918</v>
       </c>
     </row>
   </sheetData>
@@ -51323,8 +52343,8 @@
     <sortCondition ref="A2:A25"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N26:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51403,7 +52423,7 @@
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <f ca="1">TODAY()</f>
-        <v>44869</v>
+        <v>44916</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -51580,7 +52600,7 @@
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f ca="1">TODAY()</f>
-        <v>44869</v>
+        <v>44916</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="46"/>
@@ -51618,7 +52638,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="48">
         <f ca="1">TODAY()</f>
-        <v>44869</v>
+        <v>44916</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="55"/>
@@ -51722,7 +52742,7 @@
       </c>
       <c r="N18" s="48">
         <f ca="1">TODAY()</f>
-        <v>44869</v>
+        <v>44916</v>
       </c>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -51863,7 +52883,7 @@
       </c>
       <c r="J22" s="60">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.8522825360298159</v>
+        <v>4.4132660388946539</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51893,7 +52913,7 @@
       </c>
       <c r="L23">
         <f ca="1">G19-G15</f>
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="P23" s="64" t="s">
         <v>60</v>
@@ -51907,7 +52927,7 @@
       </c>
       <c r="S23">
         <f ca="1">N20-N18</f>
-        <v>-31</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51937,7 +52957,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">L23/30</f>
-        <v>11.566666666666666</v>
+        <v>10</v>
       </c>
       <c r="P24" s="64" t="s">
         <v>36</v>
@@ -51951,7 +52971,7 @@
       </c>
       <c r="S24">
         <f ca="1">S23/30</f>
-        <v>-1.0333333333333334</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51974,11 +52994,11 @@
       </c>
       <c r="J25" s="64">
         <f ca="1">J24/L24</f>
-        <v>8.2612872238232473</v>
+        <v>9.5555555555555554</v>
       </c>
       <c r="N25">
         <f ca="1">N20-N18</f>
-        <v>-31</v>
+        <v>-78</v>
       </c>
       <c r="P25" s="64" t="s">
         <v>37</v>
@@ -52008,14 +53028,14 @@
       <c r="J26" s="1"/>
       <c r="N26">
         <f ca="1">N19-N18</f>
-        <v>-123</v>
+        <v>-170</v>
       </c>
       <c r="P26" s="64" t="s">
         <v>38</v>
       </c>
       <c r="Q26">
         <f ca="1">Q25/S24</f>
-        <v>-11.218482999128161</v>
+        <v>-4.4586278586278594</v>
       </c>
       <c r="S26" s="22"/>
     </row>
@@ -52135,7 +53155,7 @@
       </c>
       <c r="F34">
         <f ca="1">A30-A14</f>
-        <v>890</v>
+        <v>843</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -52151,7 +53171,7 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">F34/30</f>
-        <v>29.666666666666668</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -52160,7 +53180,7 @@
       </c>
       <c r="D36">
         <f ca="1">D35/F35</f>
-        <v>6.612686054196959</v>
+        <v>6.9813648733514748</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -52203,7 +53223,7 @@
       </c>
       <c r="D46" s="49">
         <f ca="1">XIRR(J15:J19,G15:G19)</f>
-        <v>1.8522825360298159</v>
+        <v>4.4132660388946539</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="26"/>
